--- a/trunk/Wip/UnitTest/HoangVanMinh/Unit Test View History.xlsx
+++ b/trunk/Wip/UnitTest/HoangVanMinh/Unit Test View History.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\01-HOCTAP\Fshopt\MockProject\Wip\UnitTest\HoangVanMinh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\01-HOCTAP\Fshopt\Mock1-G4-haui\Wip\UnitTest\HoangVanMinh\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Test Report" sheetId="2" r:id="rId1"/>
     <sheet name="Funtion" sheetId="3" r:id="rId2"/>
-    <sheet name="Test 1" sheetId="1" r:id="rId3"/>
+    <sheet name="ViewHistory" sheetId="1" r:id="rId3"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
@@ -1312,137 +1312,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1"/>
@@ -1512,9 +1392,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1552,23 +1429,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1584,12 +1452,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1597,9 +1459,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -1609,35 +1468,8 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="50" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1711,7 +1543,6 @@
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1720,36 +1551,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="2" borderId="50" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1814,6 +1615,205 @@
     <xf numFmtId="1" fontId="14" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="19" fillId="2" borderId="56" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="50" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="2" borderId="50" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3910,896 +3910,896 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="113" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" style="113" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="113" customWidth="1"/>
-    <col min="4" max="4" width="11" style="113" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="113" customWidth="1"/>
-    <col min="6" max="8" width="6" style="113" customWidth="1"/>
-    <col min="9" max="9" width="24" style="113" customWidth="1"/>
-    <col min="10" max="10" width="37.85546875" style="113" customWidth="1"/>
-    <col min="11" max="256" width="9.140625" style="113"/>
-    <col min="257" max="257" width="17.5703125" style="113" customWidth="1"/>
-    <col min="258" max="258" width="30.42578125" style="113" customWidth="1"/>
-    <col min="259" max="259" width="13.85546875" style="113" customWidth="1"/>
-    <col min="260" max="260" width="11" style="113" customWidth="1"/>
-    <col min="261" max="261" width="11.140625" style="113" customWidth="1"/>
-    <col min="262" max="264" width="6" style="113" customWidth="1"/>
-    <col min="265" max="265" width="24" style="113" customWidth="1"/>
-    <col min="266" max="266" width="37.85546875" style="113" customWidth="1"/>
-    <col min="267" max="512" width="9.140625" style="113"/>
-    <col min="513" max="513" width="17.5703125" style="113" customWidth="1"/>
-    <col min="514" max="514" width="30.42578125" style="113" customWidth="1"/>
-    <col min="515" max="515" width="13.85546875" style="113" customWidth="1"/>
-    <col min="516" max="516" width="11" style="113" customWidth="1"/>
-    <col min="517" max="517" width="11.140625" style="113" customWidth="1"/>
-    <col min="518" max="520" width="6" style="113" customWidth="1"/>
-    <col min="521" max="521" width="24" style="113" customWidth="1"/>
-    <col min="522" max="522" width="37.85546875" style="113" customWidth="1"/>
-    <col min="523" max="768" width="9.140625" style="113"/>
-    <col min="769" max="769" width="17.5703125" style="113" customWidth="1"/>
-    <col min="770" max="770" width="30.42578125" style="113" customWidth="1"/>
-    <col min="771" max="771" width="13.85546875" style="113" customWidth="1"/>
-    <col min="772" max="772" width="11" style="113" customWidth="1"/>
-    <col min="773" max="773" width="11.140625" style="113" customWidth="1"/>
-    <col min="774" max="776" width="6" style="113" customWidth="1"/>
-    <col min="777" max="777" width="24" style="113" customWidth="1"/>
-    <col min="778" max="778" width="37.85546875" style="113" customWidth="1"/>
-    <col min="779" max="1024" width="9.140625" style="113"/>
-    <col min="1025" max="1025" width="17.5703125" style="113" customWidth="1"/>
-    <col min="1026" max="1026" width="30.42578125" style="113" customWidth="1"/>
-    <col min="1027" max="1027" width="13.85546875" style="113" customWidth="1"/>
-    <col min="1028" max="1028" width="11" style="113" customWidth="1"/>
-    <col min="1029" max="1029" width="11.140625" style="113" customWidth="1"/>
-    <col min="1030" max="1032" width="6" style="113" customWidth="1"/>
-    <col min="1033" max="1033" width="24" style="113" customWidth="1"/>
-    <col min="1034" max="1034" width="37.85546875" style="113" customWidth="1"/>
-    <col min="1035" max="1280" width="9.140625" style="113"/>
-    <col min="1281" max="1281" width="17.5703125" style="113" customWidth="1"/>
-    <col min="1282" max="1282" width="30.42578125" style="113" customWidth="1"/>
-    <col min="1283" max="1283" width="13.85546875" style="113" customWidth="1"/>
-    <col min="1284" max="1284" width="11" style="113" customWidth="1"/>
-    <col min="1285" max="1285" width="11.140625" style="113" customWidth="1"/>
-    <col min="1286" max="1288" width="6" style="113" customWidth="1"/>
-    <col min="1289" max="1289" width="24" style="113" customWidth="1"/>
-    <col min="1290" max="1290" width="37.85546875" style="113" customWidth="1"/>
-    <col min="1291" max="1536" width="9.140625" style="113"/>
-    <col min="1537" max="1537" width="17.5703125" style="113" customWidth="1"/>
-    <col min="1538" max="1538" width="30.42578125" style="113" customWidth="1"/>
-    <col min="1539" max="1539" width="13.85546875" style="113" customWidth="1"/>
-    <col min="1540" max="1540" width="11" style="113" customWidth="1"/>
-    <col min="1541" max="1541" width="11.140625" style="113" customWidth="1"/>
-    <col min="1542" max="1544" width="6" style="113" customWidth="1"/>
-    <col min="1545" max="1545" width="24" style="113" customWidth="1"/>
-    <col min="1546" max="1546" width="37.85546875" style="113" customWidth="1"/>
-    <col min="1547" max="1792" width="9.140625" style="113"/>
-    <col min="1793" max="1793" width="17.5703125" style="113" customWidth="1"/>
-    <col min="1794" max="1794" width="30.42578125" style="113" customWidth="1"/>
-    <col min="1795" max="1795" width="13.85546875" style="113" customWidth="1"/>
-    <col min="1796" max="1796" width="11" style="113" customWidth="1"/>
-    <col min="1797" max="1797" width="11.140625" style="113" customWidth="1"/>
-    <col min="1798" max="1800" width="6" style="113" customWidth="1"/>
-    <col min="1801" max="1801" width="24" style="113" customWidth="1"/>
-    <col min="1802" max="1802" width="37.85546875" style="113" customWidth="1"/>
-    <col min="1803" max="2048" width="9.140625" style="113"/>
-    <col min="2049" max="2049" width="17.5703125" style="113" customWidth="1"/>
-    <col min="2050" max="2050" width="30.42578125" style="113" customWidth="1"/>
-    <col min="2051" max="2051" width="13.85546875" style="113" customWidth="1"/>
-    <col min="2052" max="2052" width="11" style="113" customWidth="1"/>
-    <col min="2053" max="2053" width="11.140625" style="113" customWidth="1"/>
-    <col min="2054" max="2056" width="6" style="113" customWidth="1"/>
-    <col min="2057" max="2057" width="24" style="113" customWidth="1"/>
-    <col min="2058" max="2058" width="37.85546875" style="113" customWidth="1"/>
-    <col min="2059" max="2304" width="9.140625" style="113"/>
-    <col min="2305" max="2305" width="17.5703125" style="113" customWidth="1"/>
-    <col min="2306" max="2306" width="30.42578125" style="113" customWidth="1"/>
-    <col min="2307" max="2307" width="13.85546875" style="113" customWidth="1"/>
-    <col min="2308" max="2308" width="11" style="113" customWidth="1"/>
-    <col min="2309" max="2309" width="11.140625" style="113" customWidth="1"/>
-    <col min="2310" max="2312" width="6" style="113" customWidth="1"/>
-    <col min="2313" max="2313" width="24" style="113" customWidth="1"/>
-    <col min="2314" max="2314" width="37.85546875" style="113" customWidth="1"/>
-    <col min="2315" max="2560" width="9.140625" style="113"/>
-    <col min="2561" max="2561" width="17.5703125" style="113" customWidth="1"/>
-    <col min="2562" max="2562" width="30.42578125" style="113" customWidth="1"/>
-    <col min="2563" max="2563" width="13.85546875" style="113" customWidth="1"/>
-    <col min="2564" max="2564" width="11" style="113" customWidth="1"/>
-    <col min="2565" max="2565" width="11.140625" style="113" customWidth="1"/>
-    <col min="2566" max="2568" width="6" style="113" customWidth="1"/>
-    <col min="2569" max="2569" width="24" style="113" customWidth="1"/>
-    <col min="2570" max="2570" width="37.85546875" style="113" customWidth="1"/>
-    <col min="2571" max="2816" width="9.140625" style="113"/>
-    <col min="2817" max="2817" width="17.5703125" style="113" customWidth="1"/>
-    <col min="2818" max="2818" width="30.42578125" style="113" customWidth="1"/>
-    <col min="2819" max="2819" width="13.85546875" style="113" customWidth="1"/>
-    <col min="2820" max="2820" width="11" style="113" customWidth="1"/>
-    <col min="2821" max="2821" width="11.140625" style="113" customWidth="1"/>
-    <col min="2822" max="2824" width="6" style="113" customWidth="1"/>
-    <col min="2825" max="2825" width="24" style="113" customWidth="1"/>
-    <col min="2826" max="2826" width="37.85546875" style="113" customWidth="1"/>
-    <col min="2827" max="3072" width="9.140625" style="113"/>
-    <col min="3073" max="3073" width="17.5703125" style="113" customWidth="1"/>
-    <col min="3074" max="3074" width="30.42578125" style="113" customWidth="1"/>
-    <col min="3075" max="3075" width="13.85546875" style="113" customWidth="1"/>
-    <col min="3076" max="3076" width="11" style="113" customWidth="1"/>
-    <col min="3077" max="3077" width="11.140625" style="113" customWidth="1"/>
-    <col min="3078" max="3080" width="6" style="113" customWidth="1"/>
-    <col min="3081" max="3081" width="24" style="113" customWidth="1"/>
-    <col min="3082" max="3082" width="37.85546875" style="113" customWidth="1"/>
-    <col min="3083" max="3328" width="9.140625" style="113"/>
-    <col min="3329" max="3329" width="17.5703125" style="113" customWidth="1"/>
-    <col min="3330" max="3330" width="30.42578125" style="113" customWidth="1"/>
-    <col min="3331" max="3331" width="13.85546875" style="113" customWidth="1"/>
-    <col min="3332" max="3332" width="11" style="113" customWidth="1"/>
-    <col min="3333" max="3333" width="11.140625" style="113" customWidth="1"/>
-    <col min="3334" max="3336" width="6" style="113" customWidth="1"/>
-    <col min="3337" max="3337" width="24" style="113" customWidth="1"/>
-    <col min="3338" max="3338" width="37.85546875" style="113" customWidth="1"/>
-    <col min="3339" max="3584" width="9.140625" style="113"/>
-    <col min="3585" max="3585" width="17.5703125" style="113" customWidth="1"/>
-    <col min="3586" max="3586" width="30.42578125" style="113" customWidth="1"/>
-    <col min="3587" max="3587" width="13.85546875" style="113" customWidth="1"/>
-    <col min="3588" max="3588" width="11" style="113" customWidth="1"/>
-    <col min="3589" max="3589" width="11.140625" style="113" customWidth="1"/>
-    <col min="3590" max="3592" width="6" style="113" customWidth="1"/>
-    <col min="3593" max="3593" width="24" style="113" customWidth="1"/>
-    <col min="3594" max="3594" width="37.85546875" style="113" customWidth="1"/>
-    <col min="3595" max="3840" width="9.140625" style="113"/>
-    <col min="3841" max="3841" width="17.5703125" style="113" customWidth="1"/>
-    <col min="3842" max="3842" width="30.42578125" style="113" customWidth="1"/>
-    <col min="3843" max="3843" width="13.85546875" style="113" customWidth="1"/>
-    <col min="3844" max="3844" width="11" style="113" customWidth="1"/>
-    <col min="3845" max="3845" width="11.140625" style="113" customWidth="1"/>
-    <col min="3846" max="3848" width="6" style="113" customWidth="1"/>
-    <col min="3849" max="3849" width="24" style="113" customWidth="1"/>
-    <col min="3850" max="3850" width="37.85546875" style="113" customWidth="1"/>
-    <col min="3851" max="4096" width="9.140625" style="113"/>
-    <col min="4097" max="4097" width="17.5703125" style="113" customWidth="1"/>
-    <col min="4098" max="4098" width="30.42578125" style="113" customWidth="1"/>
-    <col min="4099" max="4099" width="13.85546875" style="113" customWidth="1"/>
-    <col min="4100" max="4100" width="11" style="113" customWidth="1"/>
-    <col min="4101" max="4101" width="11.140625" style="113" customWidth="1"/>
-    <col min="4102" max="4104" width="6" style="113" customWidth="1"/>
-    <col min="4105" max="4105" width="24" style="113" customWidth="1"/>
-    <col min="4106" max="4106" width="37.85546875" style="113" customWidth="1"/>
-    <col min="4107" max="4352" width="9.140625" style="113"/>
-    <col min="4353" max="4353" width="17.5703125" style="113" customWidth="1"/>
-    <col min="4354" max="4354" width="30.42578125" style="113" customWidth="1"/>
-    <col min="4355" max="4355" width="13.85546875" style="113" customWidth="1"/>
-    <col min="4356" max="4356" width="11" style="113" customWidth="1"/>
-    <col min="4357" max="4357" width="11.140625" style="113" customWidth="1"/>
-    <col min="4358" max="4360" width="6" style="113" customWidth="1"/>
-    <col min="4361" max="4361" width="24" style="113" customWidth="1"/>
-    <col min="4362" max="4362" width="37.85546875" style="113" customWidth="1"/>
-    <col min="4363" max="4608" width="9.140625" style="113"/>
-    <col min="4609" max="4609" width="17.5703125" style="113" customWidth="1"/>
-    <col min="4610" max="4610" width="30.42578125" style="113" customWidth="1"/>
-    <col min="4611" max="4611" width="13.85546875" style="113" customWidth="1"/>
-    <col min="4612" max="4612" width="11" style="113" customWidth="1"/>
-    <col min="4613" max="4613" width="11.140625" style="113" customWidth="1"/>
-    <col min="4614" max="4616" width="6" style="113" customWidth="1"/>
-    <col min="4617" max="4617" width="24" style="113" customWidth="1"/>
-    <col min="4618" max="4618" width="37.85546875" style="113" customWidth="1"/>
-    <col min="4619" max="4864" width="9.140625" style="113"/>
-    <col min="4865" max="4865" width="17.5703125" style="113" customWidth="1"/>
-    <col min="4866" max="4866" width="30.42578125" style="113" customWidth="1"/>
-    <col min="4867" max="4867" width="13.85546875" style="113" customWidth="1"/>
-    <col min="4868" max="4868" width="11" style="113" customWidth="1"/>
-    <col min="4869" max="4869" width="11.140625" style="113" customWidth="1"/>
-    <col min="4870" max="4872" width="6" style="113" customWidth="1"/>
-    <col min="4873" max="4873" width="24" style="113" customWidth="1"/>
-    <col min="4874" max="4874" width="37.85546875" style="113" customWidth="1"/>
-    <col min="4875" max="5120" width="9.140625" style="113"/>
-    <col min="5121" max="5121" width="17.5703125" style="113" customWidth="1"/>
-    <col min="5122" max="5122" width="30.42578125" style="113" customWidth="1"/>
-    <col min="5123" max="5123" width="13.85546875" style="113" customWidth="1"/>
-    <col min="5124" max="5124" width="11" style="113" customWidth="1"/>
-    <col min="5125" max="5125" width="11.140625" style="113" customWidth="1"/>
-    <col min="5126" max="5128" width="6" style="113" customWidth="1"/>
-    <col min="5129" max="5129" width="24" style="113" customWidth="1"/>
-    <col min="5130" max="5130" width="37.85546875" style="113" customWidth="1"/>
-    <col min="5131" max="5376" width="9.140625" style="113"/>
-    <col min="5377" max="5377" width="17.5703125" style="113" customWidth="1"/>
-    <col min="5378" max="5378" width="30.42578125" style="113" customWidth="1"/>
-    <col min="5379" max="5379" width="13.85546875" style="113" customWidth="1"/>
-    <col min="5380" max="5380" width="11" style="113" customWidth="1"/>
-    <col min="5381" max="5381" width="11.140625" style="113" customWidth="1"/>
-    <col min="5382" max="5384" width="6" style="113" customWidth="1"/>
-    <col min="5385" max="5385" width="24" style="113" customWidth="1"/>
-    <col min="5386" max="5386" width="37.85546875" style="113" customWidth="1"/>
-    <col min="5387" max="5632" width="9.140625" style="113"/>
-    <col min="5633" max="5633" width="17.5703125" style="113" customWidth="1"/>
-    <col min="5634" max="5634" width="30.42578125" style="113" customWidth="1"/>
-    <col min="5635" max="5635" width="13.85546875" style="113" customWidth="1"/>
-    <col min="5636" max="5636" width="11" style="113" customWidth="1"/>
-    <col min="5637" max="5637" width="11.140625" style="113" customWidth="1"/>
-    <col min="5638" max="5640" width="6" style="113" customWidth="1"/>
-    <col min="5641" max="5641" width="24" style="113" customWidth="1"/>
-    <col min="5642" max="5642" width="37.85546875" style="113" customWidth="1"/>
-    <col min="5643" max="5888" width="9.140625" style="113"/>
-    <col min="5889" max="5889" width="17.5703125" style="113" customWidth="1"/>
-    <col min="5890" max="5890" width="30.42578125" style="113" customWidth="1"/>
-    <col min="5891" max="5891" width="13.85546875" style="113" customWidth="1"/>
-    <col min="5892" max="5892" width="11" style="113" customWidth="1"/>
-    <col min="5893" max="5893" width="11.140625" style="113" customWidth="1"/>
-    <col min="5894" max="5896" width="6" style="113" customWidth="1"/>
-    <col min="5897" max="5897" width="24" style="113" customWidth="1"/>
-    <col min="5898" max="5898" width="37.85546875" style="113" customWidth="1"/>
-    <col min="5899" max="6144" width="9.140625" style="113"/>
-    <col min="6145" max="6145" width="17.5703125" style="113" customWidth="1"/>
-    <col min="6146" max="6146" width="30.42578125" style="113" customWidth="1"/>
-    <col min="6147" max="6147" width="13.85546875" style="113" customWidth="1"/>
-    <col min="6148" max="6148" width="11" style="113" customWidth="1"/>
-    <col min="6149" max="6149" width="11.140625" style="113" customWidth="1"/>
-    <col min="6150" max="6152" width="6" style="113" customWidth="1"/>
-    <col min="6153" max="6153" width="24" style="113" customWidth="1"/>
-    <col min="6154" max="6154" width="37.85546875" style="113" customWidth="1"/>
-    <col min="6155" max="6400" width="9.140625" style="113"/>
-    <col min="6401" max="6401" width="17.5703125" style="113" customWidth="1"/>
-    <col min="6402" max="6402" width="30.42578125" style="113" customWidth="1"/>
-    <col min="6403" max="6403" width="13.85546875" style="113" customWidth="1"/>
-    <col min="6404" max="6404" width="11" style="113" customWidth="1"/>
-    <col min="6405" max="6405" width="11.140625" style="113" customWidth="1"/>
-    <col min="6406" max="6408" width="6" style="113" customWidth="1"/>
-    <col min="6409" max="6409" width="24" style="113" customWidth="1"/>
-    <col min="6410" max="6410" width="37.85546875" style="113" customWidth="1"/>
-    <col min="6411" max="6656" width="9.140625" style="113"/>
-    <col min="6657" max="6657" width="17.5703125" style="113" customWidth="1"/>
-    <col min="6658" max="6658" width="30.42578125" style="113" customWidth="1"/>
-    <col min="6659" max="6659" width="13.85546875" style="113" customWidth="1"/>
-    <col min="6660" max="6660" width="11" style="113" customWidth="1"/>
-    <col min="6661" max="6661" width="11.140625" style="113" customWidth="1"/>
-    <col min="6662" max="6664" width="6" style="113" customWidth="1"/>
-    <col min="6665" max="6665" width="24" style="113" customWidth="1"/>
-    <col min="6666" max="6666" width="37.85546875" style="113" customWidth="1"/>
-    <col min="6667" max="6912" width="9.140625" style="113"/>
-    <col min="6913" max="6913" width="17.5703125" style="113" customWidth="1"/>
-    <col min="6914" max="6914" width="30.42578125" style="113" customWidth="1"/>
-    <col min="6915" max="6915" width="13.85546875" style="113" customWidth="1"/>
-    <col min="6916" max="6916" width="11" style="113" customWidth="1"/>
-    <col min="6917" max="6917" width="11.140625" style="113" customWidth="1"/>
-    <col min="6918" max="6920" width="6" style="113" customWidth="1"/>
-    <col min="6921" max="6921" width="24" style="113" customWidth="1"/>
-    <col min="6922" max="6922" width="37.85546875" style="113" customWidth="1"/>
-    <col min="6923" max="7168" width="9.140625" style="113"/>
-    <col min="7169" max="7169" width="17.5703125" style="113" customWidth="1"/>
-    <col min="7170" max="7170" width="30.42578125" style="113" customWidth="1"/>
-    <col min="7171" max="7171" width="13.85546875" style="113" customWidth="1"/>
-    <col min="7172" max="7172" width="11" style="113" customWidth="1"/>
-    <col min="7173" max="7173" width="11.140625" style="113" customWidth="1"/>
-    <col min="7174" max="7176" width="6" style="113" customWidth="1"/>
-    <col min="7177" max="7177" width="24" style="113" customWidth="1"/>
-    <col min="7178" max="7178" width="37.85546875" style="113" customWidth="1"/>
-    <col min="7179" max="7424" width="9.140625" style="113"/>
-    <col min="7425" max="7425" width="17.5703125" style="113" customWidth="1"/>
-    <col min="7426" max="7426" width="30.42578125" style="113" customWidth="1"/>
-    <col min="7427" max="7427" width="13.85546875" style="113" customWidth="1"/>
-    <col min="7428" max="7428" width="11" style="113" customWidth="1"/>
-    <col min="7429" max="7429" width="11.140625" style="113" customWidth="1"/>
-    <col min="7430" max="7432" width="6" style="113" customWidth="1"/>
-    <col min="7433" max="7433" width="24" style="113" customWidth="1"/>
-    <col min="7434" max="7434" width="37.85546875" style="113" customWidth="1"/>
-    <col min="7435" max="7680" width="9.140625" style="113"/>
-    <col min="7681" max="7681" width="17.5703125" style="113" customWidth="1"/>
-    <col min="7682" max="7682" width="30.42578125" style="113" customWidth="1"/>
-    <col min="7683" max="7683" width="13.85546875" style="113" customWidth="1"/>
-    <col min="7684" max="7684" width="11" style="113" customWidth="1"/>
-    <col min="7685" max="7685" width="11.140625" style="113" customWidth="1"/>
-    <col min="7686" max="7688" width="6" style="113" customWidth="1"/>
-    <col min="7689" max="7689" width="24" style="113" customWidth="1"/>
-    <col min="7690" max="7690" width="37.85546875" style="113" customWidth="1"/>
-    <col min="7691" max="7936" width="9.140625" style="113"/>
-    <col min="7937" max="7937" width="17.5703125" style="113" customWidth="1"/>
-    <col min="7938" max="7938" width="30.42578125" style="113" customWidth="1"/>
-    <col min="7939" max="7939" width="13.85546875" style="113" customWidth="1"/>
-    <col min="7940" max="7940" width="11" style="113" customWidth="1"/>
-    <col min="7941" max="7941" width="11.140625" style="113" customWidth="1"/>
-    <col min="7942" max="7944" width="6" style="113" customWidth="1"/>
-    <col min="7945" max="7945" width="24" style="113" customWidth="1"/>
-    <col min="7946" max="7946" width="37.85546875" style="113" customWidth="1"/>
-    <col min="7947" max="8192" width="9.140625" style="113"/>
-    <col min="8193" max="8193" width="17.5703125" style="113" customWidth="1"/>
-    <col min="8194" max="8194" width="30.42578125" style="113" customWidth="1"/>
-    <col min="8195" max="8195" width="13.85546875" style="113" customWidth="1"/>
-    <col min="8196" max="8196" width="11" style="113" customWidth="1"/>
-    <col min="8197" max="8197" width="11.140625" style="113" customWidth="1"/>
-    <col min="8198" max="8200" width="6" style="113" customWidth="1"/>
-    <col min="8201" max="8201" width="24" style="113" customWidth="1"/>
-    <col min="8202" max="8202" width="37.85546875" style="113" customWidth="1"/>
-    <col min="8203" max="8448" width="9.140625" style="113"/>
-    <col min="8449" max="8449" width="17.5703125" style="113" customWidth="1"/>
-    <col min="8450" max="8450" width="30.42578125" style="113" customWidth="1"/>
-    <col min="8451" max="8451" width="13.85546875" style="113" customWidth="1"/>
-    <col min="8452" max="8452" width="11" style="113" customWidth="1"/>
-    <col min="8453" max="8453" width="11.140625" style="113" customWidth="1"/>
-    <col min="8454" max="8456" width="6" style="113" customWidth="1"/>
-    <col min="8457" max="8457" width="24" style="113" customWidth="1"/>
-    <col min="8458" max="8458" width="37.85546875" style="113" customWidth="1"/>
-    <col min="8459" max="8704" width="9.140625" style="113"/>
-    <col min="8705" max="8705" width="17.5703125" style="113" customWidth="1"/>
-    <col min="8706" max="8706" width="30.42578125" style="113" customWidth="1"/>
-    <col min="8707" max="8707" width="13.85546875" style="113" customWidth="1"/>
-    <col min="8708" max="8708" width="11" style="113" customWidth="1"/>
-    <col min="8709" max="8709" width="11.140625" style="113" customWidth="1"/>
-    <col min="8710" max="8712" width="6" style="113" customWidth="1"/>
-    <col min="8713" max="8713" width="24" style="113" customWidth="1"/>
-    <col min="8714" max="8714" width="37.85546875" style="113" customWidth="1"/>
-    <col min="8715" max="8960" width="9.140625" style="113"/>
-    <col min="8961" max="8961" width="17.5703125" style="113" customWidth="1"/>
-    <col min="8962" max="8962" width="30.42578125" style="113" customWidth="1"/>
-    <col min="8963" max="8963" width="13.85546875" style="113" customWidth="1"/>
-    <col min="8964" max="8964" width="11" style="113" customWidth="1"/>
-    <col min="8965" max="8965" width="11.140625" style="113" customWidth="1"/>
-    <col min="8966" max="8968" width="6" style="113" customWidth="1"/>
-    <col min="8969" max="8969" width="24" style="113" customWidth="1"/>
-    <col min="8970" max="8970" width="37.85546875" style="113" customWidth="1"/>
-    <col min="8971" max="9216" width="9.140625" style="113"/>
-    <col min="9217" max="9217" width="17.5703125" style="113" customWidth="1"/>
-    <col min="9218" max="9218" width="30.42578125" style="113" customWidth="1"/>
-    <col min="9219" max="9219" width="13.85546875" style="113" customWidth="1"/>
-    <col min="9220" max="9220" width="11" style="113" customWidth="1"/>
-    <col min="9221" max="9221" width="11.140625" style="113" customWidth="1"/>
-    <col min="9222" max="9224" width="6" style="113" customWidth="1"/>
-    <col min="9225" max="9225" width="24" style="113" customWidth="1"/>
-    <col min="9226" max="9226" width="37.85546875" style="113" customWidth="1"/>
-    <col min="9227" max="9472" width="9.140625" style="113"/>
-    <col min="9473" max="9473" width="17.5703125" style="113" customWidth="1"/>
-    <col min="9474" max="9474" width="30.42578125" style="113" customWidth="1"/>
-    <col min="9475" max="9475" width="13.85546875" style="113" customWidth="1"/>
-    <col min="9476" max="9476" width="11" style="113" customWidth="1"/>
-    <col min="9477" max="9477" width="11.140625" style="113" customWidth="1"/>
-    <col min="9478" max="9480" width="6" style="113" customWidth="1"/>
-    <col min="9481" max="9481" width="24" style="113" customWidth="1"/>
-    <col min="9482" max="9482" width="37.85546875" style="113" customWidth="1"/>
-    <col min="9483" max="9728" width="9.140625" style="113"/>
-    <col min="9729" max="9729" width="17.5703125" style="113" customWidth="1"/>
-    <col min="9730" max="9730" width="30.42578125" style="113" customWidth="1"/>
-    <col min="9731" max="9731" width="13.85546875" style="113" customWidth="1"/>
-    <col min="9732" max="9732" width="11" style="113" customWidth="1"/>
-    <col min="9733" max="9733" width="11.140625" style="113" customWidth="1"/>
-    <col min="9734" max="9736" width="6" style="113" customWidth="1"/>
-    <col min="9737" max="9737" width="24" style="113" customWidth="1"/>
-    <col min="9738" max="9738" width="37.85546875" style="113" customWidth="1"/>
-    <col min="9739" max="9984" width="9.140625" style="113"/>
-    <col min="9985" max="9985" width="17.5703125" style="113" customWidth="1"/>
-    <col min="9986" max="9986" width="30.42578125" style="113" customWidth="1"/>
-    <col min="9987" max="9987" width="13.85546875" style="113" customWidth="1"/>
-    <col min="9988" max="9988" width="11" style="113" customWidth="1"/>
-    <col min="9989" max="9989" width="11.140625" style="113" customWidth="1"/>
-    <col min="9990" max="9992" width="6" style="113" customWidth="1"/>
-    <col min="9993" max="9993" width="24" style="113" customWidth="1"/>
-    <col min="9994" max="9994" width="37.85546875" style="113" customWidth="1"/>
-    <col min="9995" max="10240" width="9.140625" style="113"/>
-    <col min="10241" max="10241" width="17.5703125" style="113" customWidth="1"/>
-    <col min="10242" max="10242" width="30.42578125" style="113" customWidth="1"/>
-    <col min="10243" max="10243" width="13.85546875" style="113" customWidth="1"/>
-    <col min="10244" max="10244" width="11" style="113" customWidth="1"/>
-    <col min="10245" max="10245" width="11.140625" style="113" customWidth="1"/>
-    <col min="10246" max="10248" width="6" style="113" customWidth="1"/>
-    <col min="10249" max="10249" width="24" style="113" customWidth="1"/>
-    <col min="10250" max="10250" width="37.85546875" style="113" customWidth="1"/>
-    <col min="10251" max="10496" width="9.140625" style="113"/>
-    <col min="10497" max="10497" width="17.5703125" style="113" customWidth="1"/>
-    <col min="10498" max="10498" width="30.42578125" style="113" customWidth="1"/>
-    <col min="10499" max="10499" width="13.85546875" style="113" customWidth="1"/>
-    <col min="10500" max="10500" width="11" style="113" customWidth="1"/>
-    <col min="10501" max="10501" width="11.140625" style="113" customWidth="1"/>
-    <col min="10502" max="10504" width="6" style="113" customWidth="1"/>
-    <col min="10505" max="10505" width="24" style="113" customWidth="1"/>
-    <col min="10506" max="10506" width="37.85546875" style="113" customWidth="1"/>
-    <col min="10507" max="10752" width="9.140625" style="113"/>
-    <col min="10753" max="10753" width="17.5703125" style="113" customWidth="1"/>
-    <col min="10754" max="10754" width="30.42578125" style="113" customWidth="1"/>
-    <col min="10755" max="10755" width="13.85546875" style="113" customWidth="1"/>
-    <col min="10756" max="10756" width="11" style="113" customWidth="1"/>
-    <col min="10757" max="10757" width="11.140625" style="113" customWidth="1"/>
-    <col min="10758" max="10760" width="6" style="113" customWidth="1"/>
-    <col min="10761" max="10761" width="24" style="113" customWidth="1"/>
-    <col min="10762" max="10762" width="37.85546875" style="113" customWidth="1"/>
-    <col min="10763" max="11008" width="9.140625" style="113"/>
-    <col min="11009" max="11009" width="17.5703125" style="113" customWidth="1"/>
-    <col min="11010" max="11010" width="30.42578125" style="113" customWidth="1"/>
-    <col min="11011" max="11011" width="13.85546875" style="113" customWidth="1"/>
-    <col min="11012" max="11012" width="11" style="113" customWidth="1"/>
-    <col min="11013" max="11013" width="11.140625" style="113" customWidth="1"/>
-    <col min="11014" max="11016" width="6" style="113" customWidth="1"/>
-    <col min="11017" max="11017" width="24" style="113" customWidth="1"/>
-    <col min="11018" max="11018" width="37.85546875" style="113" customWidth="1"/>
-    <col min="11019" max="11264" width="9.140625" style="113"/>
-    <col min="11265" max="11265" width="17.5703125" style="113" customWidth="1"/>
-    <col min="11266" max="11266" width="30.42578125" style="113" customWidth="1"/>
-    <col min="11267" max="11267" width="13.85546875" style="113" customWidth="1"/>
-    <col min="11268" max="11268" width="11" style="113" customWidth="1"/>
-    <col min="11269" max="11269" width="11.140625" style="113" customWidth="1"/>
-    <col min="11270" max="11272" width="6" style="113" customWidth="1"/>
-    <col min="11273" max="11273" width="24" style="113" customWidth="1"/>
-    <col min="11274" max="11274" width="37.85546875" style="113" customWidth="1"/>
-    <col min="11275" max="11520" width="9.140625" style="113"/>
-    <col min="11521" max="11521" width="17.5703125" style="113" customWidth="1"/>
-    <col min="11522" max="11522" width="30.42578125" style="113" customWidth="1"/>
-    <col min="11523" max="11523" width="13.85546875" style="113" customWidth="1"/>
-    <col min="11524" max="11524" width="11" style="113" customWidth="1"/>
-    <col min="11525" max="11525" width="11.140625" style="113" customWidth="1"/>
-    <col min="11526" max="11528" width="6" style="113" customWidth="1"/>
-    <col min="11529" max="11529" width="24" style="113" customWidth="1"/>
-    <col min="11530" max="11530" width="37.85546875" style="113" customWidth="1"/>
-    <col min="11531" max="11776" width="9.140625" style="113"/>
-    <col min="11777" max="11777" width="17.5703125" style="113" customWidth="1"/>
-    <col min="11778" max="11778" width="30.42578125" style="113" customWidth="1"/>
-    <col min="11779" max="11779" width="13.85546875" style="113" customWidth="1"/>
-    <col min="11780" max="11780" width="11" style="113" customWidth="1"/>
-    <col min="11781" max="11781" width="11.140625" style="113" customWidth="1"/>
-    <col min="11782" max="11784" width="6" style="113" customWidth="1"/>
-    <col min="11785" max="11785" width="24" style="113" customWidth="1"/>
-    <col min="11786" max="11786" width="37.85546875" style="113" customWidth="1"/>
-    <col min="11787" max="12032" width="9.140625" style="113"/>
-    <col min="12033" max="12033" width="17.5703125" style="113" customWidth="1"/>
-    <col min="12034" max="12034" width="30.42578125" style="113" customWidth="1"/>
-    <col min="12035" max="12035" width="13.85546875" style="113" customWidth="1"/>
-    <col min="12036" max="12036" width="11" style="113" customWidth="1"/>
-    <col min="12037" max="12037" width="11.140625" style="113" customWidth="1"/>
-    <col min="12038" max="12040" width="6" style="113" customWidth="1"/>
-    <col min="12041" max="12041" width="24" style="113" customWidth="1"/>
-    <col min="12042" max="12042" width="37.85546875" style="113" customWidth="1"/>
-    <col min="12043" max="12288" width="9.140625" style="113"/>
-    <col min="12289" max="12289" width="17.5703125" style="113" customWidth="1"/>
-    <col min="12290" max="12290" width="30.42578125" style="113" customWidth="1"/>
-    <col min="12291" max="12291" width="13.85546875" style="113" customWidth="1"/>
-    <col min="12292" max="12292" width="11" style="113" customWidth="1"/>
-    <col min="12293" max="12293" width="11.140625" style="113" customWidth="1"/>
-    <col min="12294" max="12296" width="6" style="113" customWidth="1"/>
-    <col min="12297" max="12297" width="24" style="113" customWidth="1"/>
-    <col min="12298" max="12298" width="37.85546875" style="113" customWidth="1"/>
-    <col min="12299" max="12544" width="9.140625" style="113"/>
-    <col min="12545" max="12545" width="17.5703125" style="113" customWidth="1"/>
-    <col min="12546" max="12546" width="30.42578125" style="113" customWidth="1"/>
-    <col min="12547" max="12547" width="13.85546875" style="113" customWidth="1"/>
-    <col min="12548" max="12548" width="11" style="113" customWidth="1"/>
-    <col min="12549" max="12549" width="11.140625" style="113" customWidth="1"/>
-    <col min="12550" max="12552" width="6" style="113" customWidth="1"/>
-    <col min="12553" max="12553" width="24" style="113" customWidth="1"/>
-    <col min="12554" max="12554" width="37.85546875" style="113" customWidth="1"/>
-    <col min="12555" max="12800" width="9.140625" style="113"/>
-    <col min="12801" max="12801" width="17.5703125" style="113" customWidth="1"/>
-    <col min="12802" max="12802" width="30.42578125" style="113" customWidth="1"/>
-    <col min="12803" max="12803" width="13.85546875" style="113" customWidth="1"/>
-    <col min="12804" max="12804" width="11" style="113" customWidth="1"/>
-    <col min="12805" max="12805" width="11.140625" style="113" customWidth="1"/>
-    <col min="12806" max="12808" width="6" style="113" customWidth="1"/>
-    <col min="12809" max="12809" width="24" style="113" customWidth="1"/>
-    <col min="12810" max="12810" width="37.85546875" style="113" customWidth="1"/>
-    <col min="12811" max="13056" width="9.140625" style="113"/>
-    <col min="13057" max="13057" width="17.5703125" style="113" customWidth="1"/>
-    <col min="13058" max="13058" width="30.42578125" style="113" customWidth="1"/>
-    <col min="13059" max="13059" width="13.85546875" style="113" customWidth="1"/>
-    <col min="13060" max="13060" width="11" style="113" customWidth="1"/>
-    <col min="13061" max="13061" width="11.140625" style="113" customWidth="1"/>
-    <col min="13062" max="13064" width="6" style="113" customWidth="1"/>
-    <col min="13065" max="13065" width="24" style="113" customWidth="1"/>
-    <col min="13066" max="13066" width="37.85546875" style="113" customWidth="1"/>
-    <col min="13067" max="13312" width="9.140625" style="113"/>
-    <col min="13313" max="13313" width="17.5703125" style="113" customWidth="1"/>
-    <col min="13314" max="13314" width="30.42578125" style="113" customWidth="1"/>
-    <col min="13315" max="13315" width="13.85546875" style="113" customWidth="1"/>
-    <col min="13316" max="13316" width="11" style="113" customWidth="1"/>
-    <col min="13317" max="13317" width="11.140625" style="113" customWidth="1"/>
-    <col min="13318" max="13320" width="6" style="113" customWidth="1"/>
-    <col min="13321" max="13321" width="24" style="113" customWidth="1"/>
-    <col min="13322" max="13322" width="37.85546875" style="113" customWidth="1"/>
-    <col min="13323" max="13568" width="9.140625" style="113"/>
-    <col min="13569" max="13569" width="17.5703125" style="113" customWidth="1"/>
-    <col min="13570" max="13570" width="30.42578125" style="113" customWidth="1"/>
-    <col min="13571" max="13571" width="13.85546875" style="113" customWidth="1"/>
-    <col min="13572" max="13572" width="11" style="113" customWidth="1"/>
-    <col min="13573" max="13573" width="11.140625" style="113" customWidth="1"/>
-    <col min="13574" max="13576" width="6" style="113" customWidth="1"/>
-    <col min="13577" max="13577" width="24" style="113" customWidth="1"/>
-    <col min="13578" max="13578" width="37.85546875" style="113" customWidth="1"/>
-    <col min="13579" max="13824" width="9.140625" style="113"/>
-    <col min="13825" max="13825" width="17.5703125" style="113" customWidth="1"/>
-    <col min="13826" max="13826" width="30.42578125" style="113" customWidth="1"/>
-    <col min="13827" max="13827" width="13.85546875" style="113" customWidth="1"/>
-    <col min="13828" max="13828" width="11" style="113" customWidth="1"/>
-    <col min="13829" max="13829" width="11.140625" style="113" customWidth="1"/>
-    <col min="13830" max="13832" width="6" style="113" customWidth="1"/>
-    <col min="13833" max="13833" width="24" style="113" customWidth="1"/>
-    <col min="13834" max="13834" width="37.85546875" style="113" customWidth="1"/>
-    <col min="13835" max="14080" width="9.140625" style="113"/>
-    <col min="14081" max="14081" width="17.5703125" style="113" customWidth="1"/>
-    <col min="14082" max="14082" width="30.42578125" style="113" customWidth="1"/>
-    <col min="14083" max="14083" width="13.85546875" style="113" customWidth="1"/>
-    <col min="14084" max="14084" width="11" style="113" customWidth="1"/>
-    <col min="14085" max="14085" width="11.140625" style="113" customWidth="1"/>
-    <col min="14086" max="14088" width="6" style="113" customWidth="1"/>
-    <col min="14089" max="14089" width="24" style="113" customWidth="1"/>
-    <col min="14090" max="14090" width="37.85546875" style="113" customWidth="1"/>
-    <col min="14091" max="14336" width="9.140625" style="113"/>
-    <col min="14337" max="14337" width="17.5703125" style="113" customWidth="1"/>
-    <col min="14338" max="14338" width="30.42578125" style="113" customWidth="1"/>
-    <col min="14339" max="14339" width="13.85546875" style="113" customWidth="1"/>
-    <col min="14340" max="14340" width="11" style="113" customWidth="1"/>
-    <col min="14341" max="14341" width="11.140625" style="113" customWidth="1"/>
-    <col min="14342" max="14344" width="6" style="113" customWidth="1"/>
-    <col min="14345" max="14345" width="24" style="113" customWidth="1"/>
-    <col min="14346" max="14346" width="37.85546875" style="113" customWidth="1"/>
-    <col min="14347" max="14592" width="9.140625" style="113"/>
-    <col min="14593" max="14593" width="17.5703125" style="113" customWidth="1"/>
-    <col min="14594" max="14594" width="30.42578125" style="113" customWidth="1"/>
-    <col min="14595" max="14595" width="13.85546875" style="113" customWidth="1"/>
-    <col min="14596" max="14596" width="11" style="113" customWidth="1"/>
-    <col min="14597" max="14597" width="11.140625" style="113" customWidth="1"/>
-    <col min="14598" max="14600" width="6" style="113" customWidth="1"/>
-    <col min="14601" max="14601" width="24" style="113" customWidth="1"/>
-    <col min="14602" max="14602" width="37.85546875" style="113" customWidth="1"/>
-    <col min="14603" max="14848" width="9.140625" style="113"/>
-    <col min="14849" max="14849" width="17.5703125" style="113" customWidth="1"/>
-    <col min="14850" max="14850" width="30.42578125" style="113" customWidth="1"/>
-    <col min="14851" max="14851" width="13.85546875" style="113" customWidth="1"/>
-    <col min="14852" max="14852" width="11" style="113" customWidth="1"/>
-    <col min="14853" max="14853" width="11.140625" style="113" customWidth="1"/>
-    <col min="14854" max="14856" width="6" style="113" customWidth="1"/>
-    <col min="14857" max="14857" width="24" style="113" customWidth="1"/>
-    <col min="14858" max="14858" width="37.85546875" style="113" customWidth="1"/>
-    <col min="14859" max="15104" width="9.140625" style="113"/>
-    <col min="15105" max="15105" width="17.5703125" style="113" customWidth="1"/>
-    <col min="15106" max="15106" width="30.42578125" style="113" customWidth="1"/>
-    <col min="15107" max="15107" width="13.85546875" style="113" customWidth="1"/>
-    <col min="15108" max="15108" width="11" style="113" customWidth="1"/>
-    <col min="15109" max="15109" width="11.140625" style="113" customWidth="1"/>
-    <col min="15110" max="15112" width="6" style="113" customWidth="1"/>
-    <col min="15113" max="15113" width="24" style="113" customWidth="1"/>
-    <col min="15114" max="15114" width="37.85546875" style="113" customWidth="1"/>
-    <col min="15115" max="15360" width="9.140625" style="113"/>
-    <col min="15361" max="15361" width="17.5703125" style="113" customWidth="1"/>
-    <col min="15362" max="15362" width="30.42578125" style="113" customWidth="1"/>
-    <col min="15363" max="15363" width="13.85546875" style="113" customWidth="1"/>
-    <col min="15364" max="15364" width="11" style="113" customWidth="1"/>
-    <col min="15365" max="15365" width="11.140625" style="113" customWidth="1"/>
-    <col min="15366" max="15368" width="6" style="113" customWidth="1"/>
-    <col min="15369" max="15369" width="24" style="113" customWidth="1"/>
-    <col min="15370" max="15370" width="37.85546875" style="113" customWidth="1"/>
-    <col min="15371" max="15616" width="9.140625" style="113"/>
-    <col min="15617" max="15617" width="17.5703125" style="113" customWidth="1"/>
-    <col min="15618" max="15618" width="30.42578125" style="113" customWidth="1"/>
-    <col min="15619" max="15619" width="13.85546875" style="113" customWidth="1"/>
-    <col min="15620" max="15620" width="11" style="113" customWidth="1"/>
-    <col min="15621" max="15621" width="11.140625" style="113" customWidth="1"/>
-    <col min="15622" max="15624" width="6" style="113" customWidth="1"/>
-    <col min="15625" max="15625" width="24" style="113" customWidth="1"/>
-    <col min="15626" max="15626" width="37.85546875" style="113" customWidth="1"/>
-    <col min="15627" max="15872" width="9.140625" style="113"/>
-    <col min="15873" max="15873" width="17.5703125" style="113" customWidth="1"/>
-    <col min="15874" max="15874" width="30.42578125" style="113" customWidth="1"/>
-    <col min="15875" max="15875" width="13.85546875" style="113" customWidth="1"/>
-    <col min="15876" max="15876" width="11" style="113" customWidth="1"/>
-    <col min="15877" max="15877" width="11.140625" style="113" customWidth="1"/>
-    <col min="15878" max="15880" width="6" style="113" customWidth="1"/>
-    <col min="15881" max="15881" width="24" style="113" customWidth="1"/>
-    <col min="15882" max="15882" width="37.85546875" style="113" customWidth="1"/>
-    <col min="15883" max="16128" width="9.140625" style="113"/>
-    <col min="16129" max="16129" width="17.5703125" style="113" customWidth="1"/>
-    <col min="16130" max="16130" width="30.42578125" style="113" customWidth="1"/>
-    <col min="16131" max="16131" width="13.85546875" style="113" customWidth="1"/>
-    <col min="16132" max="16132" width="11" style="113" customWidth="1"/>
-    <col min="16133" max="16133" width="11.140625" style="113" customWidth="1"/>
-    <col min="16134" max="16136" width="6" style="113" customWidth="1"/>
-    <col min="16137" max="16137" width="24" style="113" customWidth="1"/>
-    <col min="16138" max="16138" width="37.85546875" style="113" customWidth="1"/>
-    <col min="16139" max="16384" width="9.140625" style="113"/>
+    <col min="1" max="1" width="17.5703125" style="66" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" style="66" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="66" customWidth="1"/>
+    <col min="4" max="4" width="11" style="66" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="66" customWidth="1"/>
+    <col min="6" max="8" width="6" style="66" customWidth="1"/>
+    <col min="9" max="9" width="24" style="66" customWidth="1"/>
+    <col min="10" max="10" width="37.85546875" style="66" customWidth="1"/>
+    <col min="11" max="256" width="9.140625" style="66"/>
+    <col min="257" max="257" width="17.5703125" style="66" customWidth="1"/>
+    <col min="258" max="258" width="30.42578125" style="66" customWidth="1"/>
+    <col min="259" max="259" width="13.85546875" style="66" customWidth="1"/>
+    <col min="260" max="260" width="11" style="66" customWidth="1"/>
+    <col min="261" max="261" width="11.140625" style="66" customWidth="1"/>
+    <col min="262" max="264" width="6" style="66" customWidth="1"/>
+    <col min="265" max="265" width="24" style="66" customWidth="1"/>
+    <col min="266" max="266" width="37.85546875" style="66" customWidth="1"/>
+    <col min="267" max="512" width="9.140625" style="66"/>
+    <col min="513" max="513" width="17.5703125" style="66" customWidth="1"/>
+    <col min="514" max="514" width="30.42578125" style="66" customWidth="1"/>
+    <col min="515" max="515" width="13.85546875" style="66" customWidth="1"/>
+    <col min="516" max="516" width="11" style="66" customWidth="1"/>
+    <col min="517" max="517" width="11.140625" style="66" customWidth="1"/>
+    <col min="518" max="520" width="6" style="66" customWidth="1"/>
+    <col min="521" max="521" width="24" style="66" customWidth="1"/>
+    <col min="522" max="522" width="37.85546875" style="66" customWidth="1"/>
+    <col min="523" max="768" width="9.140625" style="66"/>
+    <col min="769" max="769" width="17.5703125" style="66" customWidth="1"/>
+    <col min="770" max="770" width="30.42578125" style="66" customWidth="1"/>
+    <col min="771" max="771" width="13.85546875" style="66" customWidth="1"/>
+    <col min="772" max="772" width="11" style="66" customWidth="1"/>
+    <col min="773" max="773" width="11.140625" style="66" customWidth="1"/>
+    <col min="774" max="776" width="6" style="66" customWidth="1"/>
+    <col min="777" max="777" width="24" style="66" customWidth="1"/>
+    <col min="778" max="778" width="37.85546875" style="66" customWidth="1"/>
+    <col min="779" max="1024" width="9.140625" style="66"/>
+    <col min="1025" max="1025" width="17.5703125" style="66" customWidth="1"/>
+    <col min="1026" max="1026" width="30.42578125" style="66" customWidth="1"/>
+    <col min="1027" max="1027" width="13.85546875" style="66" customWidth="1"/>
+    <col min="1028" max="1028" width="11" style="66" customWidth="1"/>
+    <col min="1029" max="1029" width="11.140625" style="66" customWidth="1"/>
+    <col min="1030" max="1032" width="6" style="66" customWidth="1"/>
+    <col min="1033" max="1033" width="24" style="66" customWidth="1"/>
+    <col min="1034" max="1034" width="37.85546875" style="66" customWidth="1"/>
+    <col min="1035" max="1280" width="9.140625" style="66"/>
+    <col min="1281" max="1281" width="17.5703125" style="66" customWidth="1"/>
+    <col min="1282" max="1282" width="30.42578125" style="66" customWidth="1"/>
+    <col min="1283" max="1283" width="13.85546875" style="66" customWidth="1"/>
+    <col min="1284" max="1284" width="11" style="66" customWidth="1"/>
+    <col min="1285" max="1285" width="11.140625" style="66" customWidth="1"/>
+    <col min="1286" max="1288" width="6" style="66" customWidth="1"/>
+    <col min="1289" max="1289" width="24" style="66" customWidth="1"/>
+    <col min="1290" max="1290" width="37.85546875" style="66" customWidth="1"/>
+    <col min="1291" max="1536" width="9.140625" style="66"/>
+    <col min="1537" max="1537" width="17.5703125" style="66" customWidth="1"/>
+    <col min="1538" max="1538" width="30.42578125" style="66" customWidth="1"/>
+    <col min="1539" max="1539" width="13.85546875" style="66" customWidth="1"/>
+    <col min="1540" max="1540" width="11" style="66" customWidth="1"/>
+    <col min="1541" max="1541" width="11.140625" style="66" customWidth="1"/>
+    <col min="1542" max="1544" width="6" style="66" customWidth="1"/>
+    <col min="1545" max="1545" width="24" style="66" customWidth="1"/>
+    <col min="1546" max="1546" width="37.85546875" style="66" customWidth="1"/>
+    <col min="1547" max="1792" width="9.140625" style="66"/>
+    <col min="1793" max="1793" width="17.5703125" style="66" customWidth="1"/>
+    <col min="1794" max="1794" width="30.42578125" style="66" customWidth="1"/>
+    <col min="1795" max="1795" width="13.85546875" style="66" customWidth="1"/>
+    <col min="1796" max="1796" width="11" style="66" customWidth="1"/>
+    <col min="1797" max="1797" width="11.140625" style="66" customWidth="1"/>
+    <col min="1798" max="1800" width="6" style="66" customWidth="1"/>
+    <col min="1801" max="1801" width="24" style="66" customWidth="1"/>
+    <col min="1802" max="1802" width="37.85546875" style="66" customWidth="1"/>
+    <col min="1803" max="2048" width="9.140625" style="66"/>
+    <col min="2049" max="2049" width="17.5703125" style="66" customWidth="1"/>
+    <col min="2050" max="2050" width="30.42578125" style="66" customWidth="1"/>
+    <col min="2051" max="2051" width="13.85546875" style="66" customWidth="1"/>
+    <col min="2052" max="2052" width="11" style="66" customWidth="1"/>
+    <col min="2053" max="2053" width="11.140625" style="66" customWidth="1"/>
+    <col min="2054" max="2056" width="6" style="66" customWidth="1"/>
+    <col min="2057" max="2057" width="24" style="66" customWidth="1"/>
+    <col min="2058" max="2058" width="37.85546875" style="66" customWidth="1"/>
+    <col min="2059" max="2304" width="9.140625" style="66"/>
+    <col min="2305" max="2305" width="17.5703125" style="66" customWidth="1"/>
+    <col min="2306" max="2306" width="30.42578125" style="66" customWidth="1"/>
+    <col min="2307" max="2307" width="13.85546875" style="66" customWidth="1"/>
+    <col min="2308" max="2308" width="11" style="66" customWidth="1"/>
+    <col min="2309" max="2309" width="11.140625" style="66" customWidth="1"/>
+    <col min="2310" max="2312" width="6" style="66" customWidth="1"/>
+    <col min="2313" max="2313" width="24" style="66" customWidth="1"/>
+    <col min="2314" max="2314" width="37.85546875" style="66" customWidth="1"/>
+    <col min="2315" max="2560" width="9.140625" style="66"/>
+    <col min="2561" max="2561" width="17.5703125" style="66" customWidth="1"/>
+    <col min="2562" max="2562" width="30.42578125" style="66" customWidth="1"/>
+    <col min="2563" max="2563" width="13.85546875" style="66" customWidth="1"/>
+    <col min="2564" max="2564" width="11" style="66" customWidth="1"/>
+    <col min="2565" max="2565" width="11.140625" style="66" customWidth="1"/>
+    <col min="2566" max="2568" width="6" style="66" customWidth="1"/>
+    <col min="2569" max="2569" width="24" style="66" customWidth="1"/>
+    <col min="2570" max="2570" width="37.85546875" style="66" customWidth="1"/>
+    <col min="2571" max="2816" width="9.140625" style="66"/>
+    <col min="2817" max="2817" width="17.5703125" style="66" customWidth="1"/>
+    <col min="2818" max="2818" width="30.42578125" style="66" customWidth="1"/>
+    <col min="2819" max="2819" width="13.85546875" style="66" customWidth="1"/>
+    <col min="2820" max="2820" width="11" style="66" customWidth="1"/>
+    <col min="2821" max="2821" width="11.140625" style="66" customWidth="1"/>
+    <col min="2822" max="2824" width="6" style="66" customWidth="1"/>
+    <col min="2825" max="2825" width="24" style="66" customWidth="1"/>
+    <col min="2826" max="2826" width="37.85546875" style="66" customWidth="1"/>
+    <col min="2827" max="3072" width="9.140625" style="66"/>
+    <col min="3073" max="3073" width="17.5703125" style="66" customWidth="1"/>
+    <col min="3074" max="3074" width="30.42578125" style="66" customWidth="1"/>
+    <col min="3075" max="3075" width="13.85546875" style="66" customWidth="1"/>
+    <col min="3076" max="3076" width="11" style="66" customWidth="1"/>
+    <col min="3077" max="3077" width="11.140625" style="66" customWidth="1"/>
+    <col min="3078" max="3080" width="6" style="66" customWidth="1"/>
+    <col min="3081" max="3081" width="24" style="66" customWidth="1"/>
+    <col min="3082" max="3082" width="37.85546875" style="66" customWidth="1"/>
+    <col min="3083" max="3328" width="9.140625" style="66"/>
+    <col min="3329" max="3329" width="17.5703125" style="66" customWidth="1"/>
+    <col min="3330" max="3330" width="30.42578125" style="66" customWidth="1"/>
+    <col min="3331" max="3331" width="13.85546875" style="66" customWidth="1"/>
+    <col min="3332" max="3332" width="11" style="66" customWidth="1"/>
+    <col min="3333" max="3333" width="11.140625" style="66" customWidth="1"/>
+    <col min="3334" max="3336" width="6" style="66" customWidth="1"/>
+    <col min="3337" max="3337" width="24" style="66" customWidth="1"/>
+    <col min="3338" max="3338" width="37.85546875" style="66" customWidth="1"/>
+    <col min="3339" max="3584" width="9.140625" style="66"/>
+    <col min="3585" max="3585" width="17.5703125" style="66" customWidth="1"/>
+    <col min="3586" max="3586" width="30.42578125" style="66" customWidth="1"/>
+    <col min="3587" max="3587" width="13.85546875" style="66" customWidth="1"/>
+    <col min="3588" max="3588" width="11" style="66" customWidth="1"/>
+    <col min="3589" max="3589" width="11.140625" style="66" customWidth="1"/>
+    <col min="3590" max="3592" width="6" style="66" customWidth="1"/>
+    <col min="3593" max="3593" width="24" style="66" customWidth="1"/>
+    <col min="3594" max="3594" width="37.85546875" style="66" customWidth="1"/>
+    <col min="3595" max="3840" width="9.140625" style="66"/>
+    <col min="3841" max="3841" width="17.5703125" style="66" customWidth="1"/>
+    <col min="3842" max="3842" width="30.42578125" style="66" customWidth="1"/>
+    <col min="3843" max="3843" width="13.85546875" style="66" customWidth="1"/>
+    <col min="3844" max="3844" width="11" style="66" customWidth="1"/>
+    <col min="3845" max="3845" width="11.140625" style="66" customWidth="1"/>
+    <col min="3846" max="3848" width="6" style="66" customWidth="1"/>
+    <col min="3849" max="3849" width="24" style="66" customWidth="1"/>
+    <col min="3850" max="3850" width="37.85546875" style="66" customWidth="1"/>
+    <col min="3851" max="4096" width="9.140625" style="66"/>
+    <col min="4097" max="4097" width="17.5703125" style="66" customWidth="1"/>
+    <col min="4098" max="4098" width="30.42578125" style="66" customWidth="1"/>
+    <col min="4099" max="4099" width="13.85546875" style="66" customWidth="1"/>
+    <col min="4100" max="4100" width="11" style="66" customWidth="1"/>
+    <col min="4101" max="4101" width="11.140625" style="66" customWidth="1"/>
+    <col min="4102" max="4104" width="6" style="66" customWidth="1"/>
+    <col min="4105" max="4105" width="24" style="66" customWidth="1"/>
+    <col min="4106" max="4106" width="37.85546875" style="66" customWidth="1"/>
+    <col min="4107" max="4352" width="9.140625" style="66"/>
+    <col min="4353" max="4353" width="17.5703125" style="66" customWidth="1"/>
+    <col min="4354" max="4354" width="30.42578125" style="66" customWidth="1"/>
+    <col min="4355" max="4355" width="13.85546875" style="66" customWidth="1"/>
+    <col min="4356" max="4356" width="11" style="66" customWidth="1"/>
+    <col min="4357" max="4357" width="11.140625" style="66" customWidth="1"/>
+    <col min="4358" max="4360" width="6" style="66" customWidth="1"/>
+    <col min="4361" max="4361" width="24" style="66" customWidth="1"/>
+    <col min="4362" max="4362" width="37.85546875" style="66" customWidth="1"/>
+    <col min="4363" max="4608" width="9.140625" style="66"/>
+    <col min="4609" max="4609" width="17.5703125" style="66" customWidth="1"/>
+    <col min="4610" max="4610" width="30.42578125" style="66" customWidth="1"/>
+    <col min="4611" max="4611" width="13.85546875" style="66" customWidth="1"/>
+    <col min="4612" max="4612" width="11" style="66" customWidth="1"/>
+    <col min="4613" max="4613" width="11.140625" style="66" customWidth="1"/>
+    <col min="4614" max="4616" width="6" style="66" customWidth="1"/>
+    <col min="4617" max="4617" width="24" style="66" customWidth="1"/>
+    <col min="4618" max="4618" width="37.85546875" style="66" customWidth="1"/>
+    <col min="4619" max="4864" width="9.140625" style="66"/>
+    <col min="4865" max="4865" width="17.5703125" style="66" customWidth="1"/>
+    <col min="4866" max="4866" width="30.42578125" style="66" customWidth="1"/>
+    <col min="4867" max="4867" width="13.85546875" style="66" customWidth="1"/>
+    <col min="4868" max="4868" width="11" style="66" customWidth="1"/>
+    <col min="4869" max="4869" width="11.140625" style="66" customWidth="1"/>
+    <col min="4870" max="4872" width="6" style="66" customWidth="1"/>
+    <col min="4873" max="4873" width="24" style="66" customWidth="1"/>
+    <col min="4874" max="4874" width="37.85546875" style="66" customWidth="1"/>
+    <col min="4875" max="5120" width="9.140625" style="66"/>
+    <col min="5121" max="5121" width="17.5703125" style="66" customWidth="1"/>
+    <col min="5122" max="5122" width="30.42578125" style="66" customWidth="1"/>
+    <col min="5123" max="5123" width="13.85546875" style="66" customWidth="1"/>
+    <col min="5124" max="5124" width="11" style="66" customWidth="1"/>
+    <col min="5125" max="5125" width="11.140625" style="66" customWidth="1"/>
+    <col min="5126" max="5128" width="6" style="66" customWidth="1"/>
+    <col min="5129" max="5129" width="24" style="66" customWidth="1"/>
+    <col min="5130" max="5130" width="37.85546875" style="66" customWidth="1"/>
+    <col min="5131" max="5376" width="9.140625" style="66"/>
+    <col min="5377" max="5377" width="17.5703125" style="66" customWidth="1"/>
+    <col min="5378" max="5378" width="30.42578125" style="66" customWidth="1"/>
+    <col min="5379" max="5379" width="13.85546875" style="66" customWidth="1"/>
+    <col min="5380" max="5380" width="11" style="66" customWidth="1"/>
+    <col min="5381" max="5381" width="11.140625" style="66" customWidth="1"/>
+    <col min="5382" max="5384" width="6" style="66" customWidth="1"/>
+    <col min="5385" max="5385" width="24" style="66" customWidth="1"/>
+    <col min="5386" max="5386" width="37.85546875" style="66" customWidth="1"/>
+    <col min="5387" max="5632" width="9.140625" style="66"/>
+    <col min="5633" max="5633" width="17.5703125" style="66" customWidth="1"/>
+    <col min="5634" max="5634" width="30.42578125" style="66" customWidth="1"/>
+    <col min="5635" max="5635" width="13.85546875" style="66" customWidth="1"/>
+    <col min="5636" max="5636" width="11" style="66" customWidth="1"/>
+    <col min="5637" max="5637" width="11.140625" style="66" customWidth="1"/>
+    <col min="5638" max="5640" width="6" style="66" customWidth="1"/>
+    <col min="5641" max="5641" width="24" style="66" customWidth="1"/>
+    <col min="5642" max="5642" width="37.85546875" style="66" customWidth="1"/>
+    <col min="5643" max="5888" width="9.140625" style="66"/>
+    <col min="5889" max="5889" width="17.5703125" style="66" customWidth="1"/>
+    <col min="5890" max="5890" width="30.42578125" style="66" customWidth="1"/>
+    <col min="5891" max="5891" width="13.85546875" style="66" customWidth="1"/>
+    <col min="5892" max="5892" width="11" style="66" customWidth="1"/>
+    <col min="5893" max="5893" width="11.140625" style="66" customWidth="1"/>
+    <col min="5894" max="5896" width="6" style="66" customWidth="1"/>
+    <col min="5897" max="5897" width="24" style="66" customWidth="1"/>
+    <col min="5898" max="5898" width="37.85546875" style="66" customWidth="1"/>
+    <col min="5899" max="6144" width="9.140625" style="66"/>
+    <col min="6145" max="6145" width="17.5703125" style="66" customWidth="1"/>
+    <col min="6146" max="6146" width="30.42578125" style="66" customWidth="1"/>
+    <col min="6147" max="6147" width="13.85546875" style="66" customWidth="1"/>
+    <col min="6148" max="6148" width="11" style="66" customWidth="1"/>
+    <col min="6149" max="6149" width="11.140625" style="66" customWidth="1"/>
+    <col min="6150" max="6152" width="6" style="66" customWidth="1"/>
+    <col min="6153" max="6153" width="24" style="66" customWidth="1"/>
+    <col min="6154" max="6154" width="37.85546875" style="66" customWidth="1"/>
+    <col min="6155" max="6400" width="9.140625" style="66"/>
+    <col min="6401" max="6401" width="17.5703125" style="66" customWidth="1"/>
+    <col min="6402" max="6402" width="30.42578125" style="66" customWidth="1"/>
+    <col min="6403" max="6403" width="13.85546875" style="66" customWidth="1"/>
+    <col min="6404" max="6404" width="11" style="66" customWidth="1"/>
+    <col min="6405" max="6405" width="11.140625" style="66" customWidth="1"/>
+    <col min="6406" max="6408" width="6" style="66" customWidth="1"/>
+    <col min="6409" max="6409" width="24" style="66" customWidth="1"/>
+    <col min="6410" max="6410" width="37.85546875" style="66" customWidth="1"/>
+    <col min="6411" max="6656" width="9.140625" style="66"/>
+    <col min="6657" max="6657" width="17.5703125" style="66" customWidth="1"/>
+    <col min="6658" max="6658" width="30.42578125" style="66" customWidth="1"/>
+    <col min="6659" max="6659" width="13.85546875" style="66" customWidth="1"/>
+    <col min="6660" max="6660" width="11" style="66" customWidth="1"/>
+    <col min="6661" max="6661" width="11.140625" style="66" customWidth="1"/>
+    <col min="6662" max="6664" width="6" style="66" customWidth="1"/>
+    <col min="6665" max="6665" width="24" style="66" customWidth="1"/>
+    <col min="6666" max="6666" width="37.85546875" style="66" customWidth="1"/>
+    <col min="6667" max="6912" width="9.140625" style="66"/>
+    <col min="6913" max="6913" width="17.5703125" style="66" customWidth="1"/>
+    <col min="6914" max="6914" width="30.42578125" style="66" customWidth="1"/>
+    <col min="6915" max="6915" width="13.85546875" style="66" customWidth="1"/>
+    <col min="6916" max="6916" width="11" style="66" customWidth="1"/>
+    <col min="6917" max="6917" width="11.140625" style="66" customWidth="1"/>
+    <col min="6918" max="6920" width="6" style="66" customWidth="1"/>
+    <col min="6921" max="6921" width="24" style="66" customWidth="1"/>
+    <col min="6922" max="6922" width="37.85546875" style="66" customWidth="1"/>
+    <col min="6923" max="7168" width="9.140625" style="66"/>
+    <col min="7169" max="7169" width="17.5703125" style="66" customWidth="1"/>
+    <col min="7170" max="7170" width="30.42578125" style="66" customWidth="1"/>
+    <col min="7171" max="7171" width="13.85546875" style="66" customWidth="1"/>
+    <col min="7172" max="7172" width="11" style="66" customWidth="1"/>
+    <col min="7173" max="7173" width="11.140625" style="66" customWidth="1"/>
+    <col min="7174" max="7176" width="6" style="66" customWidth="1"/>
+    <col min="7177" max="7177" width="24" style="66" customWidth="1"/>
+    <col min="7178" max="7178" width="37.85546875" style="66" customWidth="1"/>
+    <col min="7179" max="7424" width="9.140625" style="66"/>
+    <col min="7425" max="7425" width="17.5703125" style="66" customWidth="1"/>
+    <col min="7426" max="7426" width="30.42578125" style="66" customWidth="1"/>
+    <col min="7427" max="7427" width="13.85546875" style="66" customWidth="1"/>
+    <col min="7428" max="7428" width="11" style="66" customWidth="1"/>
+    <col min="7429" max="7429" width="11.140625" style="66" customWidth="1"/>
+    <col min="7430" max="7432" width="6" style="66" customWidth="1"/>
+    <col min="7433" max="7433" width="24" style="66" customWidth="1"/>
+    <col min="7434" max="7434" width="37.85546875" style="66" customWidth="1"/>
+    <col min="7435" max="7680" width="9.140625" style="66"/>
+    <col min="7681" max="7681" width="17.5703125" style="66" customWidth="1"/>
+    <col min="7682" max="7682" width="30.42578125" style="66" customWidth="1"/>
+    <col min="7683" max="7683" width="13.85546875" style="66" customWidth="1"/>
+    <col min="7684" max="7684" width="11" style="66" customWidth="1"/>
+    <col min="7685" max="7685" width="11.140625" style="66" customWidth="1"/>
+    <col min="7686" max="7688" width="6" style="66" customWidth="1"/>
+    <col min="7689" max="7689" width="24" style="66" customWidth="1"/>
+    <col min="7690" max="7690" width="37.85546875" style="66" customWidth="1"/>
+    <col min="7691" max="7936" width="9.140625" style="66"/>
+    <col min="7937" max="7937" width="17.5703125" style="66" customWidth="1"/>
+    <col min="7938" max="7938" width="30.42578125" style="66" customWidth="1"/>
+    <col min="7939" max="7939" width="13.85546875" style="66" customWidth="1"/>
+    <col min="7940" max="7940" width="11" style="66" customWidth="1"/>
+    <col min="7941" max="7941" width="11.140625" style="66" customWidth="1"/>
+    <col min="7942" max="7944" width="6" style="66" customWidth="1"/>
+    <col min="7945" max="7945" width="24" style="66" customWidth="1"/>
+    <col min="7946" max="7946" width="37.85546875" style="66" customWidth="1"/>
+    <col min="7947" max="8192" width="9.140625" style="66"/>
+    <col min="8193" max="8193" width="17.5703125" style="66" customWidth="1"/>
+    <col min="8194" max="8194" width="30.42578125" style="66" customWidth="1"/>
+    <col min="8195" max="8195" width="13.85546875" style="66" customWidth="1"/>
+    <col min="8196" max="8196" width="11" style="66" customWidth="1"/>
+    <col min="8197" max="8197" width="11.140625" style="66" customWidth="1"/>
+    <col min="8198" max="8200" width="6" style="66" customWidth="1"/>
+    <col min="8201" max="8201" width="24" style="66" customWidth="1"/>
+    <col min="8202" max="8202" width="37.85546875" style="66" customWidth="1"/>
+    <col min="8203" max="8448" width="9.140625" style="66"/>
+    <col min="8449" max="8449" width="17.5703125" style="66" customWidth="1"/>
+    <col min="8450" max="8450" width="30.42578125" style="66" customWidth="1"/>
+    <col min="8451" max="8451" width="13.85546875" style="66" customWidth="1"/>
+    <col min="8452" max="8452" width="11" style="66" customWidth="1"/>
+    <col min="8453" max="8453" width="11.140625" style="66" customWidth="1"/>
+    <col min="8454" max="8456" width="6" style="66" customWidth="1"/>
+    <col min="8457" max="8457" width="24" style="66" customWidth="1"/>
+    <col min="8458" max="8458" width="37.85546875" style="66" customWidth="1"/>
+    <col min="8459" max="8704" width="9.140625" style="66"/>
+    <col min="8705" max="8705" width="17.5703125" style="66" customWidth="1"/>
+    <col min="8706" max="8706" width="30.42578125" style="66" customWidth="1"/>
+    <col min="8707" max="8707" width="13.85546875" style="66" customWidth="1"/>
+    <col min="8708" max="8708" width="11" style="66" customWidth="1"/>
+    <col min="8709" max="8709" width="11.140625" style="66" customWidth="1"/>
+    <col min="8710" max="8712" width="6" style="66" customWidth="1"/>
+    <col min="8713" max="8713" width="24" style="66" customWidth="1"/>
+    <col min="8714" max="8714" width="37.85546875" style="66" customWidth="1"/>
+    <col min="8715" max="8960" width="9.140625" style="66"/>
+    <col min="8961" max="8961" width="17.5703125" style="66" customWidth="1"/>
+    <col min="8962" max="8962" width="30.42578125" style="66" customWidth="1"/>
+    <col min="8963" max="8963" width="13.85546875" style="66" customWidth="1"/>
+    <col min="8964" max="8964" width="11" style="66" customWidth="1"/>
+    <col min="8965" max="8965" width="11.140625" style="66" customWidth="1"/>
+    <col min="8966" max="8968" width="6" style="66" customWidth="1"/>
+    <col min="8969" max="8969" width="24" style="66" customWidth="1"/>
+    <col min="8970" max="8970" width="37.85546875" style="66" customWidth="1"/>
+    <col min="8971" max="9216" width="9.140625" style="66"/>
+    <col min="9217" max="9217" width="17.5703125" style="66" customWidth="1"/>
+    <col min="9218" max="9218" width="30.42578125" style="66" customWidth="1"/>
+    <col min="9219" max="9219" width="13.85546875" style="66" customWidth="1"/>
+    <col min="9220" max="9220" width="11" style="66" customWidth="1"/>
+    <col min="9221" max="9221" width="11.140625" style="66" customWidth="1"/>
+    <col min="9222" max="9224" width="6" style="66" customWidth="1"/>
+    <col min="9225" max="9225" width="24" style="66" customWidth="1"/>
+    <col min="9226" max="9226" width="37.85546875" style="66" customWidth="1"/>
+    <col min="9227" max="9472" width="9.140625" style="66"/>
+    <col min="9473" max="9473" width="17.5703125" style="66" customWidth="1"/>
+    <col min="9474" max="9474" width="30.42578125" style="66" customWidth="1"/>
+    <col min="9475" max="9475" width="13.85546875" style="66" customWidth="1"/>
+    <col min="9476" max="9476" width="11" style="66" customWidth="1"/>
+    <col min="9477" max="9477" width="11.140625" style="66" customWidth="1"/>
+    <col min="9478" max="9480" width="6" style="66" customWidth="1"/>
+    <col min="9481" max="9481" width="24" style="66" customWidth="1"/>
+    <col min="9482" max="9482" width="37.85546875" style="66" customWidth="1"/>
+    <col min="9483" max="9728" width="9.140625" style="66"/>
+    <col min="9729" max="9729" width="17.5703125" style="66" customWidth="1"/>
+    <col min="9730" max="9730" width="30.42578125" style="66" customWidth="1"/>
+    <col min="9731" max="9731" width="13.85546875" style="66" customWidth="1"/>
+    <col min="9732" max="9732" width="11" style="66" customWidth="1"/>
+    <col min="9733" max="9733" width="11.140625" style="66" customWidth="1"/>
+    <col min="9734" max="9736" width="6" style="66" customWidth="1"/>
+    <col min="9737" max="9737" width="24" style="66" customWidth="1"/>
+    <col min="9738" max="9738" width="37.85546875" style="66" customWidth="1"/>
+    <col min="9739" max="9984" width="9.140625" style="66"/>
+    <col min="9985" max="9985" width="17.5703125" style="66" customWidth="1"/>
+    <col min="9986" max="9986" width="30.42578125" style="66" customWidth="1"/>
+    <col min="9987" max="9987" width="13.85546875" style="66" customWidth="1"/>
+    <col min="9988" max="9988" width="11" style="66" customWidth="1"/>
+    <col min="9989" max="9989" width="11.140625" style="66" customWidth="1"/>
+    <col min="9990" max="9992" width="6" style="66" customWidth="1"/>
+    <col min="9993" max="9993" width="24" style="66" customWidth="1"/>
+    <col min="9994" max="9994" width="37.85546875" style="66" customWidth="1"/>
+    <col min="9995" max="10240" width="9.140625" style="66"/>
+    <col min="10241" max="10241" width="17.5703125" style="66" customWidth="1"/>
+    <col min="10242" max="10242" width="30.42578125" style="66" customWidth="1"/>
+    <col min="10243" max="10243" width="13.85546875" style="66" customWidth="1"/>
+    <col min="10244" max="10244" width="11" style="66" customWidth="1"/>
+    <col min="10245" max="10245" width="11.140625" style="66" customWidth="1"/>
+    <col min="10246" max="10248" width="6" style="66" customWidth="1"/>
+    <col min="10249" max="10249" width="24" style="66" customWidth="1"/>
+    <col min="10250" max="10250" width="37.85546875" style="66" customWidth="1"/>
+    <col min="10251" max="10496" width="9.140625" style="66"/>
+    <col min="10497" max="10497" width="17.5703125" style="66" customWidth="1"/>
+    <col min="10498" max="10498" width="30.42578125" style="66" customWidth="1"/>
+    <col min="10499" max="10499" width="13.85546875" style="66" customWidth="1"/>
+    <col min="10500" max="10500" width="11" style="66" customWidth="1"/>
+    <col min="10501" max="10501" width="11.140625" style="66" customWidth="1"/>
+    <col min="10502" max="10504" width="6" style="66" customWidth="1"/>
+    <col min="10505" max="10505" width="24" style="66" customWidth="1"/>
+    <col min="10506" max="10506" width="37.85546875" style="66" customWidth="1"/>
+    <col min="10507" max="10752" width="9.140625" style="66"/>
+    <col min="10753" max="10753" width="17.5703125" style="66" customWidth="1"/>
+    <col min="10754" max="10754" width="30.42578125" style="66" customWidth="1"/>
+    <col min="10755" max="10755" width="13.85546875" style="66" customWidth="1"/>
+    <col min="10756" max="10756" width="11" style="66" customWidth="1"/>
+    <col min="10757" max="10757" width="11.140625" style="66" customWidth="1"/>
+    <col min="10758" max="10760" width="6" style="66" customWidth="1"/>
+    <col min="10761" max="10761" width="24" style="66" customWidth="1"/>
+    <col min="10762" max="10762" width="37.85546875" style="66" customWidth="1"/>
+    <col min="10763" max="11008" width="9.140625" style="66"/>
+    <col min="11009" max="11009" width="17.5703125" style="66" customWidth="1"/>
+    <col min="11010" max="11010" width="30.42578125" style="66" customWidth="1"/>
+    <col min="11011" max="11011" width="13.85546875" style="66" customWidth="1"/>
+    <col min="11012" max="11012" width="11" style="66" customWidth="1"/>
+    <col min="11013" max="11013" width="11.140625" style="66" customWidth="1"/>
+    <col min="11014" max="11016" width="6" style="66" customWidth="1"/>
+    <col min="11017" max="11017" width="24" style="66" customWidth="1"/>
+    <col min="11018" max="11018" width="37.85546875" style="66" customWidth="1"/>
+    <col min="11019" max="11264" width="9.140625" style="66"/>
+    <col min="11265" max="11265" width="17.5703125" style="66" customWidth="1"/>
+    <col min="11266" max="11266" width="30.42578125" style="66" customWidth="1"/>
+    <col min="11267" max="11267" width="13.85546875" style="66" customWidth="1"/>
+    <col min="11268" max="11268" width="11" style="66" customWidth="1"/>
+    <col min="11269" max="11269" width="11.140625" style="66" customWidth="1"/>
+    <col min="11270" max="11272" width="6" style="66" customWidth="1"/>
+    <col min="11273" max="11273" width="24" style="66" customWidth="1"/>
+    <col min="11274" max="11274" width="37.85546875" style="66" customWidth="1"/>
+    <col min="11275" max="11520" width="9.140625" style="66"/>
+    <col min="11521" max="11521" width="17.5703125" style="66" customWidth="1"/>
+    <col min="11522" max="11522" width="30.42578125" style="66" customWidth="1"/>
+    <col min="11523" max="11523" width="13.85546875" style="66" customWidth="1"/>
+    <col min="11524" max="11524" width="11" style="66" customWidth="1"/>
+    <col min="11525" max="11525" width="11.140625" style="66" customWidth="1"/>
+    <col min="11526" max="11528" width="6" style="66" customWidth="1"/>
+    <col min="11529" max="11529" width="24" style="66" customWidth="1"/>
+    <col min="11530" max="11530" width="37.85546875" style="66" customWidth="1"/>
+    <col min="11531" max="11776" width="9.140625" style="66"/>
+    <col min="11777" max="11777" width="17.5703125" style="66" customWidth="1"/>
+    <col min="11778" max="11778" width="30.42578125" style="66" customWidth="1"/>
+    <col min="11779" max="11779" width="13.85546875" style="66" customWidth="1"/>
+    <col min="11780" max="11780" width="11" style="66" customWidth="1"/>
+    <col min="11781" max="11781" width="11.140625" style="66" customWidth="1"/>
+    <col min="11782" max="11784" width="6" style="66" customWidth="1"/>
+    <col min="11785" max="11785" width="24" style="66" customWidth="1"/>
+    <col min="11786" max="11786" width="37.85546875" style="66" customWidth="1"/>
+    <col min="11787" max="12032" width="9.140625" style="66"/>
+    <col min="12033" max="12033" width="17.5703125" style="66" customWidth="1"/>
+    <col min="12034" max="12034" width="30.42578125" style="66" customWidth="1"/>
+    <col min="12035" max="12035" width="13.85546875" style="66" customWidth="1"/>
+    <col min="12036" max="12036" width="11" style="66" customWidth="1"/>
+    <col min="12037" max="12037" width="11.140625" style="66" customWidth="1"/>
+    <col min="12038" max="12040" width="6" style="66" customWidth="1"/>
+    <col min="12041" max="12041" width="24" style="66" customWidth="1"/>
+    <col min="12042" max="12042" width="37.85546875" style="66" customWidth="1"/>
+    <col min="12043" max="12288" width="9.140625" style="66"/>
+    <col min="12289" max="12289" width="17.5703125" style="66" customWidth="1"/>
+    <col min="12290" max="12290" width="30.42578125" style="66" customWidth="1"/>
+    <col min="12291" max="12291" width="13.85546875" style="66" customWidth="1"/>
+    <col min="12292" max="12292" width="11" style="66" customWidth="1"/>
+    <col min="12293" max="12293" width="11.140625" style="66" customWidth="1"/>
+    <col min="12294" max="12296" width="6" style="66" customWidth="1"/>
+    <col min="12297" max="12297" width="24" style="66" customWidth="1"/>
+    <col min="12298" max="12298" width="37.85546875" style="66" customWidth="1"/>
+    <col min="12299" max="12544" width="9.140625" style="66"/>
+    <col min="12545" max="12545" width="17.5703125" style="66" customWidth="1"/>
+    <col min="12546" max="12546" width="30.42578125" style="66" customWidth="1"/>
+    <col min="12547" max="12547" width="13.85546875" style="66" customWidth="1"/>
+    <col min="12548" max="12548" width="11" style="66" customWidth="1"/>
+    <col min="12549" max="12549" width="11.140625" style="66" customWidth="1"/>
+    <col min="12550" max="12552" width="6" style="66" customWidth="1"/>
+    <col min="12553" max="12553" width="24" style="66" customWidth="1"/>
+    <col min="12554" max="12554" width="37.85546875" style="66" customWidth="1"/>
+    <col min="12555" max="12800" width="9.140625" style="66"/>
+    <col min="12801" max="12801" width="17.5703125" style="66" customWidth="1"/>
+    <col min="12802" max="12802" width="30.42578125" style="66" customWidth="1"/>
+    <col min="12803" max="12803" width="13.85546875" style="66" customWidth="1"/>
+    <col min="12804" max="12804" width="11" style="66" customWidth="1"/>
+    <col min="12805" max="12805" width="11.140625" style="66" customWidth="1"/>
+    <col min="12806" max="12808" width="6" style="66" customWidth="1"/>
+    <col min="12809" max="12809" width="24" style="66" customWidth="1"/>
+    <col min="12810" max="12810" width="37.85546875" style="66" customWidth="1"/>
+    <col min="12811" max="13056" width="9.140625" style="66"/>
+    <col min="13057" max="13057" width="17.5703125" style="66" customWidth="1"/>
+    <col min="13058" max="13058" width="30.42578125" style="66" customWidth="1"/>
+    <col min="13059" max="13059" width="13.85546875" style="66" customWidth="1"/>
+    <col min="13060" max="13060" width="11" style="66" customWidth="1"/>
+    <col min="13061" max="13061" width="11.140625" style="66" customWidth="1"/>
+    <col min="13062" max="13064" width="6" style="66" customWidth="1"/>
+    <col min="13065" max="13065" width="24" style="66" customWidth="1"/>
+    <col min="13066" max="13066" width="37.85546875" style="66" customWidth="1"/>
+    <col min="13067" max="13312" width="9.140625" style="66"/>
+    <col min="13313" max="13313" width="17.5703125" style="66" customWidth="1"/>
+    <col min="13314" max="13314" width="30.42578125" style="66" customWidth="1"/>
+    <col min="13315" max="13315" width="13.85546875" style="66" customWidth="1"/>
+    <col min="13316" max="13316" width="11" style="66" customWidth="1"/>
+    <col min="13317" max="13317" width="11.140625" style="66" customWidth="1"/>
+    <col min="13318" max="13320" width="6" style="66" customWidth="1"/>
+    <col min="13321" max="13321" width="24" style="66" customWidth="1"/>
+    <col min="13322" max="13322" width="37.85546875" style="66" customWidth="1"/>
+    <col min="13323" max="13568" width="9.140625" style="66"/>
+    <col min="13569" max="13569" width="17.5703125" style="66" customWidth="1"/>
+    <col min="13570" max="13570" width="30.42578125" style="66" customWidth="1"/>
+    <col min="13571" max="13571" width="13.85546875" style="66" customWidth="1"/>
+    <col min="13572" max="13572" width="11" style="66" customWidth="1"/>
+    <col min="13573" max="13573" width="11.140625" style="66" customWidth="1"/>
+    <col min="13574" max="13576" width="6" style="66" customWidth="1"/>
+    <col min="13577" max="13577" width="24" style="66" customWidth="1"/>
+    <col min="13578" max="13578" width="37.85546875" style="66" customWidth="1"/>
+    <col min="13579" max="13824" width="9.140625" style="66"/>
+    <col min="13825" max="13825" width="17.5703125" style="66" customWidth="1"/>
+    <col min="13826" max="13826" width="30.42578125" style="66" customWidth="1"/>
+    <col min="13827" max="13827" width="13.85546875" style="66" customWidth="1"/>
+    <col min="13828" max="13828" width="11" style="66" customWidth="1"/>
+    <col min="13829" max="13829" width="11.140625" style="66" customWidth="1"/>
+    <col min="13830" max="13832" width="6" style="66" customWidth="1"/>
+    <col min="13833" max="13833" width="24" style="66" customWidth="1"/>
+    <col min="13834" max="13834" width="37.85546875" style="66" customWidth="1"/>
+    <col min="13835" max="14080" width="9.140625" style="66"/>
+    <col min="14081" max="14081" width="17.5703125" style="66" customWidth="1"/>
+    <col min="14082" max="14082" width="30.42578125" style="66" customWidth="1"/>
+    <col min="14083" max="14083" width="13.85546875" style="66" customWidth="1"/>
+    <col min="14084" max="14084" width="11" style="66" customWidth="1"/>
+    <col min="14085" max="14085" width="11.140625" style="66" customWidth="1"/>
+    <col min="14086" max="14088" width="6" style="66" customWidth="1"/>
+    <col min="14089" max="14089" width="24" style="66" customWidth="1"/>
+    <col min="14090" max="14090" width="37.85546875" style="66" customWidth="1"/>
+    <col min="14091" max="14336" width="9.140625" style="66"/>
+    <col min="14337" max="14337" width="17.5703125" style="66" customWidth="1"/>
+    <col min="14338" max="14338" width="30.42578125" style="66" customWidth="1"/>
+    <col min="14339" max="14339" width="13.85546875" style="66" customWidth="1"/>
+    <col min="14340" max="14340" width="11" style="66" customWidth="1"/>
+    <col min="14341" max="14341" width="11.140625" style="66" customWidth="1"/>
+    <col min="14342" max="14344" width="6" style="66" customWidth="1"/>
+    <col min="14345" max="14345" width="24" style="66" customWidth="1"/>
+    <col min="14346" max="14346" width="37.85546875" style="66" customWidth="1"/>
+    <col min="14347" max="14592" width="9.140625" style="66"/>
+    <col min="14593" max="14593" width="17.5703125" style="66" customWidth="1"/>
+    <col min="14594" max="14594" width="30.42578125" style="66" customWidth="1"/>
+    <col min="14595" max="14595" width="13.85546875" style="66" customWidth="1"/>
+    <col min="14596" max="14596" width="11" style="66" customWidth="1"/>
+    <col min="14597" max="14597" width="11.140625" style="66" customWidth="1"/>
+    <col min="14598" max="14600" width="6" style="66" customWidth="1"/>
+    <col min="14601" max="14601" width="24" style="66" customWidth="1"/>
+    <col min="14602" max="14602" width="37.85546875" style="66" customWidth="1"/>
+    <col min="14603" max="14848" width="9.140625" style="66"/>
+    <col min="14849" max="14849" width="17.5703125" style="66" customWidth="1"/>
+    <col min="14850" max="14850" width="30.42578125" style="66" customWidth="1"/>
+    <col min="14851" max="14851" width="13.85546875" style="66" customWidth="1"/>
+    <col min="14852" max="14852" width="11" style="66" customWidth="1"/>
+    <col min="14853" max="14853" width="11.140625" style="66" customWidth="1"/>
+    <col min="14854" max="14856" width="6" style="66" customWidth="1"/>
+    <col min="14857" max="14857" width="24" style="66" customWidth="1"/>
+    <col min="14858" max="14858" width="37.85546875" style="66" customWidth="1"/>
+    <col min="14859" max="15104" width="9.140625" style="66"/>
+    <col min="15105" max="15105" width="17.5703125" style="66" customWidth="1"/>
+    <col min="15106" max="15106" width="30.42578125" style="66" customWidth="1"/>
+    <col min="15107" max="15107" width="13.85546875" style="66" customWidth="1"/>
+    <col min="15108" max="15108" width="11" style="66" customWidth="1"/>
+    <col min="15109" max="15109" width="11.140625" style="66" customWidth="1"/>
+    <col min="15110" max="15112" width="6" style="66" customWidth="1"/>
+    <col min="15113" max="15113" width="24" style="66" customWidth="1"/>
+    <col min="15114" max="15114" width="37.85546875" style="66" customWidth="1"/>
+    <col min="15115" max="15360" width="9.140625" style="66"/>
+    <col min="15361" max="15361" width="17.5703125" style="66" customWidth="1"/>
+    <col min="15362" max="15362" width="30.42578125" style="66" customWidth="1"/>
+    <col min="15363" max="15363" width="13.85546875" style="66" customWidth="1"/>
+    <col min="15364" max="15364" width="11" style="66" customWidth="1"/>
+    <col min="15365" max="15365" width="11.140625" style="66" customWidth="1"/>
+    <col min="15366" max="15368" width="6" style="66" customWidth="1"/>
+    <col min="15369" max="15369" width="24" style="66" customWidth="1"/>
+    <col min="15370" max="15370" width="37.85546875" style="66" customWidth="1"/>
+    <col min="15371" max="15616" width="9.140625" style="66"/>
+    <col min="15617" max="15617" width="17.5703125" style="66" customWidth="1"/>
+    <col min="15618" max="15618" width="30.42578125" style="66" customWidth="1"/>
+    <col min="15619" max="15619" width="13.85546875" style="66" customWidth="1"/>
+    <col min="15620" max="15620" width="11" style="66" customWidth="1"/>
+    <col min="15621" max="15621" width="11.140625" style="66" customWidth="1"/>
+    <col min="15622" max="15624" width="6" style="66" customWidth="1"/>
+    <col min="15625" max="15625" width="24" style="66" customWidth="1"/>
+    <col min="15626" max="15626" width="37.85546875" style="66" customWidth="1"/>
+    <col min="15627" max="15872" width="9.140625" style="66"/>
+    <col min="15873" max="15873" width="17.5703125" style="66" customWidth="1"/>
+    <col min="15874" max="15874" width="30.42578125" style="66" customWidth="1"/>
+    <col min="15875" max="15875" width="13.85546875" style="66" customWidth="1"/>
+    <col min="15876" max="15876" width="11" style="66" customWidth="1"/>
+    <col min="15877" max="15877" width="11.140625" style="66" customWidth="1"/>
+    <col min="15878" max="15880" width="6" style="66" customWidth="1"/>
+    <col min="15881" max="15881" width="24" style="66" customWidth="1"/>
+    <col min="15882" max="15882" width="37.85546875" style="66" customWidth="1"/>
+    <col min="15883" max="16128" width="9.140625" style="66"/>
+    <col min="16129" max="16129" width="17.5703125" style="66" customWidth="1"/>
+    <col min="16130" max="16130" width="30.42578125" style="66" customWidth="1"/>
+    <col min="16131" max="16131" width="13.85546875" style="66" customWidth="1"/>
+    <col min="16132" max="16132" width="11" style="66" customWidth="1"/>
+    <col min="16133" max="16133" width="11.140625" style="66" customWidth="1"/>
+    <col min="16134" max="16136" width="6" style="66" customWidth="1"/>
+    <col min="16137" max="16137" width="24" style="66" customWidth="1"/>
+    <col min="16138" max="16138" width="37.85546875" style="66" customWidth="1"/>
+    <col min="16139" max="16384" width="9.140625" style="66"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="25.5" customHeight="1">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="130" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
     </row>
     <row r="3" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A3" s="114"/>
-      <c r="B3" s="115"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="116"/>
+      <c r="A3" s="67"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="69"/>
     </row>
     <row r="4" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="118" t="str">
+      <c r="B4" s="124" t="str">
         <f>[1]Cover!B4</f>
         <v>&lt;Project Name&gt;</v>
       </c>
-      <c r="C4" s="118"/>
-      <c r="D4" s="119" t="s">
+      <c r="C4" s="124"/>
+      <c r="D4" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="119"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="121"/>
-      <c r="H4" s="121"/>
-      <c r="I4" s="122"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="131"/>
+      <c r="G4" s="132"/>
+      <c r="H4" s="132"/>
+      <c r="I4" s="133"/>
     </row>
     <row r="5" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A5" s="117" t="s">
+      <c r="A5" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="118" t="str">
+      <c r="B5" s="124" t="str">
         <f>[1]Cover!B5</f>
         <v>&lt;Project Code&gt;</v>
       </c>
-      <c r="C5" s="118"/>
-      <c r="D5" s="119" t="s">
+      <c r="C5" s="124"/>
+      <c r="D5" s="125" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="119"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="121"/>
-      <c r="H5" s="121"/>
-      <c r="I5" s="122"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="133"/>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A6" s="123" t="s">
+      <c r="A6" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="118" t="str">
+      <c r="B6" s="124" t="str">
         <f>B5&amp;"_"&amp;"Test Report"&amp;"_"&amp;"vx.x"</f>
         <v>&lt;Project Code&gt;_Test Report_vx.x</v>
       </c>
-      <c r="C6" s="118"/>
-      <c r="D6" s="119" t="s">
+      <c r="C6" s="124"/>
+      <c r="D6" s="125" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="119"/>
-      <c r="F6" s="124">
+      <c r="E6" s="125"/>
+      <c r="F6" s="126">
         <v>41737</v>
       </c>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="126"/>
+      <c r="G6" s="127"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="128"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A7" s="123" t="s">
+      <c r="A7" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="127"/>
-      <c r="C7" s="127"/>
-      <c r="D7" s="127"/>
-      <c r="E7" s="127"/>
-      <c r="F7" s="127"/>
-      <c r="G7" s="127"/>
-      <c r="H7" s="127"/>
-      <c r="I7" s="127"/>
+      <c r="B7" s="129"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="129"/>
     </row>
     <row r="8" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A8" s="128"/>
-      <c r="B8" s="129"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="116"/>
+      <c r="A8" s="72"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="69"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="128"/>
-      <c r="B9" s="129"/>
-      <c r="C9" s="115"/>
-      <c r="D9" s="115"/>
-      <c r="E9" s="115"/>
-      <c r="F9" s="115"/>
-      <c r="G9" s="115"/>
-      <c r="H9" s="115"/>
-      <c r="I9" s="116"/>
+      <c r="A9" s="72"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="69"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="130"/>
-      <c r="B10" s="130"/>
-      <c r="C10" s="130"/>
-      <c r="D10" s="130"/>
-      <c r="E10" s="130"/>
-      <c r="F10" s="130"/>
-      <c r="G10" s="130"/>
-      <c r="H10" s="130"/>
-      <c r="I10" s="130"/>
+      <c r="A10" s="74"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
     </row>
     <row r="11" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A11" s="131" t="s">
+      <c r="A11" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="132" t="s">
+      <c r="B11" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="133" t="s">
+      <c r="C11" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="132" t="s">
+      <c r="D11" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="134" t="s">
+      <c r="E11" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="134" t="s">
+      <c r="F11" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="134" t="s">
+      <c r="G11" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="134" t="s">
+      <c r="H11" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="I11" s="135" t="s">
+      <c r="I11" s="79" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A12" s="136">
+      <c r="A12" s="80">
         <v>1</v>
       </c>
-      <c r="B12" s="190" t="s">
+      <c r="B12" s="123" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="137">
-        <f>'Test 1'!A7</f>
+      <c r="C12" s="81">
+        <f>ViewHistory!A7</f>
         <v>6</v>
       </c>
-      <c r="D12" s="137">
-        <f>'Test 1'!C7</f>
+      <c r="D12" s="81">
+        <f>ViewHistory!C7</f>
         <v>0</v>
       </c>
-      <c r="E12" s="137">
-        <f>'Test 1'!F7</f>
+      <c r="E12" s="81">
+        <f>ViewHistory!F7</f>
         <v>0</v>
       </c>
-      <c r="F12" s="138">
-        <f>'Test 1'!L7</f>
+      <c r="F12" s="82">
+        <f>ViewHistory!L7</f>
         <v>6</v>
       </c>
-      <c r="G12" s="137">
-        <f>'Test 1'!M7</f>
+      <c r="G12" s="81">
+        <f>ViewHistory!M7</f>
         <v>0</v>
       </c>
-      <c r="H12" s="137">
-        <f>'Test 1'!N7</f>
+      <c r="H12" s="81">
+        <f>ViewHistory!N7</f>
         <v>0</v>
       </c>
-      <c r="I12" s="137">
-        <f>'Test 1'!O7</f>
+      <c r="I12" s="81">
+        <f>ViewHistory!O7</f>
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.25">
-      <c r="A13" s="139"/>
-      <c r="B13" s="140" t="s">
+      <c r="A13" s="83"/>
+      <c r="B13" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="141">
+      <c r="C13" s="85">
         <f>SUM(C12)</f>
         <v>6</v>
       </c>
-      <c r="D13" s="141">
+      <c r="D13" s="85">
         <f>SUM(D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="141">
+      <c r="E13" s="85">
         <f>SUM(E12)</f>
         <v>0</v>
       </c>
-      <c r="F13" s="141">
+      <c r="F13" s="85">
         <f>F12</f>
         <v>6</v>
       </c>
-      <c r="G13" s="141">
+      <c r="G13" s="85">
         <f>G12</f>
         <v>0</v>
       </c>
-      <c r="H13" s="141">
+      <c r="H13" s="85">
         <f>H12</f>
         <v>0</v>
       </c>
-      <c r="I13" s="141">
+      <c r="I13" s="85">
         <f>I12</f>
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="142"/>
-      <c r="B14" s="130"/>
-      <c r="C14" s="143"/>
-      <c r="D14" s="144"/>
-      <c r="E14" s="144"/>
-      <c r="F14" s="144"/>
-      <c r="G14" s="144"/>
-      <c r="H14" s="144"/>
-      <c r="I14" s="144"/>
+      <c r="A14" s="86"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="130"/>
-      <c r="B15" s="145" t="s">
+      <c r="A15" s="74"/>
+      <c r="B15" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="130"/>
-      <c r="D15" s="146">
+      <c r="C15" s="74"/>
+      <c r="D15" s="90">
         <f>(C13+D13)*100/(I13)</f>
         <v>100</v>
       </c>
-      <c r="E15" s="130" t="s">
+      <c r="E15" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="F15" s="130"/>
-      <c r="G15" s="130"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="147"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="91"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="130"/>
-      <c r="B16" s="145" t="s">
+      <c r="A16" s="74"/>
+      <c r="B16" s="89" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="130"/>
-      <c r="D16" s="146">
+      <c r="C16" s="74"/>
+      <c r="D16" s="90">
         <f>C13*100/(I13)</f>
         <v>100</v>
       </c>
-      <c r="E16" s="130" t="s">
+      <c r="E16" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="130"/>
-      <c r="G16" s="130"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="147"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="91"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="145" t="s">
+      <c r="B17" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="130"/>
-      <c r="D17" s="146">
+      <c r="C17" s="74"/>
+      <c r="D17" s="90">
         <f>F13*100/I13</f>
         <v>100</v>
       </c>
-      <c r="E17" s="130" t="s">
+      <c r="E17" s="74" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="145" t="s">
+      <c r="B18" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="146">
+      <c r="D18" s="90">
         <f>G13*100/I13</f>
         <v>0</v>
       </c>
-      <c r="E18" s="130" t="s">
+      <c r="E18" s="74" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="145" t="s">
+      <c r="B19" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="146">
+      <c r="D19" s="90">
         <f>H13*100/I13</f>
         <v>0</v>
       </c>
-      <c r="E19" s="130" t="s">
+      <c r="E19" s="74" t="s">
         <v>61</v>
       </c>
     </row>
@@ -4818,7 +4818,7 @@
     <mergeCell ref="F5:I5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B12" location="'Test 1'!A1" display="ViewHistoryTransaction"/>
+    <hyperlink ref="B12" location="ViewHistory!A1" display="ViewHistoryTransaction"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4830,992 +4830,992 @@
   <dimension ref="A2:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="8.140625" style="189" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" style="189" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="189" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="149" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24" style="152" customWidth="1"/>
-    <col min="6" max="6" width="25" style="149" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="149" customWidth="1"/>
-    <col min="8" max="8" width="20" style="149" customWidth="1"/>
-    <col min="9" max="256" width="9.140625" style="113"/>
-    <col min="257" max="257" width="8.140625" style="113" customWidth="1"/>
-    <col min="258" max="258" width="23.42578125" style="113" customWidth="1"/>
-    <col min="259" max="259" width="14.42578125" style="113" customWidth="1"/>
-    <col min="260" max="260" width="14.140625" style="113" bestFit="1" customWidth="1"/>
-    <col min="261" max="261" width="24" style="113" customWidth="1"/>
-    <col min="262" max="262" width="14.140625" style="113" customWidth="1"/>
-    <col min="263" max="263" width="25.7109375" style="113" customWidth="1"/>
-    <col min="264" max="264" width="38.5703125" style="113" customWidth="1"/>
-    <col min="265" max="512" width="9.140625" style="113"/>
-    <col min="513" max="513" width="8.140625" style="113" customWidth="1"/>
-    <col min="514" max="514" width="23.42578125" style="113" customWidth="1"/>
-    <col min="515" max="515" width="14.42578125" style="113" customWidth="1"/>
-    <col min="516" max="516" width="14.140625" style="113" bestFit="1" customWidth="1"/>
-    <col min="517" max="517" width="24" style="113" customWidth="1"/>
-    <col min="518" max="518" width="14.140625" style="113" customWidth="1"/>
-    <col min="519" max="519" width="25.7109375" style="113" customWidth="1"/>
-    <col min="520" max="520" width="38.5703125" style="113" customWidth="1"/>
-    <col min="521" max="768" width="9.140625" style="113"/>
-    <col min="769" max="769" width="8.140625" style="113" customWidth="1"/>
-    <col min="770" max="770" width="23.42578125" style="113" customWidth="1"/>
-    <col min="771" max="771" width="14.42578125" style="113" customWidth="1"/>
-    <col min="772" max="772" width="14.140625" style="113" bestFit="1" customWidth="1"/>
-    <col min="773" max="773" width="24" style="113" customWidth="1"/>
-    <col min="774" max="774" width="14.140625" style="113" customWidth="1"/>
-    <col min="775" max="775" width="25.7109375" style="113" customWidth="1"/>
-    <col min="776" max="776" width="38.5703125" style="113" customWidth="1"/>
-    <col min="777" max="1024" width="9.140625" style="113"/>
-    <col min="1025" max="1025" width="8.140625" style="113" customWidth="1"/>
-    <col min="1026" max="1026" width="23.42578125" style="113" customWidth="1"/>
-    <col min="1027" max="1027" width="14.42578125" style="113" customWidth="1"/>
-    <col min="1028" max="1028" width="14.140625" style="113" bestFit="1" customWidth="1"/>
-    <col min="1029" max="1029" width="24" style="113" customWidth="1"/>
-    <col min="1030" max="1030" width="14.140625" style="113" customWidth="1"/>
-    <col min="1031" max="1031" width="25.7109375" style="113" customWidth="1"/>
-    <col min="1032" max="1032" width="38.5703125" style="113" customWidth="1"/>
-    <col min="1033" max="1280" width="9.140625" style="113"/>
-    <col min="1281" max="1281" width="8.140625" style="113" customWidth="1"/>
-    <col min="1282" max="1282" width="23.42578125" style="113" customWidth="1"/>
-    <col min="1283" max="1283" width="14.42578125" style="113" customWidth="1"/>
-    <col min="1284" max="1284" width="14.140625" style="113" bestFit="1" customWidth="1"/>
-    <col min="1285" max="1285" width="24" style="113" customWidth="1"/>
-    <col min="1286" max="1286" width="14.140625" style="113" customWidth="1"/>
-    <col min="1287" max="1287" width="25.7109375" style="113" customWidth="1"/>
-    <col min="1288" max="1288" width="38.5703125" style="113" customWidth="1"/>
-    <col min="1289" max="1536" width="9.140625" style="113"/>
-    <col min="1537" max="1537" width="8.140625" style="113" customWidth="1"/>
-    <col min="1538" max="1538" width="23.42578125" style="113" customWidth="1"/>
-    <col min="1539" max="1539" width="14.42578125" style="113" customWidth="1"/>
-    <col min="1540" max="1540" width="14.140625" style="113" bestFit="1" customWidth="1"/>
-    <col min="1541" max="1541" width="24" style="113" customWidth="1"/>
-    <col min="1542" max="1542" width="14.140625" style="113" customWidth="1"/>
-    <col min="1543" max="1543" width="25.7109375" style="113" customWidth="1"/>
-    <col min="1544" max="1544" width="38.5703125" style="113" customWidth="1"/>
-    <col min="1545" max="1792" width="9.140625" style="113"/>
-    <col min="1793" max="1793" width="8.140625" style="113" customWidth="1"/>
-    <col min="1794" max="1794" width="23.42578125" style="113" customWidth="1"/>
-    <col min="1795" max="1795" width="14.42578125" style="113" customWidth="1"/>
-    <col min="1796" max="1796" width="14.140625" style="113" bestFit="1" customWidth="1"/>
-    <col min="1797" max="1797" width="24" style="113" customWidth="1"/>
-    <col min="1798" max="1798" width="14.140625" style="113" customWidth="1"/>
-    <col min="1799" max="1799" width="25.7109375" style="113" customWidth="1"/>
-    <col min="1800" max="1800" width="38.5703125" style="113" customWidth="1"/>
-    <col min="1801" max="2048" width="9.140625" style="113"/>
-    <col min="2049" max="2049" width="8.140625" style="113" customWidth="1"/>
-    <col min="2050" max="2050" width="23.42578125" style="113" customWidth="1"/>
-    <col min="2051" max="2051" width="14.42578125" style="113" customWidth="1"/>
-    <col min="2052" max="2052" width="14.140625" style="113" bestFit="1" customWidth="1"/>
-    <col min="2053" max="2053" width="24" style="113" customWidth="1"/>
-    <col min="2054" max="2054" width="14.140625" style="113" customWidth="1"/>
-    <col min="2055" max="2055" width="25.7109375" style="113" customWidth="1"/>
-    <col min="2056" max="2056" width="38.5703125" style="113" customWidth="1"/>
-    <col min="2057" max="2304" width="9.140625" style="113"/>
-    <col min="2305" max="2305" width="8.140625" style="113" customWidth="1"/>
-    <col min="2306" max="2306" width="23.42578125" style="113" customWidth="1"/>
-    <col min="2307" max="2307" width="14.42578125" style="113" customWidth="1"/>
-    <col min="2308" max="2308" width="14.140625" style="113" bestFit="1" customWidth="1"/>
-    <col min="2309" max="2309" width="24" style="113" customWidth="1"/>
-    <col min="2310" max="2310" width="14.140625" style="113" customWidth="1"/>
-    <col min="2311" max="2311" width="25.7109375" style="113" customWidth="1"/>
-    <col min="2312" max="2312" width="38.5703125" style="113" customWidth="1"/>
-    <col min="2313" max="2560" width="9.140625" style="113"/>
-    <col min="2561" max="2561" width="8.140625" style="113" customWidth="1"/>
-    <col min="2562" max="2562" width="23.42578125" style="113" customWidth="1"/>
-    <col min="2563" max="2563" width="14.42578125" style="113" customWidth="1"/>
-    <col min="2564" max="2564" width="14.140625" style="113" bestFit="1" customWidth="1"/>
-    <col min="2565" max="2565" width="24" style="113" customWidth="1"/>
-    <col min="2566" max="2566" width="14.140625" style="113" customWidth="1"/>
-    <col min="2567" max="2567" width="25.7109375" style="113" customWidth="1"/>
-    <col min="2568" max="2568" width="38.5703125" style="113" customWidth="1"/>
-    <col min="2569" max="2816" width="9.140625" style="113"/>
-    <col min="2817" max="2817" width="8.140625" style="113" customWidth="1"/>
-    <col min="2818" max="2818" width="23.42578125" style="113" customWidth="1"/>
-    <col min="2819" max="2819" width="14.42578125" style="113" customWidth="1"/>
-    <col min="2820" max="2820" width="14.140625" style="113" bestFit="1" customWidth="1"/>
-    <col min="2821" max="2821" width="24" style="113" customWidth="1"/>
-    <col min="2822" max="2822" width="14.140625" style="113" customWidth="1"/>
-    <col min="2823" max="2823" width="25.7109375" style="113" customWidth="1"/>
-    <col min="2824" max="2824" width="38.5703125" style="113" customWidth="1"/>
-    <col min="2825" max="3072" width="9.140625" style="113"/>
-    <col min="3073" max="3073" width="8.140625" style="113" customWidth="1"/>
-    <col min="3074" max="3074" width="23.42578125" style="113" customWidth="1"/>
-    <col min="3075" max="3075" width="14.42578125" style="113" customWidth="1"/>
-    <col min="3076" max="3076" width="14.140625" style="113" bestFit="1" customWidth="1"/>
-    <col min="3077" max="3077" width="24" style="113" customWidth="1"/>
-    <col min="3078" max="3078" width="14.140625" style="113" customWidth="1"/>
-    <col min="3079" max="3079" width="25.7109375" style="113" customWidth="1"/>
-    <col min="3080" max="3080" width="38.5703125" style="113" customWidth="1"/>
-    <col min="3081" max="3328" width="9.140625" style="113"/>
-    <col min="3329" max="3329" width="8.140625" style="113" customWidth="1"/>
-    <col min="3330" max="3330" width="23.42578125" style="113" customWidth="1"/>
-    <col min="3331" max="3331" width="14.42578125" style="113" customWidth="1"/>
-    <col min="3332" max="3332" width="14.140625" style="113" bestFit="1" customWidth="1"/>
-    <col min="3333" max="3333" width="24" style="113" customWidth="1"/>
-    <col min="3334" max="3334" width="14.140625" style="113" customWidth="1"/>
-    <col min="3335" max="3335" width="25.7109375" style="113" customWidth="1"/>
-    <col min="3336" max="3336" width="38.5703125" style="113" customWidth="1"/>
-    <col min="3337" max="3584" width="9.140625" style="113"/>
-    <col min="3585" max="3585" width="8.140625" style="113" customWidth="1"/>
-    <col min="3586" max="3586" width="23.42578125" style="113" customWidth="1"/>
-    <col min="3587" max="3587" width="14.42578125" style="113" customWidth="1"/>
-    <col min="3588" max="3588" width="14.140625" style="113" bestFit="1" customWidth="1"/>
-    <col min="3589" max="3589" width="24" style="113" customWidth="1"/>
-    <col min="3590" max="3590" width="14.140625" style="113" customWidth="1"/>
-    <col min="3591" max="3591" width="25.7109375" style="113" customWidth="1"/>
-    <col min="3592" max="3592" width="38.5703125" style="113" customWidth="1"/>
-    <col min="3593" max="3840" width="9.140625" style="113"/>
-    <col min="3841" max="3841" width="8.140625" style="113" customWidth="1"/>
-    <col min="3842" max="3842" width="23.42578125" style="113" customWidth="1"/>
-    <col min="3843" max="3843" width="14.42578125" style="113" customWidth="1"/>
-    <col min="3844" max="3844" width="14.140625" style="113" bestFit="1" customWidth="1"/>
-    <col min="3845" max="3845" width="24" style="113" customWidth="1"/>
-    <col min="3846" max="3846" width="14.140625" style="113" customWidth="1"/>
-    <col min="3847" max="3847" width="25.7109375" style="113" customWidth="1"/>
-    <col min="3848" max="3848" width="38.5703125" style="113" customWidth="1"/>
-    <col min="3849" max="4096" width="9.140625" style="113"/>
-    <col min="4097" max="4097" width="8.140625" style="113" customWidth="1"/>
-    <col min="4098" max="4098" width="23.42578125" style="113" customWidth="1"/>
-    <col min="4099" max="4099" width="14.42578125" style="113" customWidth="1"/>
-    <col min="4100" max="4100" width="14.140625" style="113" bestFit="1" customWidth="1"/>
-    <col min="4101" max="4101" width="24" style="113" customWidth="1"/>
-    <col min="4102" max="4102" width="14.140625" style="113" customWidth="1"/>
-    <col min="4103" max="4103" width="25.7109375" style="113" customWidth="1"/>
-    <col min="4104" max="4104" width="38.5703125" style="113" customWidth="1"/>
-    <col min="4105" max="4352" width="9.140625" style="113"/>
-    <col min="4353" max="4353" width="8.140625" style="113" customWidth="1"/>
-    <col min="4354" max="4354" width="23.42578125" style="113" customWidth="1"/>
-    <col min="4355" max="4355" width="14.42578125" style="113" customWidth="1"/>
-    <col min="4356" max="4356" width="14.140625" style="113" bestFit="1" customWidth="1"/>
-    <col min="4357" max="4357" width="24" style="113" customWidth="1"/>
-    <col min="4358" max="4358" width="14.140625" style="113" customWidth="1"/>
-    <col min="4359" max="4359" width="25.7109375" style="113" customWidth="1"/>
-    <col min="4360" max="4360" width="38.5703125" style="113" customWidth="1"/>
-    <col min="4361" max="4608" width="9.140625" style="113"/>
-    <col min="4609" max="4609" width="8.140625" style="113" customWidth="1"/>
-    <col min="4610" max="4610" width="23.42578125" style="113" customWidth="1"/>
-    <col min="4611" max="4611" width="14.42578125" style="113" customWidth="1"/>
-    <col min="4612" max="4612" width="14.140625" style="113" bestFit="1" customWidth="1"/>
-    <col min="4613" max="4613" width="24" style="113" customWidth="1"/>
-    <col min="4614" max="4614" width="14.140625" style="113" customWidth="1"/>
-    <col min="4615" max="4615" width="25.7109375" style="113" customWidth="1"/>
-    <col min="4616" max="4616" width="38.5703125" style="113" customWidth="1"/>
-    <col min="4617" max="4864" width="9.140625" style="113"/>
-    <col min="4865" max="4865" width="8.140625" style="113" customWidth="1"/>
-    <col min="4866" max="4866" width="23.42578125" style="113" customWidth="1"/>
-    <col min="4867" max="4867" width="14.42578125" style="113" customWidth="1"/>
-    <col min="4868" max="4868" width="14.140625" style="113" bestFit="1" customWidth="1"/>
-    <col min="4869" max="4869" width="24" style="113" customWidth="1"/>
-    <col min="4870" max="4870" width="14.140625" style="113" customWidth="1"/>
-    <col min="4871" max="4871" width="25.7109375" style="113" customWidth="1"/>
-    <col min="4872" max="4872" width="38.5703125" style="113" customWidth="1"/>
-    <col min="4873" max="5120" width="9.140625" style="113"/>
-    <col min="5121" max="5121" width="8.140625" style="113" customWidth="1"/>
-    <col min="5122" max="5122" width="23.42578125" style="113" customWidth="1"/>
-    <col min="5123" max="5123" width="14.42578125" style="113" customWidth="1"/>
-    <col min="5124" max="5124" width="14.140625" style="113" bestFit="1" customWidth="1"/>
-    <col min="5125" max="5125" width="24" style="113" customWidth="1"/>
-    <col min="5126" max="5126" width="14.140625" style="113" customWidth="1"/>
-    <col min="5127" max="5127" width="25.7109375" style="113" customWidth="1"/>
-    <col min="5128" max="5128" width="38.5703125" style="113" customWidth="1"/>
-    <col min="5129" max="5376" width="9.140625" style="113"/>
-    <col min="5377" max="5377" width="8.140625" style="113" customWidth="1"/>
-    <col min="5378" max="5378" width="23.42578125" style="113" customWidth="1"/>
-    <col min="5379" max="5379" width="14.42578125" style="113" customWidth="1"/>
-    <col min="5380" max="5380" width="14.140625" style="113" bestFit="1" customWidth="1"/>
-    <col min="5381" max="5381" width="24" style="113" customWidth="1"/>
-    <col min="5382" max="5382" width="14.140625" style="113" customWidth="1"/>
-    <col min="5383" max="5383" width="25.7109375" style="113" customWidth="1"/>
-    <col min="5384" max="5384" width="38.5703125" style="113" customWidth="1"/>
-    <col min="5385" max="5632" width="9.140625" style="113"/>
-    <col min="5633" max="5633" width="8.140625" style="113" customWidth="1"/>
-    <col min="5634" max="5634" width="23.42578125" style="113" customWidth="1"/>
-    <col min="5635" max="5635" width="14.42578125" style="113" customWidth="1"/>
-    <col min="5636" max="5636" width="14.140625" style="113" bestFit="1" customWidth="1"/>
-    <col min="5637" max="5637" width="24" style="113" customWidth="1"/>
-    <col min="5638" max="5638" width="14.140625" style="113" customWidth="1"/>
-    <col min="5639" max="5639" width="25.7109375" style="113" customWidth="1"/>
-    <col min="5640" max="5640" width="38.5703125" style="113" customWidth="1"/>
-    <col min="5641" max="5888" width="9.140625" style="113"/>
-    <col min="5889" max="5889" width="8.140625" style="113" customWidth="1"/>
-    <col min="5890" max="5890" width="23.42578125" style="113" customWidth="1"/>
-    <col min="5891" max="5891" width="14.42578125" style="113" customWidth="1"/>
-    <col min="5892" max="5892" width="14.140625" style="113" bestFit="1" customWidth="1"/>
-    <col min="5893" max="5893" width="24" style="113" customWidth="1"/>
-    <col min="5894" max="5894" width="14.140625" style="113" customWidth="1"/>
-    <col min="5895" max="5895" width="25.7109375" style="113" customWidth="1"/>
-    <col min="5896" max="5896" width="38.5703125" style="113" customWidth="1"/>
-    <col min="5897" max="6144" width="9.140625" style="113"/>
-    <col min="6145" max="6145" width="8.140625" style="113" customWidth="1"/>
-    <col min="6146" max="6146" width="23.42578125" style="113" customWidth="1"/>
-    <col min="6147" max="6147" width="14.42578125" style="113" customWidth="1"/>
-    <col min="6148" max="6148" width="14.140625" style="113" bestFit="1" customWidth="1"/>
-    <col min="6149" max="6149" width="24" style="113" customWidth="1"/>
-    <col min="6150" max="6150" width="14.140625" style="113" customWidth="1"/>
-    <col min="6151" max="6151" width="25.7109375" style="113" customWidth="1"/>
-    <col min="6152" max="6152" width="38.5703125" style="113" customWidth="1"/>
-    <col min="6153" max="6400" width="9.140625" style="113"/>
-    <col min="6401" max="6401" width="8.140625" style="113" customWidth="1"/>
-    <col min="6402" max="6402" width="23.42578125" style="113" customWidth="1"/>
-    <col min="6403" max="6403" width="14.42578125" style="113" customWidth="1"/>
-    <col min="6404" max="6404" width="14.140625" style="113" bestFit="1" customWidth="1"/>
-    <col min="6405" max="6405" width="24" style="113" customWidth="1"/>
-    <col min="6406" max="6406" width="14.140625" style="113" customWidth="1"/>
-    <col min="6407" max="6407" width="25.7109375" style="113" customWidth="1"/>
-    <col min="6408" max="6408" width="38.5703125" style="113" customWidth="1"/>
-    <col min="6409" max="6656" width="9.140625" style="113"/>
-    <col min="6657" max="6657" width="8.140625" style="113" customWidth="1"/>
-    <col min="6658" max="6658" width="23.42578125" style="113" customWidth="1"/>
-    <col min="6659" max="6659" width="14.42578125" style="113" customWidth="1"/>
-    <col min="6660" max="6660" width="14.140625" style="113" bestFit="1" customWidth="1"/>
-    <col min="6661" max="6661" width="24" style="113" customWidth="1"/>
-    <col min="6662" max="6662" width="14.140625" style="113" customWidth="1"/>
-    <col min="6663" max="6663" width="25.7109375" style="113" customWidth="1"/>
-    <col min="6664" max="6664" width="38.5703125" style="113" customWidth="1"/>
-    <col min="6665" max="6912" width="9.140625" style="113"/>
-    <col min="6913" max="6913" width="8.140625" style="113" customWidth="1"/>
-    <col min="6914" max="6914" width="23.42578125" style="113" customWidth="1"/>
-    <col min="6915" max="6915" width="14.42578125" style="113" customWidth="1"/>
-    <col min="6916" max="6916" width="14.140625" style="113" bestFit="1" customWidth="1"/>
-    <col min="6917" max="6917" width="24" style="113" customWidth="1"/>
-    <col min="6918" max="6918" width="14.140625" style="113" customWidth="1"/>
-    <col min="6919" max="6919" width="25.7109375" style="113" customWidth="1"/>
-    <col min="6920" max="6920" width="38.5703125" style="113" customWidth="1"/>
-    <col min="6921" max="7168" width="9.140625" style="113"/>
-    <col min="7169" max="7169" width="8.140625" style="113" customWidth="1"/>
-    <col min="7170" max="7170" width="23.42578125" style="113" customWidth="1"/>
-    <col min="7171" max="7171" width="14.42578125" style="113" customWidth="1"/>
-    <col min="7172" max="7172" width="14.140625" style="113" bestFit="1" customWidth="1"/>
-    <col min="7173" max="7173" width="24" style="113" customWidth="1"/>
-    <col min="7174" max="7174" width="14.140625" style="113" customWidth="1"/>
-    <col min="7175" max="7175" width="25.7109375" style="113" customWidth="1"/>
-    <col min="7176" max="7176" width="38.5703125" style="113" customWidth="1"/>
-    <col min="7177" max="7424" width="9.140625" style="113"/>
-    <col min="7425" max="7425" width="8.140625" style="113" customWidth="1"/>
-    <col min="7426" max="7426" width="23.42578125" style="113" customWidth="1"/>
-    <col min="7427" max="7427" width="14.42578125" style="113" customWidth="1"/>
-    <col min="7428" max="7428" width="14.140625" style="113" bestFit="1" customWidth="1"/>
-    <col min="7429" max="7429" width="24" style="113" customWidth="1"/>
-    <col min="7430" max="7430" width="14.140625" style="113" customWidth="1"/>
-    <col min="7431" max="7431" width="25.7109375" style="113" customWidth="1"/>
-    <col min="7432" max="7432" width="38.5703125" style="113" customWidth="1"/>
-    <col min="7433" max="7680" width="9.140625" style="113"/>
-    <col min="7681" max="7681" width="8.140625" style="113" customWidth="1"/>
-    <col min="7682" max="7682" width="23.42578125" style="113" customWidth="1"/>
-    <col min="7683" max="7683" width="14.42578125" style="113" customWidth="1"/>
-    <col min="7684" max="7684" width="14.140625" style="113" bestFit="1" customWidth="1"/>
-    <col min="7685" max="7685" width="24" style="113" customWidth="1"/>
-    <col min="7686" max="7686" width="14.140625" style="113" customWidth="1"/>
-    <col min="7687" max="7687" width="25.7109375" style="113" customWidth="1"/>
-    <col min="7688" max="7688" width="38.5703125" style="113" customWidth="1"/>
-    <col min="7689" max="7936" width="9.140625" style="113"/>
-    <col min="7937" max="7937" width="8.140625" style="113" customWidth="1"/>
-    <col min="7938" max="7938" width="23.42578125" style="113" customWidth="1"/>
-    <col min="7939" max="7939" width="14.42578125" style="113" customWidth="1"/>
-    <col min="7940" max="7940" width="14.140625" style="113" bestFit="1" customWidth="1"/>
-    <col min="7941" max="7941" width="24" style="113" customWidth="1"/>
-    <col min="7942" max="7942" width="14.140625" style="113" customWidth="1"/>
-    <col min="7943" max="7943" width="25.7109375" style="113" customWidth="1"/>
-    <col min="7944" max="7944" width="38.5703125" style="113" customWidth="1"/>
-    <col min="7945" max="8192" width="9.140625" style="113"/>
-    <col min="8193" max="8193" width="8.140625" style="113" customWidth="1"/>
-    <col min="8194" max="8194" width="23.42578125" style="113" customWidth="1"/>
-    <col min="8195" max="8195" width="14.42578125" style="113" customWidth="1"/>
-    <col min="8196" max="8196" width="14.140625" style="113" bestFit="1" customWidth="1"/>
-    <col min="8197" max="8197" width="24" style="113" customWidth="1"/>
-    <col min="8198" max="8198" width="14.140625" style="113" customWidth="1"/>
-    <col min="8199" max="8199" width="25.7109375" style="113" customWidth="1"/>
-    <col min="8200" max="8200" width="38.5703125" style="113" customWidth="1"/>
-    <col min="8201" max="8448" width="9.140625" style="113"/>
-    <col min="8449" max="8449" width="8.140625" style="113" customWidth="1"/>
-    <col min="8450" max="8450" width="23.42578125" style="113" customWidth="1"/>
-    <col min="8451" max="8451" width="14.42578125" style="113" customWidth="1"/>
-    <col min="8452" max="8452" width="14.140625" style="113" bestFit="1" customWidth="1"/>
-    <col min="8453" max="8453" width="24" style="113" customWidth="1"/>
-    <col min="8454" max="8454" width="14.140625" style="113" customWidth="1"/>
-    <col min="8455" max="8455" width="25.7109375" style="113" customWidth="1"/>
-    <col min="8456" max="8456" width="38.5703125" style="113" customWidth="1"/>
-    <col min="8457" max="8704" width="9.140625" style="113"/>
-    <col min="8705" max="8705" width="8.140625" style="113" customWidth="1"/>
-    <col min="8706" max="8706" width="23.42578125" style="113" customWidth="1"/>
-    <col min="8707" max="8707" width="14.42578125" style="113" customWidth="1"/>
-    <col min="8708" max="8708" width="14.140625" style="113" bestFit="1" customWidth="1"/>
-    <col min="8709" max="8709" width="24" style="113" customWidth="1"/>
-    <col min="8710" max="8710" width="14.140625" style="113" customWidth="1"/>
-    <col min="8711" max="8711" width="25.7109375" style="113" customWidth="1"/>
-    <col min="8712" max="8712" width="38.5703125" style="113" customWidth="1"/>
-    <col min="8713" max="8960" width="9.140625" style="113"/>
-    <col min="8961" max="8961" width="8.140625" style="113" customWidth="1"/>
-    <col min="8962" max="8962" width="23.42578125" style="113" customWidth="1"/>
-    <col min="8963" max="8963" width="14.42578125" style="113" customWidth="1"/>
-    <col min="8964" max="8964" width="14.140625" style="113" bestFit="1" customWidth="1"/>
-    <col min="8965" max="8965" width="24" style="113" customWidth="1"/>
-    <col min="8966" max="8966" width="14.140625" style="113" customWidth="1"/>
-    <col min="8967" max="8967" width="25.7109375" style="113" customWidth="1"/>
-    <col min="8968" max="8968" width="38.5703125" style="113" customWidth="1"/>
-    <col min="8969" max="9216" width="9.140625" style="113"/>
-    <col min="9217" max="9217" width="8.140625" style="113" customWidth="1"/>
-    <col min="9218" max="9218" width="23.42578125" style="113" customWidth="1"/>
-    <col min="9219" max="9219" width="14.42578125" style="113" customWidth="1"/>
-    <col min="9220" max="9220" width="14.140625" style="113" bestFit="1" customWidth="1"/>
-    <col min="9221" max="9221" width="24" style="113" customWidth="1"/>
-    <col min="9222" max="9222" width="14.140625" style="113" customWidth="1"/>
-    <col min="9223" max="9223" width="25.7109375" style="113" customWidth="1"/>
-    <col min="9224" max="9224" width="38.5703125" style="113" customWidth="1"/>
-    <col min="9225" max="9472" width="9.140625" style="113"/>
-    <col min="9473" max="9473" width="8.140625" style="113" customWidth="1"/>
-    <col min="9474" max="9474" width="23.42578125" style="113" customWidth="1"/>
-    <col min="9475" max="9475" width="14.42578125" style="113" customWidth="1"/>
-    <col min="9476" max="9476" width="14.140625" style="113" bestFit="1" customWidth="1"/>
-    <col min="9477" max="9477" width="24" style="113" customWidth="1"/>
-    <col min="9478" max="9478" width="14.140625" style="113" customWidth="1"/>
-    <col min="9479" max="9479" width="25.7109375" style="113" customWidth="1"/>
-    <col min="9480" max="9480" width="38.5703125" style="113" customWidth="1"/>
-    <col min="9481" max="9728" width="9.140625" style="113"/>
-    <col min="9729" max="9729" width="8.140625" style="113" customWidth="1"/>
-    <col min="9730" max="9730" width="23.42578125" style="113" customWidth="1"/>
-    <col min="9731" max="9731" width="14.42578125" style="113" customWidth="1"/>
-    <col min="9732" max="9732" width="14.140625" style="113" bestFit="1" customWidth="1"/>
-    <col min="9733" max="9733" width="24" style="113" customWidth="1"/>
-    <col min="9734" max="9734" width="14.140625" style="113" customWidth="1"/>
-    <col min="9735" max="9735" width="25.7109375" style="113" customWidth="1"/>
-    <col min="9736" max="9736" width="38.5703125" style="113" customWidth="1"/>
-    <col min="9737" max="9984" width="9.140625" style="113"/>
-    <col min="9985" max="9985" width="8.140625" style="113" customWidth="1"/>
-    <col min="9986" max="9986" width="23.42578125" style="113" customWidth="1"/>
-    <col min="9987" max="9987" width="14.42578125" style="113" customWidth="1"/>
-    <col min="9988" max="9988" width="14.140625" style="113" bestFit="1" customWidth="1"/>
-    <col min="9989" max="9989" width="24" style="113" customWidth="1"/>
-    <col min="9990" max="9990" width="14.140625" style="113" customWidth="1"/>
-    <col min="9991" max="9991" width="25.7109375" style="113" customWidth="1"/>
-    <col min="9992" max="9992" width="38.5703125" style="113" customWidth="1"/>
-    <col min="9993" max="10240" width="9.140625" style="113"/>
-    <col min="10241" max="10241" width="8.140625" style="113" customWidth="1"/>
-    <col min="10242" max="10242" width="23.42578125" style="113" customWidth="1"/>
-    <col min="10243" max="10243" width="14.42578125" style="113" customWidth="1"/>
-    <col min="10244" max="10244" width="14.140625" style="113" bestFit="1" customWidth="1"/>
-    <col min="10245" max="10245" width="24" style="113" customWidth="1"/>
-    <col min="10246" max="10246" width="14.140625" style="113" customWidth="1"/>
-    <col min="10247" max="10247" width="25.7109375" style="113" customWidth="1"/>
-    <col min="10248" max="10248" width="38.5703125" style="113" customWidth="1"/>
-    <col min="10249" max="10496" width="9.140625" style="113"/>
-    <col min="10497" max="10497" width="8.140625" style="113" customWidth="1"/>
-    <col min="10498" max="10498" width="23.42578125" style="113" customWidth="1"/>
-    <col min="10499" max="10499" width="14.42578125" style="113" customWidth="1"/>
-    <col min="10500" max="10500" width="14.140625" style="113" bestFit="1" customWidth="1"/>
-    <col min="10501" max="10501" width="24" style="113" customWidth="1"/>
-    <col min="10502" max="10502" width="14.140625" style="113" customWidth="1"/>
-    <col min="10503" max="10503" width="25.7109375" style="113" customWidth="1"/>
-    <col min="10504" max="10504" width="38.5703125" style="113" customWidth="1"/>
-    <col min="10505" max="10752" width="9.140625" style="113"/>
-    <col min="10753" max="10753" width="8.140625" style="113" customWidth="1"/>
-    <col min="10754" max="10754" width="23.42578125" style="113" customWidth="1"/>
-    <col min="10755" max="10755" width="14.42578125" style="113" customWidth="1"/>
-    <col min="10756" max="10756" width="14.140625" style="113" bestFit="1" customWidth="1"/>
-    <col min="10757" max="10757" width="24" style="113" customWidth="1"/>
-    <col min="10758" max="10758" width="14.140625" style="113" customWidth="1"/>
-    <col min="10759" max="10759" width="25.7109375" style="113" customWidth="1"/>
-    <col min="10760" max="10760" width="38.5703125" style="113" customWidth="1"/>
-    <col min="10761" max="11008" width="9.140625" style="113"/>
-    <col min="11009" max="11009" width="8.140625" style="113" customWidth="1"/>
-    <col min="11010" max="11010" width="23.42578125" style="113" customWidth="1"/>
-    <col min="11011" max="11011" width="14.42578125" style="113" customWidth="1"/>
-    <col min="11012" max="11012" width="14.140625" style="113" bestFit="1" customWidth="1"/>
-    <col min="11013" max="11013" width="24" style="113" customWidth="1"/>
-    <col min="11014" max="11014" width="14.140625" style="113" customWidth="1"/>
-    <col min="11015" max="11015" width="25.7109375" style="113" customWidth="1"/>
-    <col min="11016" max="11016" width="38.5703125" style="113" customWidth="1"/>
-    <col min="11017" max="11264" width="9.140625" style="113"/>
-    <col min="11265" max="11265" width="8.140625" style="113" customWidth="1"/>
-    <col min="11266" max="11266" width="23.42578125" style="113" customWidth="1"/>
-    <col min="11267" max="11267" width="14.42578125" style="113" customWidth="1"/>
-    <col min="11268" max="11268" width="14.140625" style="113" bestFit="1" customWidth="1"/>
-    <col min="11269" max="11269" width="24" style="113" customWidth="1"/>
-    <col min="11270" max="11270" width="14.140625" style="113" customWidth="1"/>
-    <col min="11271" max="11271" width="25.7109375" style="113" customWidth="1"/>
-    <col min="11272" max="11272" width="38.5703125" style="113" customWidth="1"/>
-    <col min="11273" max="11520" width="9.140625" style="113"/>
-    <col min="11521" max="11521" width="8.140625" style="113" customWidth="1"/>
-    <col min="11522" max="11522" width="23.42578125" style="113" customWidth="1"/>
-    <col min="11523" max="11523" width="14.42578125" style="113" customWidth="1"/>
-    <col min="11524" max="11524" width="14.140625" style="113" bestFit="1" customWidth="1"/>
-    <col min="11525" max="11525" width="24" style="113" customWidth="1"/>
-    <col min="11526" max="11526" width="14.140625" style="113" customWidth="1"/>
-    <col min="11527" max="11527" width="25.7109375" style="113" customWidth="1"/>
-    <col min="11528" max="11528" width="38.5703125" style="113" customWidth="1"/>
-    <col min="11529" max="11776" width="9.140625" style="113"/>
-    <col min="11777" max="11777" width="8.140625" style="113" customWidth="1"/>
-    <col min="11778" max="11778" width="23.42578125" style="113" customWidth="1"/>
-    <col min="11779" max="11779" width="14.42578125" style="113" customWidth="1"/>
-    <col min="11780" max="11780" width="14.140625" style="113" bestFit="1" customWidth="1"/>
-    <col min="11781" max="11781" width="24" style="113" customWidth="1"/>
-    <col min="11782" max="11782" width="14.140625" style="113" customWidth="1"/>
-    <col min="11783" max="11783" width="25.7109375" style="113" customWidth="1"/>
-    <col min="11784" max="11784" width="38.5703125" style="113" customWidth="1"/>
-    <col min="11785" max="12032" width="9.140625" style="113"/>
-    <col min="12033" max="12033" width="8.140625" style="113" customWidth="1"/>
-    <col min="12034" max="12034" width="23.42578125" style="113" customWidth="1"/>
-    <col min="12035" max="12035" width="14.42578125" style="113" customWidth="1"/>
-    <col min="12036" max="12036" width="14.140625" style="113" bestFit="1" customWidth="1"/>
-    <col min="12037" max="12037" width="24" style="113" customWidth="1"/>
-    <col min="12038" max="12038" width="14.140625" style="113" customWidth="1"/>
-    <col min="12039" max="12039" width="25.7109375" style="113" customWidth="1"/>
-    <col min="12040" max="12040" width="38.5703125" style="113" customWidth="1"/>
-    <col min="12041" max="12288" width="9.140625" style="113"/>
-    <col min="12289" max="12289" width="8.140625" style="113" customWidth="1"/>
-    <col min="12290" max="12290" width="23.42578125" style="113" customWidth="1"/>
-    <col min="12291" max="12291" width="14.42578125" style="113" customWidth="1"/>
-    <col min="12292" max="12292" width="14.140625" style="113" bestFit="1" customWidth="1"/>
-    <col min="12293" max="12293" width="24" style="113" customWidth="1"/>
-    <col min="12294" max="12294" width="14.140625" style="113" customWidth="1"/>
-    <col min="12295" max="12295" width="25.7109375" style="113" customWidth="1"/>
-    <col min="12296" max="12296" width="38.5703125" style="113" customWidth="1"/>
-    <col min="12297" max="12544" width="9.140625" style="113"/>
-    <col min="12545" max="12545" width="8.140625" style="113" customWidth="1"/>
-    <col min="12546" max="12546" width="23.42578125" style="113" customWidth="1"/>
-    <col min="12547" max="12547" width="14.42578125" style="113" customWidth="1"/>
-    <col min="12548" max="12548" width="14.140625" style="113" bestFit="1" customWidth="1"/>
-    <col min="12549" max="12549" width="24" style="113" customWidth="1"/>
-    <col min="12550" max="12550" width="14.140625" style="113" customWidth="1"/>
-    <col min="12551" max="12551" width="25.7109375" style="113" customWidth="1"/>
-    <col min="12552" max="12552" width="38.5703125" style="113" customWidth="1"/>
-    <col min="12553" max="12800" width="9.140625" style="113"/>
-    <col min="12801" max="12801" width="8.140625" style="113" customWidth="1"/>
-    <col min="12802" max="12802" width="23.42578125" style="113" customWidth="1"/>
-    <col min="12803" max="12803" width="14.42578125" style="113" customWidth="1"/>
-    <col min="12804" max="12804" width="14.140625" style="113" bestFit="1" customWidth="1"/>
-    <col min="12805" max="12805" width="24" style="113" customWidth="1"/>
-    <col min="12806" max="12806" width="14.140625" style="113" customWidth="1"/>
-    <col min="12807" max="12807" width="25.7109375" style="113" customWidth="1"/>
-    <col min="12808" max="12808" width="38.5703125" style="113" customWidth="1"/>
-    <col min="12809" max="13056" width="9.140625" style="113"/>
-    <col min="13057" max="13057" width="8.140625" style="113" customWidth="1"/>
-    <col min="13058" max="13058" width="23.42578125" style="113" customWidth="1"/>
-    <col min="13059" max="13059" width="14.42578125" style="113" customWidth="1"/>
-    <col min="13060" max="13060" width="14.140625" style="113" bestFit="1" customWidth="1"/>
-    <col min="13061" max="13061" width="24" style="113" customWidth="1"/>
-    <col min="13062" max="13062" width="14.140625" style="113" customWidth="1"/>
-    <col min="13063" max="13063" width="25.7109375" style="113" customWidth="1"/>
-    <col min="13064" max="13064" width="38.5703125" style="113" customWidth="1"/>
-    <col min="13065" max="13312" width="9.140625" style="113"/>
-    <col min="13313" max="13313" width="8.140625" style="113" customWidth="1"/>
-    <col min="13314" max="13314" width="23.42578125" style="113" customWidth="1"/>
-    <col min="13315" max="13315" width="14.42578125" style="113" customWidth="1"/>
-    <col min="13316" max="13316" width="14.140625" style="113" bestFit="1" customWidth="1"/>
-    <col min="13317" max="13317" width="24" style="113" customWidth="1"/>
-    <col min="13318" max="13318" width="14.140625" style="113" customWidth="1"/>
-    <col min="13319" max="13319" width="25.7109375" style="113" customWidth="1"/>
-    <col min="13320" max="13320" width="38.5703125" style="113" customWidth="1"/>
-    <col min="13321" max="13568" width="9.140625" style="113"/>
-    <col min="13569" max="13569" width="8.140625" style="113" customWidth="1"/>
-    <col min="13570" max="13570" width="23.42578125" style="113" customWidth="1"/>
-    <col min="13571" max="13571" width="14.42578125" style="113" customWidth="1"/>
-    <col min="13572" max="13572" width="14.140625" style="113" bestFit="1" customWidth="1"/>
-    <col min="13573" max="13573" width="24" style="113" customWidth="1"/>
-    <col min="13574" max="13574" width="14.140625" style="113" customWidth="1"/>
-    <col min="13575" max="13575" width="25.7109375" style="113" customWidth="1"/>
-    <col min="13576" max="13576" width="38.5703125" style="113" customWidth="1"/>
-    <col min="13577" max="13824" width="9.140625" style="113"/>
-    <col min="13825" max="13825" width="8.140625" style="113" customWidth="1"/>
-    <col min="13826" max="13826" width="23.42578125" style="113" customWidth="1"/>
-    <col min="13827" max="13827" width="14.42578125" style="113" customWidth="1"/>
-    <col min="13828" max="13828" width="14.140625" style="113" bestFit="1" customWidth="1"/>
-    <col min="13829" max="13829" width="24" style="113" customWidth="1"/>
-    <col min="13830" max="13830" width="14.140625" style="113" customWidth="1"/>
-    <col min="13831" max="13831" width="25.7109375" style="113" customWidth="1"/>
-    <col min="13832" max="13832" width="38.5703125" style="113" customWidth="1"/>
-    <col min="13833" max="14080" width="9.140625" style="113"/>
-    <col min="14081" max="14081" width="8.140625" style="113" customWidth="1"/>
-    <col min="14082" max="14082" width="23.42578125" style="113" customWidth="1"/>
-    <col min="14083" max="14083" width="14.42578125" style="113" customWidth="1"/>
-    <col min="14084" max="14084" width="14.140625" style="113" bestFit="1" customWidth="1"/>
-    <col min="14085" max="14085" width="24" style="113" customWidth="1"/>
-    <col min="14086" max="14086" width="14.140625" style="113" customWidth="1"/>
-    <col min="14087" max="14087" width="25.7109375" style="113" customWidth="1"/>
-    <col min="14088" max="14088" width="38.5703125" style="113" customWidth="1"/>
-    <col min="14089" max="14336" width="9.140625" style="113"/>
-    <col min="14337" max="14337" width="8.140625" style="113" customWidth="1"/>
-    <col min="14338" max="14338" width="23.42578125" style="113" customWidth="1"/>
-    <col min="14339" max="14339" width="14.42578125" style="113" customWidth="1"/>
-    <col min="14340" max="14340" width="14.140625" style="113" bestFit="1" customWidth="1"/>
-    <col min="14341" max="14341" width="24" style="113" customWidth="1"/>
-    <col min="14342" max="14342" width="14.140625" style="113" customWidth="1"/>
-    <col min="14343" max="14343" width="25.7109375" style="113" customWidth="1"/>
-    <col min="14344" max="14344" width="38.5703125" style="113" customWidth="1"/>
-    <col min="14345" max="14592" width="9.140625" style="113"/>
-    <col min="14593" max="14593" width="8.140625" style="113" customWidth="1"/>
-    <col min="14594" max="14594" width="23.42578125" style="113" customWidth="1"/>
-    <col min="14595" max="14595" width="14.42578125" style="113" customWidth="1"/>
-    <col min="14596" max="14596" width="14.140625" style="113" bestFit="1" customWidth="1"/>
-    <col min="14597" max="14597" width="24" style="113" customWidth="1"/>
-    <col min="14598" max="14598" width="14.140625" style="113" customWidth="1"/>
-    <col min="14599" max="14599" width="25.7109375" style="113" customWidth="1"/>
-    <col min="14600" max="14600" width="38.5703125" style="113" customWidth="1"/>
-    <col min="14601" max="14848" width="9.140625" style="113"/>
-    <col min="14849" max="14849" width="8.140625" style="113" customWidth="1"/>
-    <col min="14850" max="14850" width="23.42578125" style="113" customWidth="1"/>
-    <col min="14851" max="14851" width="14.42578125" style="113" customWidth="1"/>
-    <col min="14852" max="14852" width="14.140625" style="113" bestFit="1" customWidth="1"/>
-    <col min="14853" max="14853" width="24" style="113" customWidth="1"/>
-    <col min="14854" max="14854" width="14.140625" style="113" customWidth="1"/>
-    <col min="14855" max="14855" width="25.7109375" style="113" customWidth="1"/>
-    <col min="14856" max="14856" width="38.5703125" style="113" customWidth="1"/>
-    <col min="14857" max="15104" width="9.140625" style="113"/>
-    <col min="15105" max="15105" width="8.140625" style="113" customWidth="1"/>
-    <col min="15106" max="15106" width="23.42578125" style="113" customWidth="1"/>
-    <col min="15107" max="15107" width="14.42578125" style="113" customWidth="1"/>
-    <col min="15108" max="15108" width="14.140625" style="113" bestFit="1" customWidth="1"/>
-    <col min="15109" max="15109" width="24" style="113" customWidth="1"/>
-    <col min="15110" max="15110" width="14.140625" style="113" customWidth="1"/>
-    <col min="15111" max="15111" width="25.7109375" style="113" customWidth="1"/>
-    <col min="15112" max="15112" width="38.5703125" style="113" customWidth="1"/>
-    <col min="15113" max="15360" width="9.140625" style="113"/>
-    <col min="15361" max="15361" width="8.140625" style="113" customWidth="1"/>
-    <col min="15362" max="15362" width="23.42578125" style="113" customWidth="1"/>
-    <col min="15363" max="15363" width="14.42578125" style="113" customWidth="1"/>
-    <col min="15364" max="15364" width="14.140625" style="113" bestFit="1" customWidth="1"/>
-    <col min="15365" max="15365" width="24" style="113" customWidth="1"/>
-    <col min="15366" max="15366" width="14.140625" style="113" customWidth="1"/>
-    <col min="15367" max="15367" width="25.7109375" style="113" customWidth="1"/>
-    <col min="15368" max="15368" width="38.5703125" style="113" customWidth="1"/>
-    <col min="15369" max="15616" width="9.140625" style="113"/>
-    <col min="15617" max="15617" width="8.140625" style="113" customWidth="1"/>
-    <col min="15618" max="15618" width="23.42578125" style="113" customWidth="1"/>
-    <col min="15619" max="15619" width="14.42578125" style="113" customWidth="1"/>
-    <col min="15620" max="15620" width="14.140625" style="113" bestFit="1" customWidth="1"/>
-    <col min="15621" max="15621" width="24" style="113" customWidth="1"/>
-    <col min="15622" max="15622" width="14.140625" style="113" customWidth="1"/>
-    <col min="15623" max="15623" width="25.7109375" style="113" customWidth="1"/>
-    <col min="15624" max="15624" width="38.5703125" style="113" customWidth="1"/>
-    <col min="15625" max="15872" width="9.140625" style="113"/>
-    <col min="15873" max="15873" width="8.140625" style="113" customWidth="1"/>
-    <col min="15874" max="15874" width="23.42578125" style="113" customWidth="1"/>
-    <col min="15875" max="15875" width="14.42578125" style="113" customWidth="1"/>
-    <col min="15876" max="15876" width="14.140625" style="113" bestFit="1" customWidth="1"/>
-    <col min="15877" max="15877" width="24" style="113" customWidth="1"/>
-    <col min="15878" max="15878" width="14.140625" style="113" customWidth="1"/>
-    <col min="15879" max="15879" width="25.7109375" style="113" customWidth="1"/>
-    <col min="15880" max="15880" width="38.5703125" style="113" customWidth="1"/>
-    <col min="15881" max="16128" width="9.140625" style="113"/>
-    <col min="16129" max="16129" width="8.140625" style="113" customWidth="1"/>
-    <col min="16130" max="16130" width="23.42578125" style="113" customWidth="1"/>
-    <col min="16131" max="16131" width="14.42578125" style="113" customWidth="1"/>
-    <col min="16132" max="16132" width="14.140625" style="113" bestFit="1" customWidth="1"/>
-    <col min="16133" max="16133" width="24" style="113" customWidth="1"/>
-    <col min="16134" max="16134" width="14.140625" style="113" customWidth="1"/>
-    <col min="16135" max="16135" width="25.7109375" style="113" customWidth="1"/>
-    <col min="16136" max="16136" width="38.5703125" style="113" customWidth="1"/>
-    <col min="16137" max="16384" width="9.140625" style="113"/>
+    <col min="1" max="1" width="8.140625" style="122" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="122" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="122" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="93" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" style="96" customWidth="1"/>
+    <col min="6" max="6" width="25" style="93" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="93" customWidth="1"/>
+    <col min="8" max="8" width="20" style="93" customWidth="1"/>
+    <col min="9" max="256" width="9.140625" style="66"/>
+    <col min="257" max="257" width="8.140625" style="66" customWidth="1"/>
+    <col min="258" max="258" width="23.42578125" style="66" customWidth="1"/>
+    <col min="259" max="259" width="14.42578125" style="66" customWidth="1"/>
+    <col min="260" max="260" width="14.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="24" style="66" customWidth="1"/>
+    <col min="262" max="262" width="14.140625" style="66" customWidth="1"/>
+    <col min="263" max="263" width="25.7109375" style="66" customWidth="1"/>
+    <col min="264" max="264" width="38.5703125" style="66" customWidth="1"/>
+    <col min="265" max="512" width="9.140625" style="66"/>
+    <col min="513" max="513" width="8.140625" style="66" customWidth="1"/>
+    <col min="514" max="514" width="23.42578125" style="66" customWidth="1"/>
+    <col min="515" max="515" width="14.42578125" style="66" customWidth="1"/>
+    <col min="516" max="516" width="14.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="517" max="517" width="24" style="66" customWidth="1"/>
+    <col min="518" max="518" width="14.140625" style="66" customWidth="1"/>
+    <col min="519" max="519" width="25.7109375" style="66" customWidth="1"/>
+    <col min="520" max="520" width="38.5703125" style="66" customWidth="1"/>
+    <col min="521" max="768" width="9.140625" style="66"/>
+    <col min="769" max="769" width="8.140625" style="66" customWidth="1"/>
+    <col min="770" max="770" width="23.42578125" style="66" customWidth="1"/>
+    <col min="771" max="771" width="14.42578125" style="66" customWidth="1"/>
+    <col min="772" max="772" width="14.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="773" max="773" width="24" style="66" customWidth="1"/>
+    <col min="774" max="774" width="14.140625" style="66" customWidth="1"/>
+    <col min="775" max="775" width="25.7109375" style="66" customWidth="1"/>
+    <col min="776" max="776" width="38.5703125" style="66" customWidth="1"/>
+    <col min="777" max="1024" width="9.140625" style="66"/>
+    <col min="1025" max="1025" width="8.140625" style="66" customWidth="1"/>
+    <col min="1026" max="1026" width="23.42578125" style="66" customWidth="1"/>
+    <col min="1027" max="1027" width="14.42578125" style="66" customWidth="1"/>
+    <col min="1028" max="1028" width="14.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1029" width="24" style="66" customWidth="1"/>
+    <col min="1030" max="1030" width="14.140625" style="66" customWidth="1"/>
+    <col min="1031" max="1031" width="25.7109375" style="66" customWidth="1"/>
+    <col min="1032" max="1032" width="38.5703125" style="66" customWidth="1"/>
+    <col min="1033" max="1280" width="9.140625" style="66"/>
+    <col min="1281" max="1281" width="8.140625" style="66" customWidth="1"/>
+    <col min="1282" max="1282" width="23.42578125" style="66" customWidth="1"/>
+    <col min="1283" max="1283" width="14.42578125" style="66" customWidth="1"/>
+    <col min="1284" max="1284" width="14.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1285" width="24" style="66" customWidth="1"/>
+    <col min="1286" max="1286" width="14.140625" style="66" customWidth="1"/>
+    <col min="1287" max="1287" width="25.7109375" style="66" customWidth="1"/>
+    <col min="1288" max="1288" width="38.5703125" style="66" customWidth="1"/>
+    <col min="1289" max="1536" width="9.140625" style="66"/>
+    <col min="1537" max="1537" width="8.140625" style="66" customWidth="1"/>
+    <col min="1538" max="1538" width="23.42578125" style="66" customWidth="1"/>
+    <col min="1539" max="1539" width="14.42578125" style="66" customWidth="1"/>
+    <col min="1540" max="1540" width="14.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1541" width="24" style="66" customWidth="1"/>
+    <col min="1542" max="1542" width="14.140625" style="66" customWidth="1"/>
+    <col min="1543" max="1543" width="25.7109375" style="66" customWidth="1"/>
+    <col min="1544" max="1544" width="38.5703125" style="66" customWidth="1"/>
+    <col min="1545" max="1792" width="9.140625" style="66"/>
+    <col min="1793" max="1793" width="8.140625" style="66" customWidth="1"/>
+    <col min="1794" max="1794" width="23.42578125" style="66" customWidth="1"/>
+    <col min="1795" max="1795" width="14.42578125" style="66" customWidth="1"/>
+    <col min="1796" max="1796" width="14.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1797" width="24" style="66" customWidth="1"/>
+    <col min="1798" max="1798" width="14.140625" style="66" customWidth="1"/>
+    <col min="1799" max="1799" width="25.7109375" style="66" customWidth="1"/>
+    <col min="1800" max="1800" width="38.5703125" style="66" customWidth="1"/>
+    <col min="1801" max="2048" width="9.140625" style="66"/>
+    <col min="2049" max="2049" width="8.140625" style="66" customWidth="1"/>
+    <col min="2050" max="2050" width="23.42578125" style="66" customWidth="1"/>
+    <col min="2051" max="2051" width="14.42578125" style="66" customWidth="1"/>
+    <col min="2052" max="2052" width="14.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2053" width="24" style="66" customWidth="1"/>
+    <col min="2054" max="2054" width="14.140625" style="66" customWidth="1"/>
+    <col min="2055" max="2055" width="25.7109375" style="66" customWidth="1"/>
+    <col min="2056" max="2056" width="38.5703125" style="66" customWidth="1"/>
+    <col min="2057" max="2304" width="9.140625" style="66"/>
+    <col min="2305" max="2305" width="8.140625" style="66" customWidth="1"/>
+    <col min="2306" max="2306" width="23.42578125" style="66" customWidth="1"/>
+    <col min="2307" max="2307" width="14.42578125" style="66" customWidth="1"/>
+    <col min="2308" max="2308" width="14.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2309" width="24" style="66" customWidth="1"/>
+    <col min="2310" max="2310" width="14.140625" style="66" customWidth="1"/>
+    <col min="2311" max="2311" width="25.7109375" style="66" customWidth="1"/>
+    <col min="2312" max="2312" width="38.5703125" style="66" customWidth="1"/>
+    <col min="2313" max="2560" width="9.140625" style="66"/>
+    <col min="2561" max="2561" width="8.140625" style="66" customWidth="1"/>
+    <col min="2562" max="2562" width="23.42578125" style="66" customWidth="1"/>
+    <col min="2563" max="2563" width="14.42578125" style="66" customWidth="1"/>
+    <col min="2564" max="2564" width="14.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2565" width="24" style="66" customWidth="1"/>
+    <col min="2566" max="2566" width="14.140625" style="66" customWidth="1"/>
+    <col min="2567" max="2567" width="25.7109375" style="66" customWidth="1"/>
+    <col min="2568" max="2568" width="38.5703125" style="66" customWidth="1"/>
+    <col min="2569" max="2816" width="9.140625" style="66"/>
+    <col min="2817" max="2817" width="8.140625" style="66" customWidth="1"/>
+    <col min="2818" max="2818" width="23.42578125" style="66" customWidth="1"/>
+    <col min="2819" max="2819" width="14.42578125" style="66" customWidth="1"/>
+    <col min="2820" max="2820" width="14.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2821" width="24" style="66" customWidth="1"/>
+    <col min="2822" max="2822" width="14.140625" style="66" customWidth="1"/>
+    <col min="2823" max="2823" width="25.7109375" style="66" customWidth="1"/>
+    <col min="2824" max="2824" width="38.5703125" style="66" customWidth="1"/>
+    <col min="2825" max="3072" width="9.140625" style="66"/>
+    <col min="3073" max="3073" width="8.140625" style="66" customWidth="1"/>
+    <col min="3074" max="3074" width="23.42578125" style="66" customWidth="1"/>
+    <col min="3075" max="3075" width="14.42578125" style="66" customWidth="1"/>
+    <col min="3076" max="3076" width="14.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3077" width="24" style="66" customWidth="1"/>
+    <col min="3078" max="3078" width="14.140625" style="66" customWidth="1"/>
+    <col min="3079" max="3079" width="25.7109375" style="66" customWidth="1"/>
+    <col min="3080" max="3080" width="38.5703125" style="66" customWidth="1"/>
+    <col min="3081" max="3328" width="9.140625" style="66"/>
+    <col min="3329" max="3329" width="8.140625" style="66" customWidth="1"/>
+    <col min="3330" max="3330" width="23.42578125" style="66" customWidth="1"/>
+    <col min="3331" max="3331" width="14.42578125" style="66" customWidth="1"/>
+    <col min="3332" max="3332" width="14.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3333" width="24" style="66" customWidth="1"/>
+    <col min="3334" max="3334" width="14.140625" style="66" customWidth="1"/>
+    <col min="3335" max="3335" width="25.7109375" style="66" customWidth="1"/>
+    <col min="3336" max="3336" width="38.5703125" style="66" customWidth="1"/>
+    <col min="3337" max="3584" width="9.140625" style="66"/>
+    <col min="3585" max="3585" width="8.140625" style="66" customWidth="1"/>
+    <col min="3586" max="3586" width="23.42578125" style="66" customWidth="1"/>
+    <col min="3587" max="3587" width="14.42578125" style="66" customWidth="1"/>
+    <col min="3588" max="3588" width="14.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3589" width="24" style="66" customWidth="1"/>
+    <col min="3590" max="3590" width="14.140625" style="66" customWidth="1"/>
+    <col min="3591" max="3591" width="25.7109375" style="66" customWidth="1"/>
+    <col min="3592" max="3592" width="38.5703125" style="66" customWidth="1"/>
+    <col min="3593" max="3840" width="9.140625" style="66"/>
+    <col min="3841" max="3841" width="8.140625" style="66" customWidth="1"/>
+    <col min="3842" max="3842" width="23.42578125" style="66" customWidth="1"/>
+    <col min="3843" max="3843" width="14.42578125" style="66" customWidth="1"/>
+    <col min="3844" max="3844" width="14.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3845" width="24" style="66" customWidth="1"/>
+    <col min="3846" max="3846" width="14.140625" style="66" customWidth="1"/>
+    <col min="3847" max="3847" width="25.7109375" style="66" customWidth="1"/>
+    <col min="3848" max="3848" width="38.5703125" style="66" customWidth="1"/>
+    <col min="3849" max="4096" width="9.140625" style="66"/>
+    <col min="4097" max="4097" width="8.140625" style="66" customWidth="1"/>
+    <col min="4098" max="4098" width="23.42578125" style="66" customWidth="1"/>
+    <col min="4099" max="4099" width="14.42578125" style="66" customWidth="1"/>
+    <col min="4100" max="4100" width="14.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4101" width="24" style="66" customWidth="1"/>
+    <col min="4102" max="4102" width="14.140625" style="66" customWidth="1"/>
+    <col min="4103" max="4103" width="25.7109375" style="66" customWidth="1"/>
+    <col min="4104" max="4104" width="38.5703125" style="66" customWidth="1"/>
+    <col min="4105" max="4352" width="9.140625" style="66"/>
+    <col min="4353" max="4353" width="8.140625" style="66" customWidth="1"/>
+    <col min="4354" max="4354" width="23.42578125" style="66" customWidth="1"/>
+    <col min="4355" max="4355" width="14.42578125" style="66" customWidth="1"/>
+    <col min="4356" max="4356" width="14.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4357" width="24" style="66" customWidth="1"/>
+    <col min="4358" max="4358" width="14.140625" style="66" customWidth="1"/>
+    <col min="4359" max="4359" width="25.7109375" style="66" customWidth="1"/>
+    <col min="4360" max="4360" width="38.5703125" style="66" customWidth="1"/>
+    <col min="4361" max="4608" width="9.140625" style="66"/>
+    <col min="4609" max="4609" width="8.140625" style="66" customWidth="1"/>
+    <col min="4610" max="4610" width="23.42578125" style="66" customWidth="1"/>
+    <col min="4611" max="4611" width="14.42578125" style="66" customWidth="1"/>
+    <col min="4612" max="4612" width="14.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4613" width="24" style="66" customWidth="1"/>
+    <col min="4614" max="4614" width="14.140625" style="66" customWidth="1"/>
+    <col min="4615" max="4615" width="25.7109375" style="66" customWidth="1"/>
+    <col min="4616" max="4616" width="38.5703125" style="66" customWidth="1"/>
+    <col min="4617" max="4864" width="9.140625" style="66"/>
+    <col min="4865" max="4865" width="8.140625" style="66" customWidth="1"/>
+    <col min="4866" max="4866" width="23.42578125" style="66" customWidth="1"/>
+    <col min="4867" max="4867" width="14.42578125" style="66" customWidth="1"/>
+    <col min="4868" max="4868" width="14.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4869" width="24" style="66" customWidth="1"/>
+    <col min="4870" max="4870" width="14.140625" style="66" customWidth="1"/>
+    <col min="4871" max="4871" width="25.7109375" style="66" customWidth="1"/>
+    <col min="4872" max="4872" width="38.5703125" style="66" customWidth="1"/>
+    <col min="4873" max="5120" width="9.140625" style="66"/>
+    <col min="5121" max="5121" width="8.140625" style="66" customWidth="1"/>
+    <col min="5122" max="5122" width="23.42578125" style="66" customWidth="1"/>
+    <col min="5123" max="5123" width="14.42578125" style="66" customWidth="1"/>
+    <col min="5124" max="5124" width="14.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5125" width="24" style="66" customWidth="1"/>
+    <col min="5126" max="5126" width="14.140625" style="66" customWidth="1"/>
+    <col min="5127" max="5127" width="25.7109375" style="66" customWidth="1"/>
+    <col min="5128" max="5128" width="38.5703125" style="66" customWidth="1"/>
+    <col min="5129" max="5376" width="9.140625" style="66"/>
+    <col min="5377" max="5377" width="8.140625" style="66" customWidth="1"/>
+    <col min="5378" max="5378" width="23.42578125" style="66" customWidth="1"/>
+    <col min="5379" max="5379" width="14.42578125" style="66" customWidth="1"/>
+    <col min="5380" max="5380" width="14.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5381" width="24" style="66" customWidth="1"/>
+    <col min="5382" max="5382" width="14.140625" style="66" customWidth="1"/>
+    <col min="5383" max="5383" width="25.7109375" style="66" customWidth="1"/>
+    <col min="5384" max="5384" width="38.5703125" style="66" customWidth="1"/>
+    <col min="5385" max="5632" width="9.140625" style="66"/>
+    <col min="5633" max="5633" width="8.140625" style="66" customWidth="1"/>
+    <col min="5634" max="5634" width="23.42578125" style="66" customWidth="1"/>
+    <col min="5635" max="5635" width="14.42578125" style="66" customWidth="1"/>
+    <col min="5636" max="5636" width="14.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5637" width="24" style="66" customWidth="1"/>
+    <col min="5638" max="5638" width="14.140625" style="66" customWidth="1"/>
+    <col min="5639" max="5639" width="25.7109375" style="66" customWidth="1"/>
+    <col min="5640" max="5640" width="38.5703125" style="66" customWidth="1"/>
+    <col min="5641" max="5888" width="9.140625" style="66"/>
+    <col min="5889" max="5889" width="8.140625" style="66" customWidth="1"/>
+    <col min="5890" max="5890" width="23.42578125" style="66" customWidth="1"/>
+    <col min="5891" max="5891" width="14.42578125" style="66" customWidth="1"/>
+    <col min="5892" max="5892" width="14.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5893" width="24" style="66" customWidth="1"/>
+    <col min="5894" max="5894" width="14.140625" style="66" customWidth="1"/>
+    <col min="5895" max="5895" width="25.7109375" style="66" customWidth="1"/>
+    <col min="5896" max="5896" width="38.5703125" style="66" customWidth="1"/>
+    <col min="5897" max="6144" width="9.140625" style="66"/>
+    <col min="6145" max="6145" width="8.140625" style="66" customWidth="1"/>
+    <col min="6146" max="6146" width="23.42578125" style="66" customWidth="1"/>
+    <col min="6147" max="6147" width="14.42578125" style="66" customWidth="1"/>
+    <col min="6148" max="6148" width="14.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6149" width="24" style="66" customWidth="1"/>
+    <col min="6150" max="6150" width="14.140625" style="66" customWidth="1"/>
+    <col min="6151" max="6151" width="25.7109375" style="66" customWidth="1"/>
+    <col min="6152" max="6152" width="38.5703125" style="66" customWidth="1"/>
+    <col min="6153" max="6400" width="9.140625" style="66"/>
+    <col min="6401" max="6401" width="8.140625" style="66" customWidth="1"/>
+    <col min="6402" max="6402" width="23.42578125" style="66" customWidth="1"/>
+    <col min="6403" max="6403" width="14.42578125" style="66" customWidth="1"/>
+    <col min="6404" max="6404" width="14.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6405" width="24" style="66" customWidth="1"/>
+    <col min="6406" max="6406" width="14.140625" style="66" customWidth="1"/>
+    <col min="6407" max="6407" width="25.7109375" style="66" customWidth="1"/>
+    <col min="6408" max="6408" width="38.5703125" style="66" customWidth="1"/>
+    <col min="6409" max="6656" width="9.140625" style="66"/>
+    <col min="6657" max="6657" width="8.140625" style="66" customWidth="1"/>
+    <col min="6658" max="6658" width="23.42578125" style="66" customWidth="1"/>
+    <col min="6659" max="6659" width="14.42578125" style="66" customWidth="1"/>
+    <col min="6660" max="6660" width="14.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6661" width="24" style="66" customWidth="1"/>
+    <col min="6662" max="6662" width="14.140625" style="66" customWidth="1"/>
+    <col min="6663" max="6663" width="25.7109375" style="66" customWidth="1"/>
+    <col min="6664" max="6664" width="38.5703125" style="66" customWidth="1"/>
+    <col min="6665" max="6912" width="9.140625" style="66"/>
+    <col min="6913" max="6913" width="8.140625" style="66" customWidth="1"/>
+    <col min="6914" max="6914" width="23.42578125" style="66" customWidth="1"/>
+    <col min="6915" max="6915" width="14.42578125" style="66" customWidth="1"/>
+    <col min="6916" max="6916" width="14.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6917" width="24" style="66" customWidth="1"/>
+    <col min="6918" max="6918" width="14.140625" style="66" customWidth="1"/>
+    <col min="6919" max="6919" width="25.7109375" style="66" customWidth="1"/>
+    <col min="6920" max="6920" width="38.5703125" style="66" customWidth="1"/>
+    <col min="6921" max="7168" width="9.140625" style="66"/>
+    <col min="7169" max="7169" width="8.140625" style="66" customWidth="1"/>
+    <col min="7170" max="7170" width="23.42578125" style="66" customWidth="1"/>
+    <col min="7171" max="7171" width="14.42578125" style="66" customWidth="1"/>
+    <col min="7172" max="7172" width="14.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7173" width="24" style="66" customWidth="1"/>
+    <col min="7174" max="7174" width="14.140625" style="66" customWidth="1"/>
+    <col min="7175" max="7175" width="25.7109375" style="66" customWidth="1"/>
+    <col min="7176" max="7176" width="38.5703125" style="66" customWidth="1"/>
+    <col min="7177" max="7424" width="9.140625" style="66"/>
+    <col min="7425" max="7425" width="8.140625" style="66" customWidth="1"/>
+    <col min="7426" max="7426" width="23.42578125" style="66" customWidth="1"/>
+    <col min="7427" max="7427" width="14.42578125" style="66" customWidth="1"/>
+    <col min="7428" max="7428" width="14.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7429" width="24" style="66" customWidth="1"/>
+    <col min="7430" max="7430" width="14.140625" style="66" customWidth="1"/>
+    <col min="7431" max="7431" width="25.7109375" style="66" customWidth="1"/>
+    <col min="7432" max="7432" width="38.5703125" style="66" customWidth="1"/>
+    <col min="7433" max="7680" width="9.140625" style="66"/>
+    <col min="7681" max="7681" width="8.140625" style="66" customWidth="1"/>
+    <col min="7682" max="7682" width="23.42578125" style="66" customWidth="1"/>
+    <col min="7683" max="7683" width="14.42578125" style="66" customWidth="1"/>
+    <col min="7684" max="7684" width="14.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7685" width="24" style="66" customWidth="1"/>
+    <col min="7686" max="7686" width="14.140625" style="66" customWidth="1"/>
+    <col min="7687" max="7687" width="25.7109375" style="66" customWidth="1"/>
+    <col min="7688" max="7688" width="38.5703125" style="66" customWidth="1"/>
+    <col min="7689" max="7936" width="9.140625" style="66"/>
+    <col min="7937" max="7937" width="8.140625" style="66" customWidth="1"/>
+    <col min="7938" max="7938" width="23.42578125" style="66" customWidth="1"/>
+    <col min="7939" max="7939" width="14.42578125" style="66" customWidth="1"/>
+    <col min="7940" max="7940" width="14.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7941" width="24" style="66" customWidth="1"/>
+    <col min="7942" max="7942" width="14.140625" style="66" customWidth="1"/>
+    <col min="7943" max="7943" width="25.7109375" style="66" customWidth="1"/>
+    <col min="7944" max="7944" width="38.5703125" style="66" customWidth="1"/>
+    <col min="7945" max="8192" width="9.140625" style="66"/>
+    <col min="8193" max="8193" width="8.140625" style="66" customWidth="1"/>
+    <col min="8194" max="8194" width="23.42578125" style="66" customWidth="1"/>
+    <col min="8195" max="8195" width="14.42578125" style="66" customWidth="1"/>
+    <col min="8196" max="8196" width="14.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8197" width="24" style="66" customWidth="1"/>
+    <col min="8198" max="8198" width="14.140625" style="66" customWidth="1"/>
+    <col min="8199" max="8199" width="25.7109375" style="66" customWidth="1"/>
+    <col min="8200" max="8200" width="38.5703125" style="66" customWidth="1"/>
+    <col min="8201" max="8448" width="9.140625" style="66"/>
+    <col min="8449" max="8449" width="8.140625" style="66" customWidth="1"/>
+    <col min="8450" max="8450" width="23.42578125" style="66" customWidth="1"/>
+    <col min="8451" max="8451" width="14.42578125" style="66" customWidth="1"/>
+    <col min="8452" max="8452" width="14.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8453" width="24" style="66" customWidth="1"/>
+    <col min="8454" max="8454" width="14.140625" style="66" customWidth="1"/>
+    <col min="8455" max="8455" width="25.7109375" style="66" customWidth="1"/>
+    <col min="8456" max="8456" width="38.5703125" style="66" customWidth="1"/>
+    <col min="8457" max="8704" width="9.140625" style="66"/>
+    <col min="8705" max="8705" width="8.140625" style="66" customWidth="1"/>
+    <col min="8706" max="8706" width="23.42578125" style="66" customWidth="1"/>
+    <col min="8707" max="8707" width="14.42578125" style="66" customWidth="1"/>
+    <col min="8708" max="8708" width="14.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8709" width="24" style="66" customWidth="1"/>
+    <col min="8710" max="8710" width="14.140625" style="66" customWidth="1"/>
+    <col min="8711" max="8711" width="25.7109375" style="66" customWidth="1"/>
+    <col min="8712" max="8712" width="38.5703125" style="66" customWidth="1"/>
+    <col min="8713" max="8960" width="9.140625" style="66"/>
+    <col min="8961" max="8961" width="8.140625" style="66" customWidth="1"/>
+    <col min="8962" max="8962" width="23.42578125" style="66" customWidth="1"/>
+    <col min="8963" max="8963" width="14.42578125" style="66" customWidth="1"/>
+    <col min="8964" max="8964" width="14.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8965" width="24" style="66" customWidth="1"/>
+    <col min="8966" max="8966" width="14.140625" style="66" customWidth="1"/>
+    <col min="8967" max="8967" width="25.7109375" style="66" customWidth="1"/>
+    <col min="8968" max="8968" width="38.5703125" style="66" customWidth="1"/>
+    <col min="8969" max="9216" width="9.140625" style="66"/>
+    <col min="9217" max="9217" width="8.140625" style="66" customWidth="1"/>
+    <col min="9218" max="9218" width="23.42578125" style="66" customWidth="1"/>
+    <col min="9219" max="9219" width="14.42578125" style="66" customWidth="1"/>
+    <col min="9220" max="9220" width="14.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9221" width="24" style="66" customWidth="1"/>
+    <col min="9222" max="9222" width="14.140625" style="66" customWidth="1"/>
+    <col min="9223" max="9223" width="25.7109375" style="66" customWidth="1"/>
+    <col min="9224" max="9224" width="38.5703125" style="66" customWidth="1"/>
+    <col min="9225" max="9472" width="9.140625" style="66"/>
+    <col min="9473" max="9473" width="8.140625" style="66" customWidth="1"/>
+    <col min="9474" max="9474" width="23.42578125" style="66" customWidth="1"/>
+    <col min="9475" max="9475" width="14.42578125" style="66" customWidth="1"/>
+    <col min="9476" max="9476" width="14.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9477" width="24" style="66" customWidth="1"/>
+    <col min="9478" max="9478" width="14.140625" style="66" customWidth="1"/>
+    <col min="9479" max="9479" width="25.7109375" style="66" customWidth="1"/>
+    <col min="9480" max="9480" width="38.5703125" style="66" customWidth="1"/>
+    <col min="9481" max="9728" width="9.140625" style="66"/>
+    <col min="9729" max="9729" width="8.140625" style="66" customWidth="1"/>
+    <col min="9730" max="9730" width="23.42578125" style="66" customWidth="1"/>
+    <col min="9731" max="9731" width="14.42578125" style="66" customWidth="1"/>
+    <col min="9732" max="9732" width="14.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9733" width="24" style="66" customWidth="1"/>
+    <col min="9734" max="9734" width="14.140625" style="66" customWidth="1"/>
+    <col min="9735" max="9735" width="25.7109375" style="66" customWidth="1"/>
+    <col min="9736" max="9736" width="38.5703125" style="66" customWidth="1"/>
+    <col min="9737" max="9984" width="9.140625" style="66"/>
+    <col min="9985" max="9985" width="8.140625" style="66" customWidth="1"/>
+    <col min="9986" max="9986" width="23.42578125" style="66" customWidth="1"/>
+    <col min="9987" max="9987" width="14.42578125" style="66" customWidth="1"/>
+    <col min="9988" max="9988" width="14.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9989" width="24" style="66" customWidth="1"/>
+    <col min="9990" max="9990" width="14.140625" style="66" customWidth="1"/>
+    <col min="9991" max="9991" width="25.7109375" style="66" customWidth="1"/>
+    <col min="9992" max="9992" width="38.5703125" style="66" customWidth="1"/>
+    <col min="9993" max="10240" width="9.140625" style="66"/>
+    <col min="10241" max="10241" width="8.140625" style="66" customWidth="1"/>
+    <col min="10242" max="10242" width="23.42578125" style="66" customWidth="1"/>
+    <col min="10243" max="10243" width="14.42578125" style="66" customWidth="1"/>
+    <col min="10244" max="10244" width="14.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10245" width="24" style="66" customWidth="1"/>
+    <col min="10246" max="10246" width="14.140625" style="66" customWidth="1"/>
+    <col min="10247" max="10247" width="25.7109375" style="66" customWidth="1"/>
+    <col min="10248" max="10248" width="38.5703125" style="66" customWidth="1"/>
+    <col min="10249" max="10496" width="9.140625" style="66"/>
+    <col min="10497" max="10497" width="8.140625" style="66" customWidth="1"/>
+    <col min="10498" max="10498" width="23.42578125" style="66" customWidth="1"/>
+    <col min="10499" max="10499" width="14.42578125" style="66" customWidth="1"/>
+    <col min="10500" max="10500" width="14.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10501" width="24" style="66" customWidth="1"/>
+    <col min="10502" max="10502" width="14.140625" style="66" customWidth="1"/>
+    <col min="10503" max="10503" width="25.7109375" style="66" customWidth="1"/>
+    <col min="10504" max="10504" width="38.5703125" style="66" customWidth="1"/>
+    <col min="10505" max="10752" width="9.140625" style="66"/>
+    <col min="10753" max="10753" width="8.140625" style="66" customWidth="1"/>
+    <col min="10754" max="10754" width="23.42578125" style="66" customWidth="1"/>
+    <col min="10755" max="10755" width="14.42578125" style="66" customWidth="1"/>
+    <col min="10756" max="10756" width="14.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10757" width="24" style="66" customWidth="1"/>
+    <col min="10758" max="10758" width="14.140625" style="66" customWidth="1"/>
+    <col min="10759" max="10759" width="25.7109375" style="66" customWidth="1"/>
+    <col min="10760" max="10760" width="38.5703125" style="66" customWidth="1"/>
+    <col min="10761" max="11008" width="9.140625" style="66"/>
+    <col min="11009" max="11009" width="8.140625" style="66" customWidth="1"/>
+    <col min="11010" max="11010" width="23.42578125" style="66" customWidth="1"/>
+    <col min="11011" max="11011" width="14.42578125" style="66" customWidth="1"/>
+    <col min="11012" max="11012" width="14.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11013" width="24" style="66" customWidth="1"/>
+    <col min="11014" max="11014" width="14.140625" style="66" customWidth="1"/>
+    <col min="11015" max="11015" width="25.7109375" style="66" customWidth="1"/>
+    <col min="11016" max="11016" width="38.5703125" style="66" customWidth="1"/>
+    <col min="11017" max="11264" width="9.140625" style="66"/>
+    <col min="11265" max="11265" width="8.140625" style="66" customWidth="1"/>
+    <col min="11266" max="11266" width="23.42578125" style="66" customWidth="1"/>
+    <col min="11267" max="11267" width="14.42578125" style="66" customWidth="1"/>
+    <col min="11268" max="11268" width="14.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11269" width="24" style="66" customWidth="1"/>
+    <col min="11270" max="11270" width="14.140625" style="66" customWidth="1"/>
+    <col min="11271" max="11271" width="25.7109375" style="66" customWidth="1"/>
+    <col min="11272" max="11272" width="38.5703125" style="66" customWidth="1"/>
+    <col min="11273" max="11520" width="9.140625" style="66"/>
+    <col min="11521" max="11521" width="8.140625" style="66" customWidth="1"/>
+    <col min="11522" max="11522" width="23.42578125" style="66" customWidth="1"/>
+    <col min="11523" max="11523" width="14.42578125" style="66" customWidth="1"/>
+    <col min="11524" max="11524" width="14.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11525" width="24" style="66" customWidth="1"/>
+    <col min="11526" max="11526" width="14.140625" style="66" customWidth="1"/>
+    <col min="11527" max="11527" width="25.7109375" style="66" customWidth="1"/>
+    <col min="11528" max="11528" width="38.5703125" style="66" customWidth="1"/>
+    <col min="11529" max="11776" width="9.140625" style="66"/>
+    <col min="11777" max="11777" width="8.140625" style="66" customWidth="1"/>
+    <col min="11778" max="11778" width="23.42578125" style="66" customWidth="1"/>
+    <col min="11779" max="11779" width="14.42578125" style="66" customWidth="1"/>
+    <col min="11780" max="11780" width="14.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11781" width="24" style="66" customWidth="1"/>
+    <col min="11782" max="11782" width="14.140625" style="66" customWidth="1"/>
+    <col min="11783" max="11783" width="25.7109375" style="66" customWidth="1"/>
+    <col min="11784" max="11784" width="38.5703125" style="66" customWidth="1"/>
+    <col min="11785" max="12032" width="9.140625" style="66"/>
+    <col min="12033" max="12033" width="8.140625" style="66" customWidth="1"/>
+    <col min="12034" max="12034" width="23.42578125" style="66" customWidth="1"/>
+    <col min="12035" max="12035" width="14.42578125" style="66" customWidth="1"/>
+    <col min="12036" max="12036" width="14.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12037" width="24" style="66" customWidth="1"/>
+    <col min="12038" max="12038" width="14.140625" style="66" customWidth="1"/>
+    <col min="12039" max="12039" width="25.7109375" style="66" customWidth="1"/>
+    <col min="12040" max="12040" width="38.5703125" style="66" customWidth="1"/>
+    <col min="12041" max="12288" width="9.140625" style="66"/>
+    <col min="12289" max="12289" width="8.140625" style="66" customWidth="1"/>
+    <col min="12290" max="12290" width="23.42578125" style="66" customWidth="1"/>
+    <col min="12291" max="12291" width="14.42578125" style="66" customWidth="1"/>
+    <col min="12292" max="12292" width="14.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12293" width="24" style="66" customWidth="1"/>
+    <col min="12294" max="12294" width="14.140625" style="66" customWidth="1"/>
+    <col min="12295" max="12295" width="25.7109375" style="66" customWidth="1"/>
+    <col min="12296" max="12296" width="38.5703125" style="66" customWidth="1"/>
+    <col min="12297" max="12544" width="9.140625" style="66"/>
+    <col min="12545" max="12545" width="8.140625" style="66" customWidth="1"/>
+    <col min="12546" max="12546" width="23.42578125" style="66" customWidth="1"/>
+    <col min="12547" max="12547" width="14.42578125" style="66" customWidth="1"/>
+    <col min="12548" max="12548" width="14.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12549" width="24" style="66" customWidth="1"/>
+    <col min="12550" max="12550" width="14.140625" style="66" customWidth="1"/>
+    <col min="12551" max="12551" width="25.7109375" style="66" customWidth="1"/>
+    <col min="12552" max="12552" width="38.5703125" style="66" customWidth="1"/>
+    <col min="12553" max="12800" width="9.140625" style="66"/>
+    <col min="12801" max="12801" width="8.140625" style="66" customWidth="1"/>
+    <col min="12802" max="12802" width="23.42578125" style="66" customWidth="1"/>
+    <col min="12803" max="12803" width="14.42578125" style="66" customWidth="1"/>
+    <col min="12804" max="12804" width="14.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12805" width="24" style="66" customWidth="1"/>
+    <col min="12806" max="12806" width="14.140625" style="66" customWidth="1"/>
+    <col min="12807" max="12807" width="25.7109375" style="66" customWidth="1"/>
+    <col min="12808" max="12808" width="38.5703125" style="66" customWidth="1"/>
+    <col min="12809" max="13056" width="9.140625" style="66"/>
+    <col min="13057" max="13057" width="8.140625" style="66" customWidth="1"/>
+    <col min="13058" max="13058" width="23.42578125" style="66" customWidth="1"/>
+    <col min="13059" max="13059" width="14.42578125" style="66" customWidth="1"/>
+    <col min="13060" max="13060" width="14.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13061" width="24" style="66" customWidth="1"/>
+    <col min="13062" max="13062" width="14.140625" style="66" customWidth="1"/>
+    <col min="13063" max="13063" width="25.7109375" style="66" customWidth="1"/>
+    <col min="13064" max="13064" width="38.5703125" style="66" customWidth="1"/>
+    <col min="13065" max="13312" width="9.140625" style="66"/>
+    <col min="13313" max="13313" width="8.140625" style="66" customWidth="1"/>
+    <col min="13314" max="13314" width="23.42578125" style="66" customWidth="1"/>
+    <col min="13315" max="13315" width="14.42578125" style="66" customWidth="1"/>
+    <col min="13316" max="13316" width="14.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13317" width="24" style="66" customWidth="1"/>
+    <col min="13318" max="13318" width="14.140625" style="66" customWidth="1"/>
+    <col min="13319" max="13319" width="25.7109375" style="66" customWidth="1"/>
+    <col min="13320" max="13320" width="38.5703125" style="66" customWidth="1"/>
+    <col min="13321" max="13568" width="9.140625" style="66"/>
+    <col min="13569" max="13569" width="8.140625" style="66" customWidth="1"/>
+    <col min="13570" max="13570" width="23.42578125" style="66" customWidth="1"/>
+    <col min="13571" max="13571" width="14.42578125" style="66" customWidth="1"/>
+    <col min="13572" max="13572" width="14.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13573" width="24" style="66" customWidth="1"/>
+    <col min="13574" max="13574" width="14.140625" style="66" customWidth="1"/>
+    <col min="13575" max="13575" width="25.7109375" style="66" customWidth="1"/>
+    <col min="13576" max="13576" width="38.5703125" style="66" customWidth="1"/>
+    <col min="13577" max="13824" width="9.140625" style="66"/>
+    <col min="13825" max="13825" width="8.140625" style="66" customWidth="1"/>
+    <col min="13826" max="13826" width="23.42578125" style="66" customWidth="1"/>
+    <col min="13827" max="13827" width="14.42578125" style="66" customWidth="1"/>
+    <col min="13828" max="13828" width="14.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13829" width="24" style="66" customWidth="1"/>
+    <col min="13830" max="13830" width="14.140625" style="66" customWidth="1"/>
+    <col min="13831" max="13831" width="25.7109375" style="66" customWidth="1"/>
+    <col min="13832" max="13832" width="38.5703125" style="66" customWidth="1"/>
+    <col min="13833" max="14080" width="9.140625" style="66"/>
+    <col min="14081" max="14081" width="8.140625" style="66" customWidth="1"/>
+    <col min="14082" max="14082" width="23.42578125" style="66" customWidth="1"/>
+    <col min="14083" max="14083" width="14.42578125" style="66" customWidth="1"/>
+    <col min="14084" max="14084" width="14.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14085" width="24" style="66" customWidth="1"/>
+    <col min="14086" max="14086" width="14.140625" style="66" customWidth="1"/>
+    <col min="14087" max="14087" width="25.7109375" style="66" customWidth="1"/>
+    <col min="14088" max="14088" width="38.5703125" style="66" customWidth="1"/>
+    <col min="14089" max="14336" width="9.140625" style="66"/>
+    <col min="14337" max="14337" width="8.140625" style="66" customWidth="1"/>
+    <col min="14338" max="14338" width="23.42578125" style="66" customWidth="1"/>
+    <col min="14339" max="14339" width="14.42578125" style="66" customWidth="1"/>
+    <col min="14340" max="14340" width="14.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14341" width="24" style="66" customWidth="1"/>
+    <col min="14342" max="14342" width="14.140625" style="66" customWidth="1"/>
+    <col min="14343" max="14343" width="25.7109375" style="66" customWidth="1"/>
+    <col min="14344" max="14344" width="38.5703125" style="66" customWidth="1"/>
+    <col min="14345" max="14592" width="9.140625" style="66"/>
+    <col min="14593" max="14593" width="8.140625" style="66" customWidth="1"/>
+    <col min="14594" max="14594" width="23.42578125" style="66" customWidth="1"/>
+    <col min="14595" max="14595" width="14.42578125" style="66" customWidth="1"/>
+    <col min="14596" max="14596" width="14.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14597" width="24" style="66" customWidth="1"/>
+    <col min="14598" max="14598" width="14.140625" style="66" customWidth="1"/>
+    <col min="14599" max="14599" width="25.7109375" style="66" customWidth="1"/>
+    <col min="14600" max="14600" width="38.5703125" style="66" customWidth="1"/>
+    <col min="14601" max="14848" width="9.140625" style="66"/>
+    <col min="14849" max="14849" width="8.140625" style="66" customWidth="1"/>
+    <col min="14850" max="14850" width="23.42578125" style="66" customWidth="1"/>
+    <col min="14851" max="14851" width="14.42578125" style="66" customWidth="1"/>
+    <col min="14852" max="14852" width="14.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14853" width="24" style="66" customWidth="1"/>
+    <col min="14854" max="14854" width="14.140625" style="66" customWidth="1"/>
+    <col min="14855" max="14855" width="25.7109375" style="66" customWidth="1"/>
+    <col min="14856" max="14856" width="38.5703125" style="66" customWidth="1"/>
+    <col min="14857" max="15104" width="9.140625" style="66"/>
+    <col min="15105" max="15105" width="8.140625" style="66" customWidth="1"/>
+    <col min="15106" max="15106" width="23.42578125" style="66" customWidth="1"/>
+    <col min="15107" max="15107" width="14.42578125" style="66" customWidth="1"/>
+    <col min="15108" max="15108" width="14.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15109" width="24" style="66" customWidth="1"/>
+    <col min="15110" max="15110" width="14.140625" style="66" customWidth="1"/>
+    <col min="15111" max="15111" width="25.7109375" style="66" customWidth="1"/>
+    <col min="15112" max="15112" width="38.5703125" style="66" customWidth="1"/>
+    <col min="15113" max="15360" width="9.140625" style="66"/>
+    <col min="15361" max="15361" width="8.140625" style="66" customWidth="1"/>
+    <col min="15362" max="15362" width="23.42578125" style="66" customWidth="1"/>
+    <col min="15363" max="15363" width="14.42578125" style="66" customWidth="1"/>
+    <col min="15364" max="15364" width="14.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15365" width="24" style="66" customWidth="1"/>
+    <col min="15366" max="15366" width="14.140625" style="66" customWidth="1"/>
+    <col min="15367" max="15367" width="25.7109375" style="66" customWidth="1"/>
+    <col min="15368" max="15368" width="38.5703125" style="66" customWidth="1"/>
+    <col min="15369" max="15616" width="9.140625" style="66"/>
+    <col min="15617" max="15617" width="8.140625" style="66" customWidth="1"/>
+    <col min="15618" max="15618" width="23.42578125" style="66" customWidth="1"/>
+    <col min="15619" max="15619" width="14.42578125" style="66" customWidth="1"/>
+    <col min="15620" max="15620" width="14.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15621" width="24" style="66" customWidth="1"/>
+    <col min="15622" max="15622" width="14.140625" style="66" customWidth="1"/>
+    <col min="15623" max="15623" width="25.7109375" style="66" customWidth="1"/>
+    <col min="15624" max="15624" width="38.5703125" style="66" customWidth="1"/>
+    <col min="15625" max="15872" width="9.140625" style="66"/>
+    <col min="15873" max="15873" width="8.140625" style="66" customWidth="1"/>
+    <col min="15874" max="15874" width="23.42578125" style="66" customWidth="1"/>
+    <col min="15875" max="15875" width="14.42578125" style="66" customWidth="1"/>
+    <col min="15876" max="15876" width="14.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15877" width="24" style="66" customWidth="1"/>
+    <col min="15878" max="15878" width="14.140625" style="66" customWidth="1"/>
+    <col min="15879" max="15879" width="25.7109375" style="66" customWidth="1"/>
+    <col min="15880" max="15880" width="38.5703125" style="66" customWidth="1"/>
+    <col min="15881" max="16128" width="9.140625" style="66"/>
+    <col min="16129" max="16129" width="8.140625" style="66" customWidth="1"/>
+    <col min="16130" max="16130" width="23.42578125" style="66" customWidth="1"/>
+    <col min="16131" max="16131" width="14.42578125" style="66" customWidth="1"/>
+    <col min="16132" max="16132" width="14.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16133" width="24" style="66" customWidth="1"/>
+    <col min="16134" max="16134" width="14.140625" style="66" customWidth="1"/>
+    <col min="16135" max="16135" width="25.7109375" style="66" customWidth="1"/>
+    <col min="16136" max="16136" width="38.5703125" style="66" customWidth="1"/>
+    <col min="16137" max="16384" width="9.140625" style="66"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="25.5">
-      <c r="A2" s="148"/>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="E2" s="150" t="s">
+      <c r="A2" s="92"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="E2" s="94" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="150"/>
-      <c r="G2" s="151"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="95"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A3" s="148"/>
-      <c r="B3" s="148"/>
-      <c r="C3" s="148"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
+      <c r="A3" s="92"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A4" s="154" t="s">
+      <c r="A4" s="134" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="154"/>
-      <c r="C4" s="154"/>
-      <c r="D4" s="154"/>
-      <c r="E4" s="155" t="str">
+      <c r="B4" s="134"/>
+      <c r="C4" s="134"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="135" t="str">
         <f>[1]Cover!B4</f>
         <v>&lt;Project Name&gt;</v>
       </c>
-      <c r="F4" s="156"/>
-      <c r="G4" s="156"/>
-      <c r="H4" s="157"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="137"/>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A5" s="154" t="s">
+      <c r="A5" s="134" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="154"/>
-      <c r="C5" s="154"/>
-      <c r="D5" s="154"/>
-      <c r="E5" s="155" t="str">
+      <c r="B5" s="134"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="135" t="str">
         <f>[1]Cover!B5</f>
         <v>&lt;Project Code&gt;</v>
       </c>
-      <c r="F5" s="156"/>
-      <c r="G5" s="156"/>
-      <c r="H5" s="157"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="137"/>
     </row>
     <row r="6" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A6" s="158" t="s">
+      <c r="A6" s="138" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="159"/>
-      <c r="C6" s="159"/>
-      <c r="D6" s="160"/>
-      <c r="E6" s="161">
+      <c r="B6" s="139"/>
+      <c r="C6" s="139"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="98">
         <v>100</v>
       </c>
-      <c r="F6" s="162"/>
-      <c r="G6" s="162"/>
-      <c r="H6" s="163"/>
-    </row>
-    <row r="7" spans="1:8" s="168" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A7" s="164" t="s">
+      <c r="F6" s="99"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="100"/>
+    </row>
+    <row r="7" spans="1:8" s="101" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A7" s="141" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="164"/>
-      <c r="C7" s="164"/>
-      <c r="D7" s="164"/>
-      <c r="E7" s="165" t="s">
+      <c r="B7" s="141"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="142" t="s">
         <v>70</v>
       </c>
-      <c r="F7" s="166"/>
-      <c r="G7" s="166"/>
-      <c r="H7" s="167"/>
+      <c r="F7" s="143"/>
+      <c r="G7" s="143"/>
+      <c r="H7" s="144"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="169"/>
-      <c r="B8" s="169"/>
-      <c r="C8" s="169"/>
-      <c r="D8" s="170"/>
-      <c r="E8" s="171"/>
-      <c r="F8" s="170"/>
-      <c r="G8" s="170"/>
-      <c r="H8" s="170"/>
-    </row>
-    <row r="9" spans="1:8" s="175" customFormat="1">
-      <c r="A9" s="172"/>
-      <c r="B9" s="172"/>
-      <c r="C9" s="172"/>
-      <c r="D9" s="173"/>
-      <c r="E9" s="174"/>
-      <c r="F9" s="173"/>
-      <c r="G9" s="173"/>
-      <c r="H9" s="173"/>
-    </row>
-    <row r="10" spans="1:8" s="183" customFormat="1" ht="24" customHeight="1">
-      <c r="A10" s="176" t="s">
+      <c r="A8" s="102"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+    </row>
+    <row r="9" spans="1:8" s="108" customFormat="1">
+      <c r="A9" s="105"/>
+      <c r="B9" s="105"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="106"/>
+    </row>
+    <row r="10" spans="1:8" s="116" customFormat="1" ht="24" customHeight="1">
+      <c r="A10" s="109" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="177" t="s">
+      <c r="B10" s="110" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="178" t="s">
+      <c r="C10" s="111" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="179" t="s">
+      <c r="D10" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="180" t="s">
+      <c r="E10" s="113" t="s">
         <v>73</v>
       </c>
-      <c r="F10" s="179" t="s">
+      <c r="F10" s="112" t="s">
         <v>74</v>
       </c>
-      <c r="G10" s="181" t="s">
+      <c r="G10" s="114" t="s">
         <v>75</v>
       </c>
-      <c r="H10" s="182" t="s">
+      <c r="H10" s="115" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="27">
-      <c r="A11" s="184">
+    <row r="11" spans="1:8" ht="25.5">
+      <c r="A11" s="117">
         <v>1</v>
       </c>
-      <c r="B11" s="185" t="s">
+      <c r="B11" s="118" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="185"/>
-      <c r="D11" s="186" t="s">
+      <c r="C11" s="118"/>
+      <c r="D11" s="119" t="s">
         <v>78</v>
       </c>
-      <c r="E11" s="186" t="s">
+      <c r="E11" s="119" t="s">
         <v>78</v>
       </c>
-      <c r="F11" s="190" t="s">
+      <c r="F11" s="123" t="s">
         <v>78</v>
       </c>
-      <c r="G11" s="187"/>
-      <c r="H11" s="188"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="121"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="113"/>
-      <c r="B12" s="113"/>
-      <c r="C12" s="113"/>
-      <c r="D12" s="113"/>
-      <c r="E12" s="113"/>
-      <c r="F12" s="113"/>
-      <c r="G12" s="113"/>
-      <c r="H12" s="113"/>
+      <c r="A12" s="66"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="113"/>
-      <c r="B13" s="113"/>
-      <c r="C13" s="113"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="113"/>
+      <c r="A13" s="66"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="113"/>
-      <c r="B14" s="113"/>
-      <c r="C14" s="113"/>
-      <c r="D14" s="113"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="113"/>
-      <c r="H14" s="113"/>
+      <c r="A14" s="66"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="113"/>
-      <c r="B15" s="113"/>
-      <c r="C15" s="113"/>
-      <c r="D15" s="113"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="113"/>
-      <c r="G15" s="113"/>
-      <c r="H15" s="113"/>
+      <c r="A15" s="66"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="113"/>
-      <c r="B16" s="113"/>
-      <c r="C16" s="113"/>
-      <c r="D16" s="113"/>
-      <c r="E16" s="113"/>
-      <c r="F16" s="113"/>
-      <c r="G16" s="113"/>
-      <c r="H16" s="113"/>
+      <c r="A16" s="66"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="113"/>
-      <c r="B17" s="113"/>
-      <c r="C17" s="113"/>
-      <c r="D17" s="113"/>
-      <c r="E17" s="113"/>
-      <c r="F17" s="113"/>
-      <c r="G17" s="113"/>
-      <c r="H17" s="113"/>
+      <c r="A17" s="66"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="113"/>
-      <c r="B18" s="113"/>
-      <c r="C18" s="113"/>
-      <c r="D18" s="113"/>
-      <c r="E18" s="113"/>
-      <c r="F18" s="113"/>
-      <c r="G18" s="113"/>
-      <c r="H18" s="113"/>
+      <c r="A18" s="66"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="113"/>
-      <c r="B19" s="113"/>
-      <c r="C19" s="113"/>
-      <c r="D19" s="113"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="113"/>
-      <c r="G19" s="113"/>
-      <c r="H19" s="113"/>
+      <c r="A19" s="66"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="113"/>
-      <c r="B20" s="113"/>
-      <c r="C20" s="113"/>
-      <c r="D20" s="113"/>
-      <c r="E20" s="113"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
+      <c r="A20" s="66"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="113"/>
-      <c r="B21" s="113"/>
-      <c r="C21" s="113"/>
-      <c r="D21" s="113"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
+      <c r="A21" s="66"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="113"/>
-      <c r="B22" s="113"/>
-      <c r="C22" s="113"/>
-      <c r="D22" s="113"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="113"/>
+      <c r="A22" s="66"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="113"/>
-      <c r="B23" s="113"/>
-      <c r="C23" s="113"/>
-      <c r="D23" s="113"/>
-      <c r="E23" s="113"/>
-      <c r="F23" s="113"/>
-      <c r="G23" s="113"/>
-      <c r="H23" s="113"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="113"/>
-      <c r="B24" s="113"/>
-      <c r="C24" s="113"/>
-      <c r="D24" s="113"/>
-      <c r="E24" s="113"/>
-      <c r="F24" s="113"/>
-      <c r="G24" s="113"/>
-      <c r="H24" s="113"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="113"/>
-      <c r="B25" s="113"/>
-      <c r="C25" s="113"/>
-      <c r="D25" s="113"/>
-      <c r="E25" s="113"/>
-      <c r="F25" s="113"/>
-      <c r="G25" s="113"/>
-      <c r="H25" s="113"/>
+      <c r="A25" s="66"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="113"/>
-      <c r="B26" s="113"/>
-      <c r="C26" s="113"/>
-      <c r="D26" s="113"/>
-      <c r="E26" s="113"/>
-      <c r="F26" s="113"/>
-      <c r="G26" s="113"/>
-      <c r="H26" s="113"/>
+      <c r="A26" s="66"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="113"/>
-      <c r="B27" s="113"/>
-      <c r="C27" s="113"/>
-      <c r="D27" s="113"/>
-      <c r="E27" s="113"/>
-      <c r="F27" s="113"/>
-      <c r="G27" s="113"/>
-      <c r="H27" s="113"/>
+      <c r="A27" s="66"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="113"/>
-      <c r="B28" s="113"/>
-      <c r="C28" s="113"/>
-      <c r="D28" s="113"/>
-      <c r="E28" s="113"/>
-      <c r="F28" s="113"/>
-      <c r="G28" s="113"/>
-      <c r="H28" s="113"/>
+      <c r="A28" s="66"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="66"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="113"/>
-      <c r="B29" s="113"/>
-      <c r="C29" s="113"/>
-      <c r="D29" s="113"/>
-      <c r="E29" s="113"/>
-      <c r="F29" s="113"/>
-      <c r="G29" s="113"/>
-      <c r="H29" s="113"/>
+      <c r="A29" s="66"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="66"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="113"/>
-      <c r="B30" s="113"/>
-      <c r="C30" s="113"/>
-      <c r="D30" s="113"/>
-      <c r="E30" s="113"/>
-      <c r="F30" s="113"/>
-      <c r="G30" s="113"/>
-      <c r="H30" s="113"/>
+      <c r="A30" s="66"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="113"/>
-      <c r="B31" s="113"/>
-      <c r="C31" s="113"/>
-      <c r="D31" s="113"/>
-      <c r="E31" s="113"/>
-      <c r="F31" s="113"/>
-      <c r="G31" s="113"/>
-      <c r="H31" s="113"/>
+      <c r="A31" s="66"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="113"/>
-      <c r="B32" s="113"/>
-      <c r="C32" s="113"/>
-      <c r="D32" s="113"/>
-      <c r="E32" s="113"/>
-      <c r="F32" s="113"/>
-      <c r="G32" s="113"/>
-      <c r="H32" s="113"/>
+      <c r="A32" s="66"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="66"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="113"/>
-      <c r="B33" s="113"/>
-      <c r="C33" s="113"/>
-      <c r="D33" s="113"/>
-      <c r="E33" s="113"/>
-      <c r="F33" s="113"/>
-      <c r="G33" s="113"/>
-      <c r="H33" s="113"/>
+      <c r="A33" s="66"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="66"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="113"/>
-      <c r="B34" s="113"/>
-      <c r="C34" s="113"/>
-      <c r="D34" s="113"/>
-      <c r="E34" s="113"/>
-      <c r="F34" s="113"/>
-      <c r="G34" s="113"/>
-      <c r="H34" s="113"/>
+      <c r="A34" s="66"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="66"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="113"/>
-      <c r="B35" s="113"/>
-      <c r="C35" s="113"/>
-      <c r="D35" s="113"/>
-      <c r="E35" s="113"/>
-      <c r="F35" s="113"/>
-      <c r="G35" s="113"/>
-      <c r="H35" s="113"/>
+      <c r="A35" s="66"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="66"/>
+      <c r="H35" s="66"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="113"/>
-      <c r="B36" s="113"/>
-      <c r="C36" s="113"/>
-      <c r="D36" s="113"/>
-      <c r="E36" s="113"/>
-      <c r="F36" s="113"/>
-      <c r="G36" s="113"/>
-      <c r="H36" s="113"/>
+      <c r="A36" s="66"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E7:H7"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="E4:H4"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="E5:H5"/>
     <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E7:H7"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F11" location="'Test 1'!A1" display="ViewHistoryTransaction"/>
+    <hyperlink ref="F11" location="ViewHistory!A1" display="ViewHistoryTransaction"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5825,14 +5825,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
   <cols>
     <col min="1" max="1" width="9.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="51" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="11" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" style="3" customWidth="1"/>
     <col min="4" max="4" width="13" style="4" customWidth="1"/>
     <col min="5" max="5" width="5" style="3" hidden="1" customWidth="1"/>
@@ -6610,837 +6610,835 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="178" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="179"/>
+      <c r="C2" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10" t="s">
+      <c r="D2" s="181"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="183" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="12" t="s">
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
+      <c r="J2" s="184"/>
+      <c r="K2" s="184"/>
+      <c r="L2" s="185" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="14"/>
-      <c r="V2" s="15"/>
+      <c r="M2" s="186"/>
+      <c r="N2" s="186"/>
+      <c r="O2" s="186"/>
+      <c r="P2" s="186"/>
+      <c r="Q2" s="186"/>
+      <c r="R2" s="186"/>
+      <c r="S2" s="186"/>
+      <c r="T2" s="187"/>
+      <c r="V2" s="5"/>
     </row>
     <row r="3" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="166" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="18" t="s">
+      <c r="B3" s="167"/>
+      <c r="C3" s="188" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="21" t="s">
+      <c r="D3" s="189"/>
+      <c r="E3" s="190"/>
+      <c r="F3" s="170" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="25"/>
+      <c r="G3" s="171"/>
+      <c r="H3" s="171"/>
+      <c r="I3" s="171"/>
+      <c r="J3" s="171"/>
+      <c r="K3" s="172"/>
+      <c r="L3" s="189"/>
+      <c r="M3" s="189"/>
+      <c r="N3" s="189"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="7"/>
     </row>
     <row r="4" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="166" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="26">
+      <c r="B4" s="167"/>
+      <c r="C4" s="168">
         <v>100</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="21" t="s">
+      <c r="D4" s="169"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="29">
+      <c r="G4" s="171"/>
+      <c r="H4" s="171"/>
+      <c r="I4" s="171"/>
+      <c r="J4" s="171"/>
+      <c r="K4" s="172"/>
+      <c r="L4" s="173">
         <f xml:space="preserve"> IF([1]FunctionList!E6&lt;&gt;"N/A",SUM(C4*[1]FunctionList!E6/1000,- O7),"N/A")</f>
         <v>4</v>
       </c>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="31"/>
-      <c r="V4" s="15"/>
+      <c r="M4" s="174"/>
+      <c r="N4" s="174"/>
+      <c r="O4" s="174"/>
+      <c r="P4" s="174"/>
+      <c r="Q4" s="174"/>
+      <c r="R4" s="174"/>
+      <c r="S4" s="174"/>
+      <c r="T4" s="175"/>
+      <c r="V4" s="5"/>
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="166" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="32" t="s">
+      <c r="B5" s="167"/>
+      <c r="C5" s="176" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="32"/>
-      <c r="T5" s="32"/>
+      <c r="D5" s="176"/>
+      <c r="E5" s="176"/>
+      <c r="F5" s="177"/>
+      <c r="G5" s="177"/>
+      <c r="H5" s="177"/>
+      <c r="I5" s="177"/>
+      <c r="J5" s="177"/>
+      <c r="K5" s="177"/>
+      <c r="L5" s="176"/>
+      <c r="M5" s="176"/>
+      <c r="N5" s="176"/>
+      <c r="O5" s="176"/>
+      <c r="P5" s="176"/>
+      <c r="Q5" s="176"/>
+      <c r="R5" s="176"/>
+      <c r="S5" s="176"/>
+      <c r="T5" s="176"/>
     </row>
     <row r="6" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="151" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="36" t="s">
+      <c r="B6" s="152"/>
+      <c r="C6" s="153" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="36" t="s">
+      <c r="D6" s="154"/>
+      <c r="E6" s="155"/>
+      <c r="F6" s="153" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="37" t="s">
+      <c r="G6" s="154"/>
+      <c r="H6" s="154"/>
+      <c r="I6" s="154"/>
+      <c r="J6" s="154"/>
+      <c r="K6" s="156"/>
+      <c r="L6" s="154" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="40" t="s">
+      <c r="M6" s="154"/>
+      <c r="N6" s="154"/>
+      <c r="O6" s="157" t="s">
         <v>13</v>
       </c>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="37"/>
-      <c r="T6" s="41"/>
-      <c r="V6" s="15"/>
+      <c r="P6" s="154"/>
+      <c r="Q6" s="154"/>
+      <c r="R6" s="154"/>
+      <c r="S6" s="154"/>
+      <c r="T6" s="158"/>
+      <c r="V6" s="5"/>
     </row>
     <row r="7" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="42">
+      <c r="A7" s="159">
         <f>COUNTIF(F34:K34,"P")</f>
         <v>6</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="44">
+      <c r="B7" s="160"/>
+      <c r="C7" s="161">
         <f>COUNTIF(E56:HP56,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="45"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="44">
+      <c r="D7" s="162"/>
+      <c r="E7" s="160"/>
+      <c r="F7" s="161">
         <f>SUM(O7,- A7,- C7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="47">
+      <c r="G7" s="162"/>
+      <c r="H7" s="162"/>
+      <c r="I7" s="162"/>
+      <c r="J7" s="162"/>
+      <c r="K7" s="163"/>
+      <c r="L7" s="9">
         <f>COUNTIF(F33:K33,"N")</f>
         <v>6</v>
       </c>
-      <c r="M7" s="47">
+      <c r="M7" s="9">
         <f>COUNTIF(G33:K33,"A")</f>
         <v>0</v>
       </c>
-      <c r="N7" s="47">
+      <c r="N7" s="9">
         <f>COUNTIF(H33:K33,"B")</f>
         <v>0</v>
       </c>
-      <c r="O7" s="48">
+      <c r="O7" s="164">
         <f>COUNTA(E9:HK9)</f>
         <v>6</v>
       </c>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45"/>
-      <c r="S7" s="45"/>
-      <c r="T7" s="49"/>
-      <c r="U7" s="50"/>
+      <c r="P7" s="162"/>
+      <c r="Q7" s="162"/>
+      <c r="R7" s="162"/>
+      <c r="S7" s="162"/>
+      <c r="T7" s="165"/>
+      <c r="U7" s="10"/>
     </row>
     <row r="8" spans="1:22" ht="11.25" thickBot="1"/>
     <row r="9" spans="1:22" ht="46.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A9" s="52"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="56" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="56" t="s">
+      <c r="G9" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="56" t="s">
+      <c r="H9" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="I9" s="56" t="s">
+      <c r="I9" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="J9" s="56" t="s">
+      <c r="J9" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="K9" s="56" t="s">
+      <c r="K9" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="L9" s="57"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="59"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="19"/>
     </row>
     <row r="10" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
     </row>
     <row r="11" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A11" s="66"/>
-      <c r="B11" s="67" t="s">
+      <c r="A11" s="26"/>
+      <c r="B11" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="110" t="s">
+      <c r="C11" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="69"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
-      <c r="M11" s="15"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="M11" s="5"/>
     </row>
     <row r="12" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A12" s="66"/>
-      <c r="B12" s="67"/>
-      <c r="C12" s="68" t="s">
+      <c r="A12" s="26"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="69"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="70" t="s">
+      <c r="D12" s="29"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
     </row>
     <row r="13" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A13" s="66"/>
-      <c r="B13" s="67"/>
-      <c r="C13" s="68" t="s">
+      <c r="A13" s="26"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="69"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70" t="s">
+      <c r="D13" s="29"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
     </row>
     <row r="14" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A14" s="66"/>
-      <c r="B14" s="67"/>
-      <c r="C14" s="68" t="s">
+      <c r="A14" s="26"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="69"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70" t="s">
+      <c r="D14" s="29"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="70"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
     </row>
     <row r="15" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A15" s="66"/>
-      <c r="B15" s="67"/>
-      <c r="C15" s="68" t="s">
+      <c r="A15" s="26"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="69"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70" t="s">
+      <c r="D15" s="29"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
     </row>
     <row r="16" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A16" s="66"/>
-      <c r="B16" s="67"/>
-      <c r="C16" s="68" t="s">
+      <c r="A16" s="26"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="69"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70" t="s">
+      <c r="D16" s="29"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="K16" s="70"/>
+      <c r="K16" s="30"/>
     </row>
     <row r="17" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A17" s="66"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="68" t="s">
+      <c r="A17" s="26"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="69"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="70" t="s">
+      <c r="D17" s="29"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="L17" s="74"/>
+      <c r="L17" s="34"/>
     </row>
     <row r="18" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A18" s="66"/>
-      <c r="B18" s="67"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="106"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="74"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="34"/>
     </row>
     <row r="19" spans="1:12" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A19" s="66"/>
-      <c r="B19" s="71"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="107"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="73"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="145"/>
+      <c r="E19" s="146"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
     </row>
     <row r="20" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A20" s="77" t="s">
+      <c r="A20" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="78" t="s">
+      <c r="B20" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="79"/>
-      <c r="D20" s="109"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="70"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
     </row>
     <row r="21" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A21" s="66"/>
-      <c r="B21" s="80"/>
-      <c r="C21" s="81" t="s">
+      <c r="A21" s="26"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="109"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70" t="s">
+      <c r="D21" s="63"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="70"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
     </row>
     <row r="22" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A22" s="66"/>
-      <c r="B22" s="80"/>
-      <c r="C22" s="81" t="s">
+      <c r="A22" s="26"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="109"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70" t="s">
+      <c r="D22" s="63"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="70"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
     </row>
     <row r="23" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A23" s="66"/>
-      <c r="B23" s="80"/>
-      <c r="C23" s="81" t="s">
+      <c r="A23" s="26"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="109"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70" t="s">
+      <c r="D23" s="63"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="70"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
     </row>
     <row r="24" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A24" s="66"/>
-      <c r="B24" s="80"/>
-      <c r="C24" s="81" t="s">
+      <c r="A24" s="26"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="84"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="111" t="s">
+      <c r="D24" s="43"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="J24" s="83"/>
-      <c r="K24" s="83"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
     </row>
     <row r="25" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A25" s="66"/>
-      <c r="B25" s="80"/>
-      <c r="C25" s="81" t="s">
+      <c r="A25" s="26"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="84"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="83" t="s">
+      <c r="D25" s="43"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="K25" s="83"/>
+      <c r="K25" s="42"/>
     </row>
     <row r="26" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A26" s="66"/>
-      <c r="B26" s="80"/>
-      <c r="C26" s="81" t="s">
+      <c r="A26" s="26"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="84"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="83"/>
-      <c r="K26" s="83" t="s">
+      <c r="D26" s="43"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A27" s="66"/>
-      <c r="B27" s="85"/>
-      <c r="C27" s="81"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="70"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
     </row>
     <row r="28" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A28" s="66"/>
-      <c r="B28" s="89" t="s">
+      <c r="A28" s="26"/>
+      <c r="B28" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="86"/>
-      <c r="D28" s="87"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="70"/>
-      <c r="K28" s="70"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
     </row>
     <row r="29" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A29" s="66"/>
-      <c r="B29" s="89"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="70"/>
-      <c r="K29" s="70"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
     </row>
     <row r="30" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A30" s="66"/>
-      <c r="B30" s="89" t="s">
+      <c r="A30" s="26"/>
+      <c r="B30" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="86"/>
-      <c r="D30" s="87"/>
-      <c r="E30" s="88"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="70"/>
-      <c r="J30" s="70"/>
-      <c r="K30" s="70"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
     </row>
     <row r="31" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A31" s="66"/>
-      <c r="B31" s="89"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="88"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="70"/>
-      <c r="H31" s="70"/>
-      <c r="I31" s="70"/>
-      <c r="J31" s="70"/>
-      <c r="K31" s="70"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
     </row>
     <row r="32" spans="1:12" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A32" s="66"/>
-      <c r="B32" s="90"/>
-      <c r="C32" s="91"/>
-      <c r="D32" s="92"/>
-      <c r="E32" s="93"/>
-      <c r="F32" s="75"/>
-      <c r="G32" s="75"/>
-      <c r="H32" s="75"/>
-      <c r="I32" s="75"/>
-      <c r="J32" s="75"/>
-      <c r="K32" s="75"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
     </row>
     <row r="33" spans="1:11" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A33" s="77" t="s">
+      <c r="A33" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="94" t="s">
+      <c r="B33" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="94"/>
-      <c r="D33" s="94"/>
-      <c r="E33" s="95"/>
-      <c r="F33" s="96" t="s">
+      <c r="C33" s="147"/>
+      <c r="D33" s="147"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="G33" s="96" t="s">
+      <c r="G33" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="H33" s="96" t="s">
+      <c r="H33" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="I33" s="96" t="s">
+      <c r="I33" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="J33" s="96" t="s">
+      <c r="J33" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="K33" s="96" t="s">
+      <c r="K33" s="54" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A34" s="66"/>
-      <c r="B34" s="97" t="s">
+      <c r="A34" s="26"/>
+      <c r="B34" s="148" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="97"/>
-      <c r="D34" s="97"/>
-      <c r="E34" s="98"/>
-      <c r="F34" s="99" t="s">
+      <c r="C34" s="148"/>
+      <c r="D34" s="148"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="G34" s="99" t="s">
+      <c r="G34" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="H34" s="99" t="s">
+      <c r="H34" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="I34" s="99" t="s">
+      <c r="I34" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="J34" s="99" t="s">
+      <c r="J34" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="K34" s="99" t="s">
+      <c r="K34" s="56" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A35" s="66"/>
-      <c r="B35" s="100" t="s">
+      <c r="A35" s="26"/>
+      <c r="B35" s="149" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="100"/>
-      <c r="D35" s="100"/>
-      <c r="E35" s="101"/>
-      <c r="F35" s="102">
+      <c r="C35" s="149"/>
+      <c r="D35" s="149"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="58">
         <v>41737</v>
       </c>
-      <c r="G35" s="102">
+      <c r="G35" s="58">
         <v>41737</v>
       </c>
-      <c r="H35" s="102">
+      <c r="H35" s="58">
         <v>41737</v>
       </c>
-      <c r="I35" s="102">
+      <c r="I35" s="58">
         <v>41737</v>
       </c>
-      <c r="J35" s="102">
+      <c r="J35" s="58">
         <v>41737</v>
       </c>
-      <c r="K35" s="102">
+      <c r="K35" s="58">
         <v>41737</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A36" s="66"/>
-      <c r="B36" s="76"/>
-      <c r="C36" s="76"/>
-      <c r="D36" s="76"/>
-      <c r="E36" s="103"/>
-      <c r="F36" s="104"/>
-      <c r="G36" s="104"/>
-      <c r="H36" s="104"/>
-      <c r="I36" s="104"/>
-      <c r="J36" s="104"/>
-      <c r="K36" s="104"/>
+      <c r="A36" s="26"/>
+      <c r="B36" s="150"/>
+      <c r="C36" s="150"/>
+      <c r="D36" s="150"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="60"/>
+      <c r="K36" s="60"/>
     </row>
     <row r="37" spans="1:11" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A37" s="51"/>
+      <c r="A37" s="11"/>
       <c r="B37" s="3"/>
       <c r="C37" s="4"/>
       <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A38" s="51"/>
+      <c r="A38" s="11"/>
       <c r="B38" s="3"/>
       <c r="C38" s="4"/>
       <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A39" s="51"/>
+      <c r="A39" s="11"/>
       <c r="B39" s="3"/>
       <c r="C39" s="4"/>
       <c r="D39" s="3"/>
     </row>
     <row r="40" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A40" s="51"/>
+      <c r="A40" s="11"/>
       <c r="B40" s="3"/>
       <c r="C40" s="4"/>
       <c r="D40" s="3"/>
     </row>
     <row r="41" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A41" s="51"/>
+      <c r="A41" s="11"/>
       <c r="B41" s="3"/>
       <c r="C41" s="4"/>
       <c r="D41" s="3"/>
     </row>
     <row r="42" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A42" s="51"/>
+      <c r="A42" s="11"/>
       <c r="B42" s="3"/>
       <c r="C42" s="4"/>
       <c r="D42" s="3"/>
     </row>
     <row r="43" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A43" s="51"/>
+      <c r="A43" s="11"/>
       <c r="B43" s="3"/>
       <c r="C43" s="4"/>
       <c r="D43" s="3"/>
     </row>
     <row r="44" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A44" s="51"/>
+      <c r="A44" s="11"/>
       <c r="B44" s="3"/>
       <c r="C44" s="4"/>
       <c r="D44" s="3"/>
     </row>
     <row r="45" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A45" s="51"/>
+      <c r="A45" s="11"/>
       <c r="B45" s="3"/>
       <c r="C45" s="4"/>
       <c r="D45" s="3"/>
     </row>
     <row r="46" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A46" s="51"/>
+      <c r="A46" s="11"/>
       <c r="B46" s="3"/>
       <c r="C46" s="4"/>
       <c r="D46" s="3"/>
     </row>
     <row r="47" spans="1:11" ht="20.25" customHeight="1">
-      <c r="A47" s="51"/>
+      <c r="A47" s="11"/>
       <c r="B47" s="3"/>
       <c r="C47" s="4"/>
       <c r="D47" s="3"/>
     </row>
     <row r="48" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A48" s="51"/>
+      <c r="A48" s="11"/>
       <c r="B48" s="3"/>
       <c r="C48" s="4"/>
       <c r="D48" s="3"/>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1">
-      <c r="A49" s="51"/>
+      <c r="A49" s="11"/>
       <c r="B49" s="3"/>
       <c r="C49" s="4"/>
       <c r="D49" s="3"/>
     </row>
     <row r="50" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A50" s="51"/>
+      <c r="A50" s="11"/>
       <c r="B50" s="3"/>
       <c r="C50" s="4"/>
       <c r="D50" s="3"/>
     </row>
     <row r="51" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A51" s="51"/>
+      <c r="A51" s="11"/>
       <c r="B51" s="3"/>
       <c r="C51" s="4"/>
       <c r="D51" s="3"/>
     </row>
     <row r="52" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A52" s="51"/>
+      <c r="A52" s="11"/>
       <c r="B52" s="3"/>
       <c r="C52" s="4"/>
       <c r="D52" s="3"/>
     </row>
     <row r="53" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A53" s="51"/>
+      <c r="A53" s="11"/>
       <c r="B53" s="3"/>
       <c r="C53" s="4"/>
       <c r="D53" s="3"/>
     </row>
     <row r="54" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A54" s="51"/>
+      <c r="A54" s="11"/>
       <c r="B54" s="3"/>
       <c r="C54" s="4"/>
       <c r="D54" s="3"/>
     </row>
     <row r="55" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A55" s="51"/>
+      <c r="A55" s="11"/>
       <c r="B55" s="3"/>
       <c r="C55" s="4"/>
       <c r="D55" s="3"/>
     </row>
     <row r="56" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A56" s="51"/>
+      <c r="A56" s="11"/>
       <c r="B56" s="3"/>
       <c r="C56" s="4"/>
       <c r="D56" s="3"/>
     </row>
     <row r="57" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A57" s="51"/>
+      <c r="A57" s="11"/>
       <c r="B57" s="3"/>
       <c r="C57" s="4"/>
       <c r="D57" s="3"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="51"/>
+      <c r="A58" s="11"/>
       <c r="B58" s="3"/>
       <c r="C58" s="4"/>
       <c r="D58" s="3"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="105"/>
+      <c r="A59" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="L3:N3"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="F7:K7"/>
@@ -7451,14 +7449,16 @@
     <mergeCell ref="L4:T4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:T5"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVN983052:WWB983094 F65526:T65568 JB65548:JP65590 SX65548:TL65590 ACT65548:ADH65590 AMP65548:AND65590 AWL65548:AWZ65590 BGH65548:BGV65590 BQD65548:BQR65590 BZZ65548:CAN65590 CJV65548:CKJ65590 CTR65548:CUF65590 DDN65548:DEB65590 DNJ65548:DNX65590 DXF65548:DXT65590 EHB65548:EHP65590 EQX65548:ERL65590 FAT65548:FBH65590 FKP65548:FLD65590 FUL65548:FUZ65590 GEH65548:GEV65590 GOD65548:GOR65590 GXZ65548:GYN65590 HHV65548:HIJ65590 HRR65548:HSF65590 IBN65548:ICB65590 ILJ65548:ILX65590 IVF65548:IVT65590 JFB65548:JFP65590 JOX65548:JPL65590 JYT65548:JZH65590 KIP65548:KJD65590 KSL65548:KSZ65590 LCH65548:LCV65590 LMD65548:LMR65590 LVZ65548:LWN65590 MFV65548:MGJ65590 MPR65548:MQF65590 MZN65548:NAB65590 NJJ65548:NJX65590 NTF65548:NTT65590 ODB65548:ODP65590 OMX65548:ONL65590 OWT65548:OXH65590 PGP65548:PHD65590 PQL65548:PQZ65590 QAH65548:QAV65590 QKD65548:QKR65590 QTZ65548:QUN65590 RDV65548:REJ65590 RNR65548:ROF65590 RXN65548:RYB65590 SHJ65548:SHX65590 SRF65548:SRT65590 TBB65548:TBP65590 TKX65548:TLL65590 TUT65548:TVH65590 UEP65548:UFD65590 UOL65548:UOZ65590 UYH65548:UYV65590 VID65548:VIR65590 VRZ65548:VSN65590 WBV65548:WCJ65590 WLR65548:WMF65590 WVN65548:WWB65590 F131062:T131104 JB131084:JP131126 SX131084:TL131126 ACT131084:ADH131126 AMP131084:AND131126 AWL131084:AWZ131126 BGH131084:BGV131126 BQD131084:BQR131126 BZZ131084:CAN131126 CJV131084:CKJ131126 CTR131084:CUF131126 DDN131084:DEB131126 DNJ131084:DNX131126 DXF131084:DXT131126 EHB131084:EHP131126 EQX131084:ERL131126 FAT131084:FBH131126 FKP131084:FLD131126 FUL131084:FUZ131126 GEH131084:GEV131126 GOD131084:GOR131126 GXZ131084:GYN131126 HHV131084:HIJ131126 HRR131084:HSF131126 IBN131084:ICB131126 ILJ131084:ILX131126 IVF131084:IVT131126 JFB131084:JFP131126 JOX131084:JPL131126 JYT131084:JZH131126 KIP131084:KJD131126 KSL131084:KSZ131126 LCH131084:LCV131126 LMD131084:LMR131126 LVZ131084:LWN131126 MFV131084:MGJ131126 MPR131084:MQF131126 MZN131084:NAB131126 NJJ131084:NJX131126 NTF131084:NTT131126 ODB131084:ODP131126 OMX131084:ONL131126 OWT131084:OXH131126 PGP131084:PHD131126 PQL131084:PQZ131126 QAH131084:QAV131126 QKD131084:QKR131126 QTZ131084:QUN131126 RDV131084:REJ131126 RNR131084:ROF131126 RXN131084:RYB131126 SHJ131084:SHX131126 SRF131084:SRT131126 TBB131084:TBP131126 TKX131084:TLL131126 TUT131084:TVH131126 UEP131084:UFD131126 UOL131084:UOZ131126 UYH131084:UYV131126 VID131084:VIR131126 VRZ131084:VSN131126 WBV131084:WCJ131126 WLR131084:WMF131126 WVN131084:WWB131126 F196598:T196640 JB196620:JP196662 SX196620:TL196662 ACT196620:ADH196662 AMP196620:AND196662 AWL196620:AWZ196662 BGH196620:BGV196662 BQD196620:BQR196662 BZZ196620:CAN196662 CJV196620:CKJ196662 CTR196620:CUF196662 DDN196620:DEB196662 DNJ196620:DNX196662 DXF196620:DXT196662 EHB196620:EHP196662 EQX196620:ERL196662 FAT196620:FBH196662 FKP196620:FLD196662 FUL196620:FUZ196662 GEH196620:GEV196662 GOD196620:GOR196662 GXZ196620:GYN196662 HHV196620:HIJ196662 HRR196620:HSF196662 IBN196620:ICB196662 ILJ196620:ILX196662 IVF196620:IVT196662 JFB196620:JFP196662 JOX196620:JPL196662 JYT196620:JZH196662 KIP196620:KJD196662 KSL196620:KSZ196662 LCH196620:LCV196662 LMD196620:LMR196662 LVZ196620:LWN196662 MFV196620:MGJ196662 MPR196620:MQF196662 MZN196620:NAB196662 NJJ196620:NJX196662 NTF196620:NTT196662 ODB196620:ODP196662 OMX196620:ONL196662 OWT196620:OXH196662 PGP196620:PHD196662 PQL196620:PQZ196662 QAH196620:QAV196662 QKD196620:QKR196662 QTZ196620:QUN196662 RDV196620:REJ196662 RNR196620:ROF196662 RXN196620:RYB196662 SHJ196620:SHX196662 SRF196620:SRT196662 TBB196620:TBP196662 TKX196620:TLL196662 TUT196620:TVH196662 UEP196620:UFD196662 UOL196620:UOZ196662 UYH196620:UYV196662 VID196620:VIR196662 VRZ196620:VSN196662 WBV196620:WCJ196662 WLR196620:WMF196662 WVN196620:WWB196662 F262134:T262176 JB262156:JP262198 SX262156:TL262198 ACT262156:ADH262198 AMP262156:AND262198 AWL262156:AWZ262198 BGH262156:BGV262198 BQD262156:BQR262198 BZZ262156:CAN262198 CJV262156:CKJ262198 CTR262156:CUF262198 DDN262156:DEB262198 DNJ262156:DNX262198 DXF262156:DXT262198 EHB262156:EHP262198 EQX262156:ERL262198 FAT262156:FBH262198 FKP262156:FLD262198 FUL262156:FUZ262198 GEH262156:GEV262198 GOD262156:GOR262198 GXZ262156:GYN262198 HHV262156:HIJ262198 HRR262156:HSF262198 IBN262156:ICB262198 ILJ262156:ILX262198 IVF262156:IVT262198 JFB262156:JFP262198 JOX262156:JPL262198 JYT262156:JZH262198 KIP262156:KJD262198 KSL262156:KSZ262198 LCH262156:LCV262198 LMD262156:LMR262198 LVZ262156:LWN262198 MFV262156:MGJ262198 MPR262156:MQF262198 MZN262156:NAB262198 NJJ262156:NJX262198 NTF262156:NTT262198 ODB262156:ODP262198 OMX262156:ONL262198 OWT262156:OXH262198 PGP262156:PHD262198 PQL262156:PQZ262198 QAH262156:QAV262198 QKD262156:QKR262198 QTZ262156:QUN262198 RDV262156:REJ262198 RNR262156:ROF262198 RXN262156:RYB262198 SHJ262156:SHX262198 SRF262156:SRT262198 TBB262156:TBP262198 TKX262156:TLL262198 TUT262156:TVH262198 UEP262156:UFD262198 UOL262156:UOZ262198 UYH262156:UYV262198 VID262156:VIR262198 VRZ262156:VSN262198 WBV262156:WCJ262198 WLR262156:WMF262198 WVN262156:WWB262198 F327670:T327712 JB327692:JP327734 SX327692:TL327734 ACT327692:ADH327734 AMP327692:AND327734 AWL327692:AWZ327734 BGH327692:BGV327734 BQD327692:BQR327734 BZZ327692:CAN327734 CJV327692:CKJ327734 CTR327692:CUF327734 DDN327692:DEB327734 DNJ327692:DNX327734 DXF327692:DXT327734 EHB327692:EHP327734 EQX327692:ERL327734 FAT327692:FBH327734 FKP327692:FLD327734 FUL327692:FUZ327734 GEH327692:GEV327734 GOD327692:GOR327734 GXZ327692:GYN327734 HHV327692:HIJ327734 HRR327692:HSF327734 IBN327692:ICB327734 ILJ327692:ILX327734 IVF327692:IVT327734 JFB327692:JFP327734 JOX327692:JPL327734 JYT327692:JZH327734 KIP327692:KJD327734 KSL327692:KSZ327734 LCH327692:LCV327734 LMD327692:LMR327734 LVZ327692:LWN327734 MFV327692:MGJ327734 MPR327692:MQF327734 MZN327692:NAB327734 NJJ327692:NJX327734 NTF327692:NTT327734 ODB327692:ODP327734 OMX327692:ONL327734 OWT327692:OXH327734 PGP327692:PHD327734 PQL327692:PQZ327734 QAH327692:QAV327734 QKD327692:QKR327734 QTZ327692:QUN327734 RDV327692:REJ327734 RNR327692:ROF327734 RXN327692:RYB327734 SHJ327692:SHX327734 SRF327692:SRT327734 TBB327692:TBP327734 TKX327692:TLL327734 TUT327692:TVH327734 UEP327692:UFD327734 UOL327692:UOZ327734 UYH327692:UYV327734 VID327692:VIR327734 VRZ327692:VSN327734 WBV327692:WCJ327734 WLR327692:WMF327734 WVN327692:WWB327734 F393206:T393248 JB393228:JP393270 SX393228:TL393270 ACT393228:ADH393270 AMP393228:AND393270 AWL393228:AWZ393270 BGH393228:BGV393270 BQD393228:BQR393270 BZZ393228:CAN393270 CJV393228:CKJ393270 CTR393228:CUF393270 DDN393228:DEB393270 DNJ393228:DNX393270 DXF393228:DXT393270 EHB393228:EHP393270 EQX393228:ERL393270 FAT393228:FBH393270 FKP393228:FLD393270 FUL393228:FUZ393270 GEH393228:GEV393270 GOD393228:GOR393270 GXZ393228:GYN393270 HHV393228:HIJ393270 HRR393228:HSF393270 IBN393228:ICB393270 ILJ393228:ILX393270 IVF393228:IVT393270 JFB393228:JFP393270 JOX393228:JPL393270 JYT393228:JZH393270 KIP393228:KJD393270 KSL393228:KSZ393270 LCH393228:LCV393270 LMD393228:LMR393270 LVZ393228:LWN393270 MFV393228:MGJ393270 MPR393228:MQF393270 MZN393228:NAB393270 NJJ393228:NJX393270 NTF393228:NTT393270 ODB393228:ODP393270 OMX393228:ONL393270 OWT393228:OXH393270 PGP393228:PHD393270 PQL393228:PQZ393270 QAH393228:QAV393270 QKD393228:QKR393270 QTZ393228:QUN393270 RDV393228:REJ393270 RNR393228:ROF393270 RXN393228:RYB393270 SHJ393228:SHX393270 SRF393228:SRT393270 TBB393228:TBP393270 TKX393228:TLL393270 TUT393228:TVH393270 UEP393228:UFD393270 UOL393228:UOZ393270 UYH393228:UYV393270 VID393228:VIR393270 VRZ393228:VSN393270 WBV393228:WCJ393270 WLR393228:WMF393270 WVN393228:WWB393270 F458742:T458784 JB458764:JP458806 SX458764:TL458806 ACT458764:ADH458806 AMP458764:AND458806 AWL458764:AWZ458806 BGH458764:BGV458806 BQD458764:BQR458806 BZZ458764:CAN458806 CJV458764:CKJ458806 CTR458764:CUF458806 DDN458764:DEB458806 DNJ458764:DNX458806 DXF458764:DXT458806 EHB458764:EHP458806 EQX458764:ERL458806 FAT458764:FBH458806 FKP458764:FLD458806 FUL458764:FUZ458806 GEH458764:GEV458806 GOD458764:GOR458806 GXZ458764:GYN458806 HHV458764:HIJ458806 HRR458764:HSF458806 IBN458764:ICB458806 ILJ458764:ILX458806 IVF458764:IVT458806 JFB458764:JFP458806 JOX458764:JPL458806 JYT458764:JZH458806 KIP458764:KJD458806 KSL458764:KSZ458806 LCH458764:LCV458806 LMD458764:LMR458806 LVZ458764:LWN458806 MFV458764:MGJ458806 MPR458764:MQF458806 MZN458764:NAB458806 NJJ458764:NJX458806 NTF458764:NTT458806 ODB458764:ODP458806 OMX458764:ONL458806 OWT458764:OXH458806 PGP458764:PHD458806 PQL458764:PQZ458806 QAH458764:QAV458806 QKD458764:QKR458806 QTZ458764:QUN458806 RDV458764:REJ458806 RNR458764:ROF458806 RXN458764:RYB458806 SHJ458764:SHX458806 SRF458764:SRT458806 TBB458764:TBP458806 TKX458764:TLL458806 TUT458764:TVH458806 UEP458764:UFD458806 UOL458764:UOZ458806 UYH458764:UYV458806 VID458764:VIR458806 VRZ458764:VSN458806 WBV458764:WCJ458806 WLR458764:WMF458806 WVN458764:WWB458806 F524278:T524320 JB524300:JP524342 SX524300:TL524342 ACT524300:ADH524342 AMP524300:AND524342 AWL524300:AWZ524342 BGH524300:BGV524342 BQD524300:BQR524342 BZZ524300:CAN524342 CJV524300:CKJ524342 CTR524300:CUF524342 DDN524300:DEB524342 DNJ524300:DNX524342 DXF524300:DXT524342 EHB524300:EHP524342 EQX524300:ERL524342 FAT524300:FBH524342 FKP524300:FLD524342 FUL524300:FUZ524342 GEH524300:GEV524342 GOD524300:GOR524342 GXZ524300:GYN524342 HHV524300:HIJ524342 HRR524300:HSF524342 IBN524300:ICB524342 ILJ524300:ILX524342 IVF524300:IVT524342 JFB524300:JFP524342 JOX524300:JPL524342 JYT524300:JZH524342 KIP524300:KJD524342 KSL524300:KSZ524342 LCH524300:LCV524342 LMD524300:LMR524342 LVZ524300:LWN524342 MFV524300:MGJ524342 MPR524300:MQF524342 MZN524300:NAB524342 NJJ524300:NJX524342 NTF524300:NTT524342 ODB524300:ODP524342 OMX524300:ONL524342 OWT524300:OXH524342 PGP524300:PHD524342 PQL524300:PQZ524342 QAH524300:QAV524342 QKD524300:QKR524342 QTZ524300:QUN524342 RDV524300:REJ524342 RNR524300:ROF524342 RXN524300:RYB524342 SHJ524300:SHX524342 SRF524300:SRT524342 TBB524300:TBP524342 TKX524300:TLL524342 TUT524300:TVH524342 UEP524300:UFD524342 UOL524300:UOZ524342 UYH524300:UYV524342 VID524300:VIR524342 VRZ524300:VSN524342 WBV524300:WCJ524342 WLR524300:WMF524342 WVN524300:WWB524342 F589814:T589856 JB589836:JP589878 SX589836:TL589878 ACT589836:ADH589878 AMP589836:AND589878 AWL589836:AWZ589878 BGH589836:BGV589878 BQD589836:BQR589878 BZZ589836:CAN589878 CJV589836:CKJ589878 CTR589836:CUF589878 DDN589836:DEB589878 DNJ589836:DNX589878 DXF589836:DXT589878 EHB589836:EHP589878 EQX589836:ERL589878 FAT589836:FBH589878 FKP589836:FLD589878 FUL589836:FUZ589878 GEH589836:GEV589878 GOD589836:GOR589878 GXZ589836:GYN589878 HHV589836:HIJ589878 HRR589836:HSF589878 IBN589836:ICB589878 ILJ589836:ILX589878 IVF589836:IVT589878 JFB589836:JFP589878 JOX589836:JPL589878 JYT589836:JZH589878 KIP589836:KJD589878 KSL589836:KSZ589878 LCH589836:LCV589878 LMD589836:LMR589878 LVZ589836:LWN589878 MFV589836:MGJ589878 MPR589836:MQF589878 MZN589836:NAB589878 NJJ589836:NJX589878 NTF589836:NTT589878 ODB589836:ODP589878 OMX589836:ONL589878 OWT589836:OXH589878 PGP589836:PHD589878 PQL589836:PQZ589878 QAH589836:QAV589878 QKD589836:QKR589878 QTZ589836:QUN589878 RDV589836:REJ589878 RNR589836:ROF589878 RXN589836:RYB589878 SHJ589836:SHX589878 SRF589836:SRT589878 TBB589836:TBP589878 TKX589836:TLL589878 TUT589836:TVH589878 UEP589836:UFD589878 UOL589836:UOZ589878 UYH589836:UYV589878 VID589836:VIR589878 VRZ589836:VSN589878 WBV589836:WCJ589878 WLR589836:WMF589878 WVN589836:WWB589878 F655350:T655392 JB655372:JP655414 SX655372:TL655414 ACT655372:ADH655414 AMP655372:AND655414 AWL655372:AWZ655414 BGH655372:BGV655414 BQD655372:BQR655414 BZZ655372:CAN655414 CJV655372:CKJ655414 CTR655372:CUF655414 DDN655372:DEB655414 DNJ655372:DNX655414 DXF655372:DXT655414 EHB655372:EHP655414 EQX655372:ERL655414 FAT655372:FBH655414 FKP655372:FLD655414 FUL655372:FUZ655414 GEH655372:GEV655414 GOD655372:GOR655414 GXZ655372:GYN655414 HHV655372:HIJ655414 HRR655372:HSF655414 IBN655372:ICB655414 ILJ655372:ILX655414 IVF655372:IVT655414 JFB655372:JFP655414 JOX655372:JPL655414 JYT655372:JZH655414 KIP655372:KJD655414 KSL655372:KSZ655414 LCH655372:LCV655414 LMD655372:LMR655414 LVZ655372:LWN655414 MFV655372:MGJ655414 MPR655372:MQF655414 MZN655372:NAB655414 NJJ655372:NJX655414 NTF655372:NTT655414 ODB655372:ODP655414 OMX655372:ONL655414 OWT655372:OXH655414 PGP655372:PHD655414 PQL655372:PQZ655414 QAH655372:QAV655414 QKD655372:QKR655414 QTZ655372:QUN655414 RDV655372:REJ655414 RNR655372:ROF655414 RXN655372:RYB655414 SHJ655372:SHX655414 SRF655372:SRT655414 TBB655372:TBP655414 TKX655372:TLL655414 TUT655372:TVH655414 UEP655372:UFD655414 UOL655372:UOZ655414 UYH655372:UYV655414 VID655372:VIR655414 VRZ655372:VSN655414 WBV655372:WCJ655414 WLR655372:WMF655414 WVN655372:WWB655414 F720886:T720928 JB720908:JP720950 SX720908:TL720950 ACT720908:ADH720950 AMP720908:AND720950 AWL720908:AWZ720950 BGH720908:BGV720950 BQD720908:BQR720950 BZZ720908:CAN720950 CJV720908:CKJ720950 CTR720908:CUF720950 DDN720908:DEB720950 DNJ720908:DNX720950 DXF720908:DXT720950 EHB720908:EHP720950 EQX720908:ERL720950 FAT720908:FBH720950 FKP720908:FLD720950 FUL720908:FUZ720950 GEH720908:GEV720950 GOD720908:GOR720950 GXZ720908:GYN720950 HHV720908:HIJ720950 HRR720908:HSF720950 IBN720908:ICB720950 ILJ720908:ILX720950 IVF720908:IVT720950 JFB720908:JFP720950 JOX720908:JPL720950 JYT720908:JZH720950 KIP720908:KJD720950 KSL720908:KSZ720950 LCH720908:LCV720950 LMD720908:LMR720950 LVZ720908:LWN720950 MFV720908:MGJ720950 MPR720908:MQF720950 MZN720908:NAB720950 NJJ720908:NJX720950 NTF720908:NTT720950 ODB720908:ODP720950 OMX720908:ONL720950 OWT720908:OXH720950 PGP720908:PHD720950 PQL720908:PQZ720950 QAH720908:QAV720950 QKD720908:QKR720950 QTZ720908:QUN720950 RDV720908:REJ720950 RNR720908:ROF720950 RXN720908:RYB720950 SHJ720908:SHX720950 SRF720908:SRT720950 TBB720908:TBP720950 TKX720908:TLL720950 TUT720908:TVH720950 UEP720908:UFD720950 UOL720908:UOZ720950 UYH720908:UYV720950 VID720908:VIR720950 VRZ720908:VSN720950 WBV720908:WCJ720950 WLR720908:WMF720950 WVN720908:WWB720950 F786422:T786464 JB786444:JP786486 SX786444:TL786486 ACT786444:ADH786486 AMP786444:AND786486 AWL786444:AWZ786486 BGH786444:BGV786486 BQD786444:BQR786486 BZZ786444:CAN786486 CJV786444:CKJ786486 CTR786444:CUF786486 DDN786444:DEB786486 DNJ786444:DNX786486 DXF786444:DXT786486 EHB786444:EHP786486 EQX786444:ERL786486 FAT786444:FBH786486 FKP786444:FLD786486 FUL786444:FUZ786486 GEH786444:GEV786486 GOD786444:GOR786486 GXZ786444:GYN786486 HHV786444:HIJ786486 HRR786444:HSF786486 IBN786444:ICB786486 ILJ786444:ILX786486 IVF786444:IVT786486 JFB786444:JFP786486 JOX786444:JPL786486 JYT786444:JZH786486 KIP786444:KJD786486 KSL786444:KSZ786486 LCH786444:LCV786486 LMD786444:LMR786486 LVZ786444:LWN786486 MFV786444:MGJ786486 MPR786444:MQF786486 MZN786444:NAB786486 NJJ786444:NJX786486 NTF786444:NTT786486 ODB786444:ODP786486 OMX786444:ONL786486 OWT786444:OXH786486 PGP786444:PHD786486 PQL786444:PQZ786486 QAH786444:QAV786486 QKD786444:QKR786486 QTZ786444:QUN786486 RDV786444:REJ786486 RNR786444:ROF786486 RXN786444:RYB786486 SHJ786444:SHX786486 SRF786444:SRT786486 TBB786444:TBP786486 TKX786444:TLL786486 TUT786444:TVH786486 UEP786444:UFD786486 UOL786444:UOZ786486 UYH786444:UYV786486 VID786444:VIR786486 VRZ786444:VSN786486 WBV786444:WCJ786486 WLR786444:WMF786486 WVN786444:WWB786486 F851958:T852000 JB851980:JP852022 SX851980:TL852022 ACT851980:ADH852022 AMP851980:AND852022 AWL851980:AWZ852022 BGH851980:BGV852022 BQD851980:BQR852022 BZZ851980:CAN852022 CJV851980:CKJ852022 CTR851980:CUF852022 DDN851980:DEB852022 DNJ851980:DNX852022 DXF851980:DXT852022 EHB851980:EHP852022 EQX851980:ERL852022 FAT851980:FBH852022 FKP851980:FLD852022 FUL851980:FUZ852022 GEH851980:GEV852022 GOD851980:GOR852022 GXZ851980:GYN852022 HHV851980:HIJ852022 HRR851980:HSF852022 IBN851980:ICB852022 ILJ851980:ILX852022 IVF851980:IVT852022 JFB851980:JFP852022 JOX851980:JPL852022 JYT851980:JZH852022 KIP851980:KJD852022 KSL851980:KSZ852022 LCH851980:LCV852022 LMD851980:LMR852022 LVZ851980:LWN852022 MFV851980:MGJ852022 MPR851980:MQF852022 MZN851980:NAB852022 NJJ851980:NJX852022 NTF851980:NTT852022 ODB851980:ODP852022 OMX851980:ONL852022 OWT851980:OXH852022 PGP851980:PHD852022 PQL851980:PQZ852022 QAH851980:QAV852022 QKD851980:QKR852022 QTZ851980:QUN852022 RDV851980:REJ852022 RNR851980:ROF852022 RXN851980:RYB852022 SHJ851980:SHX852022 SRF851980:SRT852022 TBB851980:TBP852022 TKX851980:TLL852022 TUT851980:TVH852022 UEP851980:UFD852022 UOL851980:UOZ852022 UYH851980:UYV852022 VID851980:VIR852022 VRZ851980:VSN852022 WBV851980:WCJ852022 WLR851980:WMF852022 WVN851980:WWB852022 F917494:T917536 JB917516:JP917558 SX917516:TL917558 ACT917516:ADH917558 AMP917516:AND917558 AWL917516:AWZ917558 BGH917516:BGV917558 BQD917516:BQR917558 BZZ917516:CAN917558 CJV917516:CKJ917558 CTR917516:CUF917558 DDN917516:DEB917558 DNJ917516:DNX917558 DXF917516:DXT917558 EHB917516:EHP917558 EQX917516:ERL917558 FAT917516:FBH917558 FKP917516:FLD917558 FUL917516:FUZ917558 GEH917516:GEV917558 GOD917516:GOR917558 GXZ917516:GYN917558 HHV917516:HIJ917558 HRR917516:HSF917558 IBN917516:ICB917558 ILJ917516:ILX917558 IVF917516:IVT917558 JFB917516:JFP917558 JOX917516:JPL917558 JYT917516:JZH917558 KIP917516:KJD917558 KSL917516:KSZ917558 LCH917516:LCV917558 LMD917516:LMR917558 LVZ917516:LWN917558 MFV917516:MGJ917558 MPR917516:MQF917558 MZN917516:NAB917558 NJJ917516:NJX917558 NTF917516:NTT917558 ODB917516:ODP917558 OMX917516:ONL917558 OWT917516:OXH917558 PGP917516:PHD917558 PQL917516:PQZ917558 QAH917516:QAV917558 QKD917516:QKR917558 QTZ917516:QUN917558 RDV917516:REJ917558 RNR917516:ROF917558 RXN917516:RYB917558 SHJ917516:SHX917558 SRF917516:SRT917558 TBB917516:TBP917558 TKX917516:TLL917558 TUT917516:TVH917558 UEP917516:UFD917558 UOL917516:UOZ917558 UYH917516:UYV917558 VID917516:VIR917558 VRZ917516:VSN917558 WBV917516:WCJ917558 WLR917516:WMF917558 WVN917516:WWB917558 F983030:T983072 JB983052:JP983094 SX983052:TL983094 ACT983052:ADH983094 AMP983052:AND983094 AWL983052:AWZ983094 BGH983052:BGV983094 BQD983052:BQR983094 BZZ983052:CAN983094 CJV983052:CKJ983094 CTR983052:CUF983094 DDN983052:DEB983094 DNJ983052:DNX983094 DXF983052:DXT983094 EHB983052:EHP983094 EQX983052:ERL983094 FAT983052:FBH983094 FKP983052:FLD983094 FUL983052:FUZ983094 GEH983052:GEV983094 GOD983052:GOR983094 GXZ983052:GYN983094 HHV983052:HIJ983094 HRR983052:HSF983094 IBN983052:ICB983094 ILJ983052:ILX983094 IVF983052:IVT983094 JFB983052:JFP983094 JOX983052:JPL983094 JYT983052:JZH983094 KIP983052:KJD983094 KSL983052:KSZ983094 LCH983052:LCV983094 LMD983052:LMR983094 LVZ983052:LWN983094 MFV983052:MGJ983094 MPR983052:MQF983094 MZN983052:NAB983094 NJJ983052:NJX983094 NTF983052:NTT983094 ODB983052:ODP983094 OMX983052:ONL983094 OWT983052:OXH983094 PGP983052:PHD983094 PQL983052:PQZ983094 QAH983052:QAV983094 QKD983052:QKR983094 QTZ983052:QUN983094 RDV983052:REJ983094 RNR983052:ROF983094 RXN983052:RYB983094 SHJ983052:SHX983094 SRF983052:SRT983094 TBB983052:TBP983094 TKX983052:TLL983094 TUT983052:TVH983094 UEP983052:UFD983094 UOL983052:UOZ983094 UYH983052:UYV983094 VID983052:VIR983094 VRZ983052:VSN983094 WBV983052:WCJ983094 WLR983052:WMF983094 F10:K19 F24:K32 D20:K23 WVE10:WVS36 WVM37:WWA54 WLI10:WLW36 WLQ37:WME54 WBM10:WCA36 WBU37:WCI54 VRQ10:VSE36 VRY37:VSM54 VHU10:VII36 VIC37:VIQ54 UXY10:UYM36 UYG37:UYU54 UOC10:UOQ36 UOK37:UOY54 UEG10:UEU36 UEO37:UFC54 TUK10:TUY36 TUS37:TVG54 TKO10:TLC36 TKW37:TLK54 TAS10:TBG36 TBA37:TBO54 SQW10:SRK36 SRE37:SRS54 SHA10:SHO36 SHI37:SHW54 RXE10:RXS36 RXM37:RYA54 RNI10:RNW36 RNQ37:ROE54 RDM10:REA36 RDU37:REI54 QTQ10:QUE36 QTY37:QUM54 QJU10:QKI36 QKC37:QKQ54 PZY10:QAM36 QAG37:QAU54 PQC10:PQQ36 PQK37:PQY54 PGG10:PGU36 PGO37:PHC54 OWK10:OWY36 OWS37:OXG54 OMO10:ONC36 OMW37:ONK54 OCS10:ODG36 ODA37:ODO54 NSW10:NTK36 NTE37:NTS54 NJA10:NJO36 NJI37:NJW54 MZE10:MZS36 MZM37:NAA54 MPI10:MPW36 MPQ37:MQE54 MFM10:MGA36 MFU37:MGI54 LVQ10:LWE36 LVY37:LWM54 LLU10:LMI36 LMC37:LMQ54 LBY10:LCM36 LCG37:LCU54 KSC10:KSQ36 KSK37:KSY54 KIG10:KIU36 KIO37:KJC54 JYK10:JYY36 JYS37:JZG54 JOO10:JPC36 JOW37:JPK54 JES10:JFG36 JFA37:JFO54 IUW10:IVK36 IVE37:IVS54 ILA10:ILO36 ILI37:ILW54 IBE10:IBS36 IBM37:ICA54 HRI10:HRW36 HRQ37:HSE54 HHM10:HIA36 HHU37:HII54 GXQ10:GYE36 GXY37:GYM54 GNU10:GOI36 GOC37:GOQ54 GDY10:GEM36 GEG37:GEU54 FUC10:FUQ36 FUK37:FUY54 FKG10:FKU36 FKO37:FLC54 FAK10:FAY36 FAS37:FBG54 EQO10:ERC36 EQW37:ERK54 EGS10:EHG36 EHA37:EHO54 DWW10:DXK36 DXE37:DXS54 DNA10:DNO36 DNI37:DNW54 DDE10:DDS36 DDM37:DEA54 CTI10:CTW36 CTQ37:CUE54 CJM10:CKA36 CJU37:CKI54 BZQ10:CAE36 BZY37:CAM54 BPU10:BQI36 BQC37:BQQ54 BFY10:BGM36 BGG37:BGU54 AWC10:AWQ36 AWK37:AWY54 AMG10:AMU36 AMO37:ANC54 ACK10:ACY36 ACS37:ADG54 SO10:TC36 SW37:TK54 IS10:JG36 JA37:JO54">
